--- a/output/08-specific.xlsx
+++ b/output/08-specific.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="eggers_test" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -408,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="D2">
-        <v>0.01057522579711685</v>
+        <v>0.01132103733344479</v>
       </c>
       <c r="E2">
-        <v>0.02468479606572522</v>
+        <v>0.02328286513378267</v>
       </c>
       <c r="F2">
-        <v>94.77508775367545</v>
+        <v>94.6709166631459</v>
       </c>
       <c r="G2">
-        <v>66.35003581141055</v>
+        <v>63.69831225964064</v>
       </c>
       <c r="H2">
-        <v>28.4250519422649</v>
+        <v>30.97260440350525</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>1.511324448310524e-09</v>
+        <v>4.756766376662213e-09</v>
       </c>
       <c r="E3">
-        <v>0.02299982895037337</v>
+        <v>0.02056550205416127</v>
       </c>
       <c r="F3">
-        <v>88.12792592848962</v>
+        <v>86.29979330611449</v>
       </c>
       <c r="G3">
-        <v>88.12792013758219</v>
+        <v>86.29977334512064</v>
       </c>
       <c r="H3">
-        <v>5.790907426749503e-06</v>
+        <v>1.996099385663073e-05</v>
       </c>
     </row>
   </sheetData>
@@ -464,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -524,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2913863358439596</v>
+        <v>-0.2879401344091578</v>
       </c>
       <c r="D2">
-        <v>0.07205975725170799</v>
+        <v>0.07372407196522826</v>
       </c>
       <c r="E2">
-        <v>3.215317587403502</v>
+        <v>3.282254419457011</v>
       </c>
       <c r="F2">
-        <v>-0.478439939139175</v>
+        <v>-0.4776463076221116</v>
       </c>
       <c r="G2">
-        <v>-0.07903678884677011</v>
+        <v>-0.07257917130727123</v>
       </c>
       <c r="H2">
-        <v>0.02198074331115907</v>
+        <v>0.02333362774198711</v>
       </c>
     </row>
     <row r="3">
@@ -554,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.2409639907240743</v>
+        <v>0.2289888685566282</v>
       </c>
       <c r="D3">
-        <v>0.09882423083829737</v>
+        <v>0.09851961304059803</v>
       </c>
       <c r="E3">
-        <v>3.404044460270509</v>
+        <v>3.437185250829886</v>
       </c>
       <c r="F3">
-        <v>-0.04856823483526003</v>
+        <v>-0.05894642297826088</v>
       </c>
       <c r="G3">
-        <v>0.4931401214715826</v>
+        <v>0.4817487754834548</v>
       </c>
       <c r="H3">
-        <v>0.07868234302002639</v>
+        <v>0.08778559552186349</v>
       </c>
     </row>
     <row r="4">
@@ -580,26 +581,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation</t>
+          <t>specific_factorautonomous motivation</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.2987477015641252</v>
+        <v>0.2506357660002619</v>
       </c>
       <c r="D4">
-        <v>0.04107560713972953</v>
+        <v>0.1142905819764339</v>
       </c>
       <c r="E4">
-        <v>25.683970777651</v>
+        <v>2.957157537460784</v>
       </c>
       <c r="F4">
-        <v>0.2200049469861175</v>
+        <v>-0.1101827353587916</v>
       </c>
       <c r="G4">
-        <v>0.3736224982464272</v>
+        <v>0.5530842924406073</v>
       </c>
       <c r="H4">
-        <v>6.250071748929735e-08</v>
+        <v>0.112176620998581</v>
       </c>
     </row>
     <row r="5">
@@ -610,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind</t>
+          <t>specific_factorAutonomous motivation</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.1100445571831774</v>
+        <v>0.3096004236133296</v>
       </c>
       <c r="D5">
-        <v>5.038863299903562e-17</v>
+        <v>0.04548367978226992</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>20.9750642114884</v>
       </c>
       <c r="F5">
-        <v>0.1100445571831768</v>
+        <v>0.2217616100983417</v>
       </c>
       <c r="G5">
-        <v>0.1100445571831781</v>
+        <v>0.3924550380519995</v>
       </c>
       <c r="H5">
-        <v>2.903232321824943e-16</v>
+        <v>6.067686676998122e-07</v>
       </c>
     </row>
     <row r="6">
@@ -640,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation</t>
+          <t>specific_factorCoherence of mind</t>
         </is>
       </c>
       <c r="C6">
-        <v>-0.1614633831611527</v>
+        <v>0.1100445571831774</v>
       </c>
       <c r="D6">
-        <v>0.06438279923691564</v>
+        <v>2.785764763447593e-16</v>
       </c>
       <c r="E6">
-        <v>1.481792803056664</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>-0.5057446324799496</v>
+        <v>0.1100445571831739</v>
       </c>
       <c r="G6">
-        <v>0.227183310649113</v>
+        <v>0.1100445571831809</v>
       </c>
       <c r="H6">
-        <v>0.169122666939742</v>
+        <v>1.605068806370845e-15</v>
       </c>
     </row>
     <row r="7">
@@ -670,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation</t>
+          <t>specific_factorControlled causality orientation</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.04435326769183983</v>
+        <v>-0.1766338294130649</v>
       </c>
       <c r="D7">
-        <v>0.03519161262948997</v>
+        <v>0.06721821012262652</v>
       </c>
       <c r="E7">
-        <v>14.36789049541516</v>
+        <v>1.527608652616089</v>
       </c>
       <c r="F7">
-        <v>-0.1191118291691155</v>
+        <v>-0.5174533632235074</v>
       </c>
       <c r="G7">
-        <v>0.03090536060893916</v>
+        <v>0.212553042990909</v>
       </c>
       <c r="H7">
-        <v>0.2273434530460732</v>
+        <v>0.1542026678731799</v>
       </c>
     </row>
     <row r="8">
@@ -700,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence</t>
+          <t>specific_factorcontrolled motivation</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.2866196372955676</v>
+        <v>-0.05309693740557916</v>
       </c>
       <c r="D8">
-        <v>0.06622681851720399</v>
+        <v>0.1022768154148985</v>
       </c>
       <c r="E8">
-        <v>4.951532489303022</v>
+        <v>1.251965516108562</v>
       </c>
       <c r="F8">
-        <v>0.1235018242093524</v>
+        <v>-0.7023550041182948</v>
       </c>
       <c r="G8">
-        <v>0.4346562742377997</v>
+        <v>0.6443866521598379</v>
       </c>
       <c r="H8">
-        <v>0.00684231313304508</v>
+        <v>0.6801870170186584</v>
       </c>
     </row>
     <row r="9">
@@ -730,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs</t>
+          <t>specific_factorControlled motivation</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.2250417203192697</v>
+        <v>-0.0389146651680139</v>
       </c>
       <c r="D9">
-        <v>0.03663115800875855</v>
+        <v>0.03858301209011348</v>
       </c>
       <c r="E9">
-        <v>1.962572683911457</v>
+        <v>12.09978372921395</v>
       </c>
       <c r="F9">
-        <v>-0.3709181841149701</v>
+        <v>-0.1223072627988474</v>
       </c>
       <c r="G9">
-        <v>-0.06832701539263573</v>
+        <v>0.04502355047794267</v>
       </c>
       <c r="H9">
-        <v>0.02581056275686232</v>
+        <v>0.3326785327846441</v>
       </c>
     </row>
     <row r="10">
@@ -760,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints</t>
+          <t>specific_factoremotional intelligence</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.004596844096148441</v>
+        <v>0.1638121368939091</v>
       </c>
       <c r="D10">
-        <v>0.04011293780512363</v>
+        <v>0.06985812063579586</v>
       </c>
       <c r="E10">
-        <v>5.349406328692565</v>
+        <v>1.450808100214358</v>
       </c>
       <c r="F10">
-        <v>-0.09622486711419857</v>
+        <v>-0.268793065252732</v>
       </c>
       <c r="G10">
-        <v>0.1053251858788961</v>
+        <v>0.5414221643656131</v>
       </c>
       <c r="H10">
-        <v>0.912941845802089</v>
+        <v>0.1874533638443457</v>
       </c>
     </row>
     <row r="11">
@@ -790,26 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures</t>
+          <t>specific_factorEmotional intelligence</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.006663766125107547</v>
+        <v>0.3457506622028271</v>
       </c>
       <c r="D11">
-        <v>0.04841777319105022</v>
+        <v>0.05889207747572282</v>
       </c>
       <c r="E11">
-        <v>7.892379058375687</v>
+        <v>3.891747924426126</v>
       </c>
       <c r="F11">
-        <v>-0.1048663262407125</v>
+        <v>0.1928439693291948</v>
       </c>
       <c r="G11">
-        <v>0.1180283165443261</v>
+        <v>0.4822633644931899</v>
       </c>
       <c r="H11">
-        <v>0.8939772062472882</v>
+        <v>0.003939444221078238</v>
       </c>
     </row>
     <row r="12">
@@ -820,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals</t>
+          <t>specific_factorentity beliefs</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.04590062381114492</v>
+        <v>-0.2139398837315766</v>
       </c>
       <c r="D12">
-        <v>0.1195951526199938</v>
+        <v>0.04296076081338322</v>
       </c>
       <c r="E12">
-        <v>1.871606323025626</v>
+        <v>1.993231174151196</v>
       </c>
       <c r="F12">
-        <v>-0.5340990362844488</v>
+        <v>-0.3822949513936216</v>
       </c>
       <c r="G12">
-        <v>0.4652547190353537</v>
+        <v>-0.03183774939061355</v>
       </c>
       <c r="H12">
-        <v>0.7401355754177861</v>
+        <v>0.03719364522179795</v>
       </c>
     </row>
     <row r="13">
@@ -850,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorIll-being</t>
+          <t>specific_factorExternal pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C13">
-        <v>-0.225242374206191</v>
+        <v>0.003222811138076804</v>
       </c>
       <c r="D13">
-        <v>0.08328051962132899</v>
+        <v>0.0403731040656327</v>
       </c>
       <c r="E13">
-        <v>11.32472967432907</v>
+        <v>5.517771809739739</v>
       </c>
       <c r="F13">
-        <v>-0.3900269503296332</v>
+        <v>-0.0973880244671394</v>
       </c>
       <c r="G13">
-        <v>-0.04647838908900243</v>
+        <v>0.1037684422802343</v>
       </c>
       <c r="H13">
-        <v>0.01838350697566095</v>
+        <v>0.9391911665705092</v>
       </c>
     </row>
     <row r="14">
@@ -880,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs</t>
+          <t>specific_factorexternal pressures</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.1358870942823804</v>
+        <v>-0.006171653356446437</v>
       </c>
       <c r="D14">
-        <v>0.01934859624914688</v>
+        <v>0.08624327203965941</v>
       </c>
       <c r="E14">
-        <v>1.091097744905533</v>
+        <v>3.460896305845217</v>
       </c>
       <c r="F14">
-        <v>-0.06544620272092198</v>
+        <v>-0.2552995807228989</v>
       </c>
       <c r="G14">
-        <v>0.3265893921529504</v>
+        <v>0.2437247503201318</v>
       </c>
       <c r="H14">
-        <v>0.07632227189425196</v>
+        <v>0.9468903225251126</v>
       </c>
     </row>
     <row r="15">
@@ -910,26 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures</t>
+          <t>specific_factorExternal pressures</t>
         </is>
       </c>
       <c r="C15">
-        <v>-0.09374847598644301</v>
+        <v>0.01761399285964584</v>
       </c>
       <c r="D15">
-        <v>0.07063750159193412</v>
+        <v>0.0879373279374833</v>
       </c>
       <c r="E15">
-        <v>1.906914406767494</v>
+        <v>2.825120148098273</v>
       </c>
       <c r="F15">
-        <v>-0.390697456552284</v>
+        <v>-0.2657638777710591</v>
       </c>
       <c r="G15">
-        <v>0.2208730140661403</v>
+        <v>0.2981900506896155</v>
       </c>
       <c r="H15">
-        <v>0.32002917045404</v>
+        <v>0.8547731850142815</v>
       </c>
     </row>
     <row r="16">
@@ -940,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals</t>
+          <t>specific_factorExtrinsic goals</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.2643495849371186</v>
+        <v>0.03864420658608525</v>
       </c>
       <c r="D16">
-        <v>0.07410440888901278</v>
+        <v>0.09794939697329667</v>
       </c>
       <c r="E16">
-        <v>1.871606323025626</v>
+        <v>1.010544003454515</v>
       </c>
       <c r="F16">
-        <v>-0.06985846022036386</v>
+        <v>-0.8260687863270909</v>
       </c>
       <c r="G16">
-        <v>0.5452035709411551</v>
+        <v>0.8491108439126085</v>
       </c>
       <c r="H16">
-        <v>0.07441996586436689</v>
+        <v>0.760121684240388</v>
       </c>
     </row>
     <row r="17">
@@ -970,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help</t>
+          <t>specific_factorill-being</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.1960426734200881</v>
+        <v>-0.08926316778257772</v>
       </c>
       <c r="D17">
-        <v>0.04590075446163292</v>
+        <v>0.05892431691851138</v>
       </c>
       <c r="E17">
-        <v>10.46559743243417</v>
+        <v>2.048479603834451</v>
       </c>
       <c r="F17">
-        <v>0.0966512044971498</v>
+        <v>-0.3251259334276128</v>
       </c>
       <c r="G17">
-        <v>0.2915629425476112</v>
+        <v>0.157054790370123</v>
       </c>
       <c r="H17">
-        <v>0.001346673246619238</v>
+        <v>0.2652766162679821</v>
       </c>
     </row>
     <row r="18">
@@ -1000,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others'</t>
+          <t>specific_factorIll-being</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.1553578258719912</v>
+        <v>-0.2468694860510272</v>
       </c>
       <c r="D18">
-        <v>0.04590075445742241</v>
+        <v>0.09732986923700716</v>
       </c>
       <c r="E18">
-        <v>10.46559743243398</v>
+        <v>8.383665126207422</v>
       </c>
       <c r="F18">
-        <v>0.05491100893181139</v>
+        <v>-0.4420244806556597</v>
       </c>
       <c r="G18">
-        <v>0.2526916798298374</v>
+        <v>-0.02940016186121146</v>
       </c>
       <c r="H18">
-        <v>0.006219349199606873</v>
+        <v>0.03091383892133356</v>
       </c>
     </row>
     <row r="19">
@@ -1030,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals</t>
+          <t>specific_factorIncremental beliefs</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.2650406185397582</v>
+        <v>0.1388360487628135</v>
       </c>
       <c r="D19">
-        <v>0.04682600371516284</v>
+        <v>0.02486667889987222</v>
       </c>
       <c r="E19">
-        <v>3.011339027415324</v>
+        <v>2.946107938712154</v>
       </c>
       <c r="F19">
-        <v>0.1222040029972425</v>
+        <v>0.05970529851550637</v>
       </c>
       <c r="G19">
-        <v>0.3971211776109982</v>
+        <v>0.2162327829623275</v>
       </c>
       <c r="H19">
-        <v>0.01010036887143724</v>
+        <v>0.01169465459071435</v>
       </c>
     </row>
     <row r="20">
@@ -1060,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration</t>
+          <t>specific_factorInternal pressures</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.1887930941546774</v>
+        <v>-0.07110218842577827</v>
       </c>
       <c r="D20">
-        <v>0.05349559425249999</v>
+        <v>0.08621750185320334</v>
       </c>
       <c r="E20">
-        <v>10.08973957300925</v>
+        <v>1.969460060496395</v>
       </c>
       <c r="F20">
-        <v>-0.3005621143522748</v>
+        <v>-0.420050845674484</v>
       </c>
       <c r="G20">
-        <v>-0.0719089614605057</v>
+        <v>0.2961635408680851</v>
       </c>
       <c r="H20">
-        <v>0.005008198217963251</v>
+        <v>0.4967792351180647</v>
       </c>
     </row>
     <row r="21">
@@ -1090,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction</t>
+          <t>specific_factorIntrinsic goals</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.2709240092758623</v>
+        <v>0.3363183851054279</v>
       </c>
       <c r="D21">
-        <v>0.04057682065454203</v>
+        <v>0.0250804028380792</v>
       </c>
       <c r="E21">
-        <v>19.95533618650413</v>
+        <v>1.010544003454515</v>
       </c>
       <c r="F21">
-        <v>0.1908381431442945</v>
+        <v>0.03899012669041603</v>
       </c>
       <c r="G21">
-        <v>0.3474270969887208</v>
+        <v>0.5789362501031889</v>
       </c>
       <c r="H21">
-        <v>1.193614810944259e-06</v>
+        <v>0.04439142415400063</v>
       </c>
     </row>
     <row r="22">
@@ -1120,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious)</t>
+          <t>specific_factorInvitation from others to help</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.05759308966138252</v>
+        <v>0.187322258743308</v>
       </c>
       <c r="D22">
-        <v>3.392014857246346e-18</v>
+        <v>0.04989482953614856</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>5.000292672360957</v>
       </c>
       <c r="F22">
-        <v>-0.05759308966138256</v>
+        <v>0.0612274326707064</v>
       </c>
       <c r="G22">
-        <v>-0.05759308966138248</v>
+        <v>0.307531785418949</v>
       </c>
       <c r="H22">
-        <v>3.745300081174162e-17</v>
+        <v>0.01263739551374711</v>
       </c>
     </row>
     <row r="23">
@@ -1150,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning</t>
+          <t>specific_factorlow personal responsibility for others</t>
         </is>
       </c>
       <c r="C23">
-        <v>-0.06013092168673724</v>
+        <v>0.1465110194353271</v>
       </c>
       <c r="D23">
-        <v>0.1986061929838664</v>
+        <v>0.04989482956140447</v>
       </c>
       <c r="E23">
-        <v>1.51231237753852</v>
+        <v>5.000292672360973</v>
       </c>
       <c r="F23">
-        <v>-0.8459169674543814</v>
+        <v>0.01931415438329566</v>
       </c>
       <c r="G23">
-        <v>0.8079903544826994</v>
+        <v>0.2690408358712215</v>
       </c>
       <c r="H23">
-        <v>0.7982386065086372</v>
+        <v>0.03160116092871575</v>
       </c>
     </row>
     <row r="24">
@@ -1180,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation</t>
+          <t>specific_factormastery goals</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.2687304722340395</v>
+        <v>0.1182485381994976</v>
       </c>
       <c r="D24">
-        <v>0.1090942441820898</v>
+        <v>0.09857052592096889</v>
       </c>
       <c r="E24">
-        <v>1.051810728995659</v>
+        <v>1.740093962503031</v>
       </c>
       <c r="F24">
-        <v>-0.9069891320596302</v>
+        <v>-0.3559087395509849</v>
       </c>
       <c r="G24">
-        <v>0.7439610443174108</v>
+        <v>0.5439877616269934</v>
       </c>
       <c r="H24">
-        <v>0.2300296352299197</v>
+        <v>0.3666141717992031</v>
       </c>
     </row>
     <row r="25">
@@ -1210,26 +1211,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events</t>
+          <t>specific_factorMastery goals</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.1466519662212899</v>
+        <v>0.2497059927447755</v>
       </c>
       <c r="D25">
-        <v>1.019325256991176e-17</v>
+        <v>0.09090610876934928</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2.876443955983618</v>
       </c>
       <c r="F25">
-        <v>0.1466519662212897</v>
+        <v>-0.04133981001041878</v>
       </c>
       <c r="G25">
-        <v>0.14665196622129</v>
+        <v>0.5016898639185298</v>
       </c>
       <c r="H25">
-        <v>4.393009938395472e-17</v>
+        <v>0.0708530839421974</v>
       </c>
     </row>
     <row r="26">
@@ -1240,26 +1241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality</t>
+          <t>specific_factorneed frustration</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.2957692222874741</v>
+        <v>-0.1278069098188511</v>
       </c>
       <c r="D26">
-        <v>0.1731967605261105</v>
+        <v>0.07992778678232293</v>
       </c>
       <c r="E26">
-        <v>1.994841948784727</v>
+        <v>1.923299950672379</v>
       </c>
       <c r="F26">
-        <v>-0.7825563096693786</v>
+        <v>-0.4509514620325612</v>
       </c>
       <c r="G26">
-        <v>0.4154483450042018</v>
+        <v>0.2249601486378839</v>
       </c>
       <c r="H26">
-        <v>0.220748905397037</v>
+        <v>0.2539757172263972</v>
       </c>
     </row>
     <row r="27">
@@ -1270,26 +1271,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities</t>
+          <t>specific_factorNeed frustration</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.2316550893244476</v>
+        <v>-0.2070401641960139</v>
       </c>
       <c r="D27">
-        <v>0.07155250420300419</v>
+        <v>0.06584608291620157</v>
       </c>
       <c r="E27">
-        <v>3.897424524185753</v>
+        <v>8.996303283856625</v>
       </c>
       <c r="F27">
-        <v>0.03518246177167355</v>
+        <v>-0.3443685839906628</v>
       </c>
       <c r="G27">
-        <v>0.4108874134003981</v>
+        <v>-0.06103747375021984</v>
       </c>
       <c r="H27">
-        <v>0.03118602470432033</v>
+        <v>0.01100478432287874</v>
       </c>
     </row>
     <row r="28">
@@ -1300,26 +1301,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation</t>
+          <t>specific_factorneed satisfaction</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.1762762680419017</v>
+        <v>0.3087689759545577</v>
       </c>
       <c r="D28">
-        <v>0.05316315955135713</v>
+        <v>0.0799277867823229</v>
       </c>
       <c r="E28">
-        <v>8.231267018923869</v>
+        <v>1.923299950672377</v>
       </c>
       <c r="F28">
-        <v>0.05608051451997564</v>
+        <v>-0.03818162261319558</v>
       </c>
       <c r="G28">
-        <v>0.2914356098190984</v>
+        <v>0.5892839366774407</v>
       </c>
       <c r="H28">
-        <v>0.009664419143239771</v>
+        <v>0.0611618189310917</v>
       </c>
     </row>
     <row r="29">
@@ -1330,26 +1331,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation</t>
+          <t>specific_factorNeed satisfaction</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.03726036922717415</v>
+        <v>0.2663874816857494</v>
       </c>
       <c r="D29">
-        <v>0.0338058137372859</v>
+        <v>0.04211334131294329</v>
       </c>
       <c r="E29">
-        <v>1.679388451185373</v>
+        <v>18.64909051629715</v>
       </c>
       <c r="F29">
-        <v>-0.137439145463765</v>
+        <v>0.1826421809408912</v>
       </c>
       <c r="G29">
-        <v>0.2097116646036581</v>
+        <v>0.346295183770054</v>
       </c>
       <c r="H29">
-        <v>0.4032152374648693</v>
+        <v>3.589016757869364e-06</v>
       </c>
     </row>
     <row r="30">
@@ -1360,26 +1361,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours</t>
+          <t>specific_factorNegative beliefs (religious)</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.1302004633309602</v>
+        <v>-0.05759308966138256</v>
       </c>
       <c r="D30">
-        <v>0.08731599920733848</v>
+        <v>8.029469166262554e-17</v>
       </c>
       <c r="E30">
-        <v>5.403420347532359</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>-0.3367734955529982</v>
+        <v>-0.05759308966138357</v>
       </c>
       <c r="G30">
-        <v>0.08833045426818735</v>
+        <v>-0.05759308966138154</v>
       </c>
       <c r="H30">
-        <v>0.1897016725092504</v>
+        <v>8.865754657867794e-16</v>
       </c>
     </row>
     <row r="31">
@@ -1390,26 +1391,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions</t>
+          <t>specific_factorNegative beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C31">
-        <v>-0.1581630146436843</v>
+        <v>0.03968841002109386</v>
       </c>
       <c r="D31">
-        <v>0.04489334056179898</v>
+        <v>0.07813420695655701</v>
       </c>
       <c r="E31">
-        <v>3.337158629780085</v>
+        <v>1.485911030036163</v>
       </c>
       <c r="F31">
-        <v>-0.2863116992031149</v>
+        <v>-0.4108983716780201</v>
       </c>
       <c r="G31">
-        <v>-0.02445518207246665</v>
+        <v>0.4746922356300118</v>
       </c>
       <c r="H31">
-        <v>0.03199652095337587</v>
+        <v>0.6764729923282101</v>
       </c>
     </row>
     <row r="32">
@@ -1420,26 +1421,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours</t>
+          <t>specific_factorNegative beliefs about motivation</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.1820094102441141</v>
+        <v>-0.2453218878375166</v>
       </c>
       <c r="D32">
-        <v>0.04075763457993306</v>
+        <v>0.0926735634062994</v>
       </c>
       <c r="E32">
-        <v>6.31298760832725</v>
+        <v>1.073361001722812</v>
       </c>
       <c r="F32">
-        <v>0.08530834996476519</v>
+        <v>-0.8493483632163332</v>
       </c>
       <c r="G32">
-        <v>0.2753135397391427</v>
+        <v>0.6369063220499787</v>
       </c>
       <c r="H32">
-        <v>0.003555702705344107</v>
+        <v>0.211666596119184</v>
       </c>
     </row>
     <row r="33">
@@ -1450,26 +1451,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions</t>
+          <t>specific_factorNegative life events</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.2340942731827837</v>
+        <v>0.1466519662212899</v>
       </c>
       <c r="D33">
-        <v>0.05302297872020734</v>
+        <v>2.555587564414358e-16</v>
       </c>
       <c r="E33">
-        <v>4.288496284593504</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.09484014988112995</v>
+        <v>0.1466519662212867</v>
       </c>
       <c r="G33">
-        <v>0.3643628428784494</v>
+        <v>0.1466519662212931</v>
       </c>
       <c r="H33">
-        <v>0.00922122982917266</v>
+        <v>1.101387559261601e-15</v>
       </c>
     </row>
     <row r="34">
@@ -1480,26 +1481,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals</t>
+          <t>specific_factornegative personality</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.058493921956576</v>
+        <v>-0.4082181336713323</v>
       </c>
       <c r="D34">
-        <v>0.2293955420796312</v>
+        <v>0.1411230731499395</v>
       </c>
       <c r="E34">
-        <v>2.550071291916349</v>
+        <v>1.092177651688682</v>
       </c>
       <c r="F34">
-        <v>-0.6999308282551938</v>
+        <v>-0.9567233610553647</v>
       </c>
       <c r="G34">
-        <v>0.6351748226455323</v>
+        <v>0.7773996954714921</v>
       </c>
       <c r="H34">
-        <v>0.8176725883740628</v>
+        <v>0.1831635973687392</v>
       </c>
     </row>
     <row r="35">
@@ -1510,26 +1511,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others'</t>
+          <t>specific_factorNegative personality</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2704210631557011</v>
+        <v>-0.03968216060185056</v>
       </c>
       <c r="D35">
-        <v>0.06050756012784916</v>
+        <v>0.03355975550439644</v>
       </c>
       <c r="E35">
-        <v>1.342922133324325</v>
+        <v>1.32046127859353</v>
       </c>
       <c r="F35">
-        <v>-0.1516070784526645</v>
+        <v>-0.2774635489075761</v>
       </c>
       <c r="G35">
-        <v>0.6090570710869728</v>
+        <v>0.2026801471490908</v>
       </c>
       <c r="H35">
-        <v>0.08863041895073934</v>
+        <v>0.4073164609971786</v>
       </c>
     </row>
     <row r="36">
@@ -1540,26 +1541,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation</t>
+          <t>specific_factorothers abilities</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.2303090294305224</v>
+        <v>0.1723682942287592</v>
       </c>
       <c r="D36">
-        <v>0.06413371633577369</v>
+        <v>0.05111410309678052</v>
       </c>
       <c r="E36">
-        <v>2.027109672355684</v>
+        <v>1.177500748244548</v>
       </c>
       <c r="F36">
-        <v>-0.03790470510352874</v>
+        <v>-0.2767201486736235</v>
       </c>
       <c r="G36">
-        <v>0.4675688501702809</v>
+        <v>0.5596611381289575</v>
       </c>
       <c r="H36">
-        <v>0.0659677564250149</v>
+        <v>0.1511313043338615</v>
       </c>
     </row>
     <row r="37">
@@ -1570,26 +1571,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes</t>
+          <t>specific_factorOthers positive behaviour</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.2466114365168716</v>
+        <v>0.2581920711057571</v>
       </c>
       <c r="D37">
-        <v>0.02774083154351385</v>
+        <v>0.06985812063579599</v>
       </c>
       <c r="E37">
-        <v>2.308616751752052</v>
+        <v>1.450808100214357</v>
       </c>
       <c r="F37">
-        <v>0.1454623037366735</v>
+        <v>-0.1748773740724137</v>
       </c>
       <c r="G37">
-        <v>0.3426585783035769</v>
+        <v>0.6075535108041475</v>
       </c>
       <c r="H37">
-        <v>0.00744275532890068</v>
+        <v>0.101846998352258</v>
       </c>
     </row>
     <row r="38">
@@ -1600,26 +1601,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious)</t>
+          <t>specific_factorOthers' abilities</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.1730474015149224</v>
+        <v>0.2380999909488311</v>
       </c>
       <c r="D38">
-        <v>1.160149679756209e-17</v>
+        <v>0.08697827961805274</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2.564243242412953</v>
       </c>
       <c r="F38">
-        <v>0.1730474015149223</v>
+        <v>-0.06257361071761257</v>
       </c>
       <c r="G38">
-        <v>0.1730474015149225</v>
+        <v>0.4991499336160283</v>
       </c>
       <c r="H38">
-        <v>4.225097313349575e-17</v>
+        <v>0.08173825965577783</v>
       </c>
     </row>
     <row r="39">
@@ -1630,26 +1631,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning</t>
+          <t>specific_factorothers' autonomous motivation</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.1612127388422826</v>
+        <v>0.1898031532905998</v>
       </c>
       <c r="D39">
-        <v>0.0654362466182067</v>
+        <v>0.1055061108473458</v>
       </c>
       <c r="E39">
-        <v>2.157702393545371</v>
+        <v>2.268437585743547</v>
       </c>
       <c r="F39">
-        <v>-0.09975625651104092</v>
+        <v>-0.2108285164165124</v>
       </c>
       <c r="G39">
-        <v>0.401429803702233</v>
+        <v>0.5358417464236644</v>
       </c>
       <c r="H39">
-        <v>0.1217476601541723</v>
+        <v>0.195004884572574</v>
       </c>
     </row>
     <row r="40">
@@ -1660,26 +1661,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences</t>
+          <t>specific_factorOthers' autonomous motivation</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.1636505059816757</v>
+        <v>0.164792131734328</v>
       </c>
       <c r="D40">
-        <v>0.04590075441132337</v>
+        <v>0.07088196046612638</v>
       </c>
       <c r="E40">
-        <v>10.46559743243454</v>
+        <v>4.505889054276688</v>
       </c>
       <c r="F40">
-        <v>0.06339040722293397</v>
+        <v>-0.02207260442850469</v>
       </c>
       <c r="G40">
-        <v>0.2606402786702761</v>
+        <v>0.340531367644318</v>
       </c>
       <c r="H40">
-        <v>0.004527465286855921</v>
+        <v>0.07153174474480713</v>
       </c>
     </row>
     <row r="41">
@@ -1690,26 +1691,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy</t>
+          <t>specific_factorOthers' controlled motivation</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.2554363674039826</v>
+        <v>0.04542528870030182</v>
       </c>
       <c r="D41">
-        <v>0.04410717459749303</v>
+        <v>0.03398740580595615</v>
       </c>
       <c r="E41">
-        <v>6.598353024157138</v>
+        <v>1.721601060633252</v>
       </c>
       <c r="F41">
-        <v>0.1543780533480834</v>
+        <v>-0.1252897986957957</v>
       </c>
       <c r="G41">
-        <v>0.3512052075814454</v>
+        <v>0.2135277886100717</v>
       </c>
       <c r="H41">
-        <v>0.0007301393619785587</v>
+        <v>0.3305346621959988</v>
       </c>
     </row>
     <row r="42">
@@ -1720,26 +1721,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence</t>
+          <t>specific_factorothers' negative behaviours</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.3159778747222574</v>
+        <v>-0.1124078064927822</v>
       </c>
       <c r="D42">
-        <v>0.02185270107403547</v>
+        <v>0.08706821374196599</v>
       </c>
       <c r="E42">
-        <v>1.724363373351666</v>
+        <v>4.048775858546675</v>
       </c>
       <c r="F42">
-        <v>0.2138181758464454</v>
+        <v>-0.339458849000516</v>
       </c>
       <c r="G42">
-        <v>0.4113008925459828</v>
+        <v>0.1270212004805617</v>
       </c>
       <c r="H42">
-        <v>0.007919457677290864</v>
+        <v>0.2637588217794573</v>
       </c>
     </row>
     <row r="43">
@@ -1750,26 +1751,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support</t>
+          <t>specific_factorOthers' negative behaviours</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.3035118877688847</v>
+        <v>-0.3091723363310063</v>
       </c>
       <c r="D43">
-        <v>0.09229310218899346</v>
+        <v>0.0363933708033769</v>
       </c>
       <c r="E43">
-        <v>8.097383933539797</v>
+        <v>4.250794929293408</v>
       </c>
       <c r="F43">
-        <v>0.1006577136150223</v>
+        <v>-0.3955529462884132</v>
       </c>
       <c r="G43">
-        <v>0.4821386279553895</v>
+        <v>-0.2173700465929618</v>
       </c>
       <c r="H43">
-        <v>0.009255314846511806</v>
+        <v>0.0007003881395710805</v>
       </c>
     </row>
     <row r="44">
@@ -1780,26 +1781,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs</t>
+          <t>specific_factorothers' negative emotions</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.2869457227528986</v>
+        <v>-0.1530899178627159</v>
       </c>
       <c r="D44">
-        <v>0.1399666968720757</v>
+        <v>0.06985812063579602</v>
       </c>
       <c r="E44">
-        <v>1.971087489520665</v>
+        <v>1.450808100214358</v>
       </c>
       <c r="F44">
-        <v>-0.3054670614893189</v>
+        <v>-0.5336015075780014</v>
       </c>
       <c r="G44">
-        <v>0.7192105905415952</v>
+        <v>0.278966413968</v>
       </c>
       <c r="H44">
-        <v>0.1712717956105734</v>
+        <v>0.2038943912484923</v>
       </c>
     </row>
     <row r="45">
@@ -1810,596 +1811,596 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorWell-being</t>
+          <t>specific_factorOthers' negative emotions</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.3313098533296069</v>
+        <v>-0.1728364095862377</v>
       </c>
       <c r="D45">
-        <v>0.05477208585018118</v>
+        <v>0.0736607680776586</v>
       </c>
       <c r="E45">
-        <v>7.579784903725415</v>
+        <v>2.243927292896258</v>
       </c>
       <c r="F45">
-        <v>0.2134325400529897</v>
+        <v>-0.4306504522195023</v>
       </c>
       <c r="G45">
-        <v>0.4396790125399302</v>
+        <v>0.1110570804461682</v>
       </c>
       <c r="H45">
-        <v>0.0002958076790570577</v>
+        <v>0.1274895675983013</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation</t>
+          <t>specific_factorothers' positive behaviours</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.3172678867295439</v>
+        <v>0.1196106645981078</v>
       </c>
       <c r="D46">
-        <v>0.06101200189118799</v>
+        <v>0.03907828262878475</v>
       </c>
       <c r="E46">
-        <v>3.790317943001482</v>
+        <v>3.13295057358558</v>
       </c>
       <c r="F46">
-        <v>0.1542091053599401</v>
+        <v>-0.001245544299269026</v>
       </c>
       <c r="G46">
-        <v>0.4635027622894288</v>
+        <v>0.2370230492826279</v>
       </c>
       <c r="H46">
-        <v>0.006689449825520642</v>
+        <v>0.05130574299557961</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation</t>
+          <t>specific_factorOthers' positive behaviours</t>
         </is>
       </c>
       <c r="C47">
-        <v>-0.07286953617951528</v>
+        <v>0.2095908003586283</v>
       </c>
       <c r="D47">
-        <v>0.07783707373221975</v>
+        <v>0.1480297275265076</v>
       </c>
       <c r="E47">
-        <v>1.07549927025398</v>
+        <v>1.074670474624895</v>
       </c>
       <c r="F47">
-        <v>-0.7221540031707557</v>
+        <v>-0.8822359917433371</v>
       </c>
       <c r="G47">
-        <v>0.6446759356440666</v>
+        <v>0.9479590342524209</v>
       </c>
       <c r="H47">
-        <v>0.5114317724457249</v>
+        <v>0.374934126888768</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation</t>
+          <t>specific_factorothers' positive emotions</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.07112431926821515</v>
+        <v>0.1287286073167945</v>
       </c>
       <c r="D48">
-        <v>0.03484630421740972</v>
+        <v>0.05857554681916972</v>
       </c>
       <c r="E48">
-        <v>13.12340185974573</v>
+        <v>1.302611218640095</v>
       </c>
       <c r="F48">
-        <v>-0.1454154132642033</v>
+        <v>-0.2989956770391582</v>
       </c>
       <c r="G48">
-        <v>0.003964331673466859</v>
+        <v>0.5133809571742712</v>
       </c>
       <c r="H48">
-        <v>0.06150059883243816</v>
+        <v>0.221650387906173</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation</t>
+          <t>specific_factorOthers' positive emotions</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.3668634243383597</v>
+        <v>0.2887127695163358</v>
       </c>
       <c r="D49">
-        <v>0.1667156719864104</v>
+        <v>0.04990451565519816</v>
       </c>
       <c r="E49">
-        <v>1.075499270253978</v>
+        <v>2.287183539504542</v>
       </c>
       <c r="F49">
-        <v>-0.8880253299430833</v>
+        <v>0.1059161996398104</v>
       </c>
       <c r="G49">
-        <v>0.9748698537324783</v>
+        <v>0.4526338704964955</v>
       </c>
       <c r="H49">
-        <v>0.2460543854571362</v>
+        <v>0.01953878461684337</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation</t>
+          <t>specific_factorperformance goals</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.146511837023171</v>
+        <v>-0.5328609944985814</v>
       </c>
       <c r="D50">
-        <v>0.04851300119509536</v>
+        <v>0.09857052592096933</v>
       </c>
       <c r="E50">
-        <v>11.44506596334228</v>
+        <v>1.740093962503029</v>
       </c>
       <c r="F50">
-        <v>0.04127843116860194</v>
+        <v>-0.7950937145784576</v>
       </c>
       <c r="G50">
-        <v>0.2485304018626768</v>
+        <v>-0.1027703193016865</v>
       </c>
       <c r="H50">
-        <v>0.01074989651030975</v>
+        <v>0.03636866294058077</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence</t>
+          <t>specific_factorPerformance goals</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.2284753244867673</v>
+        <v>0.06303301963039265</v>
       </c>
       <c r="D51">
-        <v>0.06178170016574185</v>
+        <v>0.101705392082953</v>
       </c>
       <c r="E51">
-        <v>3.210045079377279</v>
+        <v>2.332561226869948</v>
       </c>
       <c r="F51">
-        <v>-0.3987112063240494</v>
+        <v>-0.3093388412915384</v>
       </c>
       <c r="G51">
-        <v>-0.04301829325715768</v>
+        <v>0.4186446540363432</v>
       </c>
       <c r="H51">
-        <v>0.02914905180269215</v>
+        <v>0.5901136051859828</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs</t>
+          <t>specific_factorpersonal responsibility for others</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2159448581418348</v>
+        <v>0.2702975392370979</v>
       </c>
       <c r="D52">
-        <v>0.03208764145007279</v>
+        <v>0.08086326834909952</v>
       </c>
       <c r="E52">
-        <v>1.01810833787685</v>
+        <v>1.550486353619381</v>
       </c>
       <c r="F52">
-        <v>-0.1699061158438933</v>
+        <v>-0.1855874855014223</v>
       </c>
       <c r="G52">
-        <v>0.5443856340099582</v>
+        <v>0.6304320895015453</v>
       </c>
       <c r="H52">
-        <v>0.08958658584046118</v>
+        <v>0.1067108054293257</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints</t>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.04630083280749332</v>
+        <v>0.2698269809339501</v>
       </c>
       <c r="D53">
-        <v>0.05326392758669015</v>
+        <v>0.06560937149676854</v>
       </c>
       <c r="E53">
-        <v>3.301902655975277</v>
+        <v>2.131083433335451</v>
       </c>
       <c r="F53">
-        <v>-0.1142353633518694</v>
+        <v>0.01038645260253305</v>
       </c>
       <c r="G53">
-        <v>0.2044804910863602</v>
+        <v>0.4952310340099811</v>
       </c>
       <c r="H53">
-        <v>0.4429949841371444</v>
+        <v>0.04640405399922538</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures</t>
+          <t>specific_factorPositive attitudes</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2750729743326285</v>
+        <v>0.2378350218499762</v>
       </c>
       <c r="D54">
-        <v>0.03595084402728761</v>
+        <v>0.0262497666816096</v>
       </c>
       <c r="E54">
-        <v>4.026741448695766</v>
+        <v>2.782500678227555</v>
       </c>
       <c r="F54">
-        <v>0.1807802508436133</v>
+        <v>0.153888836668488</v>
       </c>
       <c r="G54">
-        <v>0.3643550809519047</v>
+        <v>0.3183724746839577</v>
       </c>
       <c r="H54">
-        <v>0.001381527197659937</v>
+        <v>0.003612267044186222</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals</t>
+          <t>specific_factorPositive beliefs (religious)</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.246840242895402</v>
+        <v>0.1730474015149224</v>
       </c>
       <c r="D55">
-        <v>0.09899684672135588</v>
+        <v>4.17818648772284e-17</v>
       </c>
       <c r="E55">
-        <v>1.735880606558506</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>-0.2378149703437954</v>
+        <v>0.1730474015149219</v>
       </c>
       <c r="G55">
-        <v>0.6330845875062666</v>
+        <v>0.1730474015149229</v>
       </c>
       <c r="H55">
-        <v>0.1443592361303601</v>
+        <v>1.521635079678761e-16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion</t>
+          <t>specific_factorPositive beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.0574440826215883</v>
+        <v>0.2114042348889787</v>
       </c>
       <c r="D56">
-        <v>0.06081110982036628</v>
+        <v>0.07611712411401102</v>
       </c>
       <c r="E56">
-        <v>1.364937798922799</v>
+        <v>2.063817275263957</v>
       </c>
       <c r="F56">
-        <v>-0.3484155956460986</v>
+        <v>-0.1029824949173325</v>
       </c>
       <c r="G56">
-        <v>0.4451650685927608</v>
+        <v>0.4873893088121558</v>
       </c>
       <c r="H56">
-        <v>0.4811964297246546</v>
+        <v>0.1024484508757696</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorIll-being</t>
+          <t>specific_factorprior positive related experiences</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.2754708458368109</v>
+        <v>0.1548270188565713</v>
       </c>
       <c r="D57">
-        <v>0.08277583236625692</v>
+        <v>0.04989482983792321</v>
       </c>
       <c r="E57">
-        <v>7.374173737487732</v>
+        <v>5.00029267236108</v>
       </c>
       <c r="F57">
-        <v>0.08880152892064082</v>
+        <v>0.02781859864458489</v>
       </c>
       <c r="G57">
-        <v>0.4434463407167202</v>
+        <v>0.2769159172026469</v>
       </c>
       <c r="H57">
-        <v>0.01033764365192861</v>
+        <v>0.02600742433226903</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs</t>
+          <t>specific_factorself-efficacy</t>
         </is>
       </c>
       <c r="C58">
-        <v>-0.05717522139354828</v>
+        <v>0.212787620152224</v>
       </c>
       <c r="D58">
-        <v>0.01407032109565661</v>
+        <v>0.04772003377073344</v>
       </c>
       <c r="E58">
-        <v>1.378114695226021</v>
+        <v>2.582797663872016</v>
       </c>
       <c r="F58">
-        <v>-0.1520302799598909</v>
+        <v>0.04931620122135876</v>
       </c>
       <c r="G58">
-        <v>0.03872343436884283</v>
+        <v>0.365156131153936</v>
       </c>
       <c r="H58">
-        <v>0.0994468051128457</v>
+        <v>0.02757908875909569</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures</t>
+          <t>specific_factorSelf-efficacy</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.1631063012748051</v>
+        <v>0.3257019113642981</v>
       </c>
       <c r="D59">
-        <v>0.0391342118540404</v>
+        <v>0.04796232326754315</v>
       </c>
       <c r="E59">
-        <v>2.006151387009912</v>
+        <v>4.584597585494796</v>
       </c>
       <c r="F59">
-        <v>-0.003310866155017521</v>
+        <v>0.2081955829933021</v>
       </c>
       <c r="G59">
-        <v>0.320732484228308</v>
+        <v>0.4339400667600122</v>
       </c>
       <c r="H59">
-        <v>0.05188109251685272</v>
+        <v>0.001262209689719692</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals</t>
+          <t>specific_factorSocial competence</t>
         </is>
       </c>
       <c r="C60">
-        <v>-0.04828274507648504</v>
+        <v>0.3318349664291805</v>
       </c>
       <c r="D60">
-        <v>0.07801523106121762</v>
+        <v>0.02492958306376005</v>
       </c>
       <c r="E60">
-        <v>1.735880606558507</v>
+        <v>1.924813108585506</v>
       </c>
       <c r="F60">
-        <v>-0.4119989592367203</v>
+        <v>0.229355062277179</v>
       </c>
       <c r="G60">
-        <v>0.328705140638154</v>
+        <v>0.4270385785300352</v>
       </c>
       <c r="H60">
-        <v>0.607054973062515</v>
+        <v>0.006022877306906758</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help</t>
+          <t>specific_factorSocial connection/support</t>
         </is>
       </c>
       <c r="C61">
-        <v>-0.1164262886494739</v>
+        <v>0.2674989368163866</v>
       </c>
       <c r="D61">
-        <v>0.02867722707966331</v>
+        <v>0.07575359484497278</v>
       </c>
       <c r="E61">
-        <v>1.644389228205654</v>
+        <v>7.763061655700966</v>
       </c>
       <c r="F61">
-        <v>-0.2634377607933919</v>
+        <v>0.09822974499444913</v>
       </c>
       <c r="G61">
-        <v>0.03587023754062333</v>
+        <v>0.4217251982894819</v>
       </c>
       <c r="H61">
-        <v>0.07588587490336964</v>
+        <v>0.007143839948003586</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorLow personal responsibility for others'</t>
+          <t>specific_factorStyle-related beliefs</t>
         </is>
       </c>
       <c r="C62">
-        <v>-0.04173483088811094</v>
+        <v>0.2886352384164592</v>
       </c>
       <c r="D62">
-        <v>0.02867722699077257</v>
+        <v>0.1384652503482638</v>
       </c>
       <c r="E62">
-        <v>1.644389228205656</v>
+        <v>1.962107914822423</v>
       </c>
       <c r="F62">
-        <v>-0.1921815360248191</v>
+        <v>-0.3003038855517203</v>
       </c>
       <c r="G62">
-        <v>0.1106285517837352</v>
+        <v>0.7182434679998945</v>
       </c>
       <c r="H62">
-        <v>0.3071351767894417</v>
+        <v>0.1675185308492759</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals</t>
+          <t>specific_factorwell-being</t>
         </is>
       </c>
       <c r="C63">
-        <v>-0.1339325330582583</v>
+        <v>0.2617297699894836</v>
       </c>
       <c r="D63">
-        <v>0.06005319405253089</v>
+        <v>0.04989482926143812</v>
       </c>
       <c r="E63">
-        <v>2.650938143496861</v>
+        <v>5.000292672361118</v>
       </c>
       <c r="F63">
-        <v>-0.3282934003964745</v>
+        <v>0.1388060860756367</v>
       </c>
       <c r="G63">
-        <v>0.07130888751480668</v>
+        <v>0.3767108421539445</v>
       </c>
       <c r="H63">
-        <v>0.1222255476583954</v>
+        <v>0.003012747284771595</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration</t>
+          <t>specific_factorWell-being</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.2829530332894469</v>
+        <v>0.3506030105162197</v>
       </c>
       <c r="D64">
-        <v>0.03744617934899078</v>
+        <v>0.05888986782067736</v>
       </c>
       <c r="E64">
-        <v>7.953232257210509</v>
+        <v>7.57830535814656</v>
       </c>
       <c r="F64">
-        <v>0.2016478904980107</v>
+        <v>0.2250832051481024</v>
       </c>
       <c r="G64">
-        <v>0.3603853647388794</v>
+        <v>0.4646755679892202</v>
       </c>
       <c r="H64">
-        <v>5.568128384146473e-05</v>
+        <v>0.0003179066207519449</v>
       </c>
     </row>
     <row r="65">
@@ -2410,26 +2411,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction</t>
+          <t>specific_factorAmotivation</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.1265036918422774</v>
+        <v>0.3217154486811605</v>
       </c>
       <c r="D65">
-        <v>0.03565347145779352</v>
+        <v>0.06097844653285185</v>
       </c>
       <c r="E65">
-        <v>9.759286425950553</v>
+        <v>3.823528489551652</v>
       </c>
       <c r="F65">
-        <v>-0.2039900620881592</v>
+        <v>0.1597493207292849</v>
       </c>
       <c r="G65">
-        <v>-0.04744214175646551</v>
+        <v>0.4668144660898341</v>
       </c>
       <c r="H65">
-        <v>0.005318950330922309</v>
+        <v>0.006186975419763081</v>
       </c>
     </row>
     <row r="66">
@@ -2440,26 +2441,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality</t>
+          <t>specific_factorAutonomous causality orientation</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.2877578300208043</v>
+        <v>-0.01679457510912262</v>
       </c>
       <c r="D66">
-        <v>0.03091265211266894</v>
+        <v>0.03685792970647109</v>
       </c>
       <c r="E66">
-        <v>3.083048026487834</v>
+        <v>1.081572285092605</v>
       </c>
       <c r="F66">
-        <v>0.1966298138254668</v>
+        <v>-0.3879390108944448</v>
       </c>
       <c r="G66">
-        <v>0.3739569463804141</v>
+        <v>0.359036452335372</v>
       </c>
       <c r="H66">
-        <v>0.002154196270799892</v>
+        <v>0.7231662058278082</v>
       </c>
     </row>
     <row r="67">
@@ -2470,26 +2471,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion</t>
+          <t>specific_factorautonomous motivation</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.2472438640516283</v>
+        <v>-0.05815017760692531</v>
       </c>
       <c r="D67">
-        <v>0.06081110982036631</v>
+        <v>0.1218733503551684</v>
       </c>
       <c r="E67">
-        <v>1.364937798922799</v>
+        <v>1.945714685914591</v>
       </c>
       <c r="F67">
-        <v>-0.167090033067116</v>
+        <v>-0.5348164807839264</v>
       </c>
       <c r="G67">
-        <v>0.5873572378801836</v>
+        <v>0.4465921936644343</v>
       </c>
       <c r="H67">
-        <v>0.09821833627065936</v>
+        <v>0.6811473964442074</v>
       </c>
     </row>
     <row r="68">
@@ -2500,26 +2501,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities</t>
+          <t>specific_factorAutonomous motivation</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.3817675117922412</v>
+        <v>-0.07296012802612345</v>
       </c>
       <c r="D68">
-        <v>0.1081144487298978</v>
+        <v>0.03924697379633522</v>
       </c>
       <c r="E68">
-        <v>1.425979211234832</v>
+        <v>10.72506899455353</v>
       </c>
       <c r="F68">
-        <v>-0.801243208143648</v>
+        <v>-0.1583979086011102</v>
       </c>
       <c r="G68">
-        <v>0.2893173044236497</v>
+        <v>0.01356210689363882</v>
       </c>
       <c r="H68">
-        <v>0.1066428758529473</v>
+        <v>0.09015774215601167</v>
       </c>
     </row>
     <row r="69">
@@ -2530,26 +2531,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation</t>
+          <t>specific_factorControlled causality orientation</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.1719887752303934</v>
+        <v>0.4144702236832534</v>
       </c>
       <c r="D69">
-        <v>0.1388641179717061</v>
+        <v>0.2213602606857248</v>
       </c>
       <c r="E69">
-        <v>4.929355737718722</v>
+        <v>1.081572285092607</v>
       </c>
       <c r="F69">
-        <v>-0.48707709450757</v>
+        <v>-0.9576463268949069</v>
       </c>
       <c r="G69">
-        <v>0.1827153982879102</v>
+        <v>0.9926126261753579</v>
       </c>
       <c r="H69">
-        <v>0.2670358401227546</v>
+        <v>0.2812572492877524</v>
       </c>
     </row>
     <row r="70">
@@ -2560,26 +2561,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation</t>
+          <t>specific_factorcontrolled motivation</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.04533833373215902</v>
+        <v>-0.1004667944871779</v>
       </c>
       <c r="D70">
-        <v>0.03845130581195172</v>
+        <v>0.1149697999071057</v>
       </c>
       <c r="E70">
-        <v>1.049109090770325</v>
+        <v>1.184723546277541</v>
       </c>
       <c r="F70">
-        <v>-0.3733723258115813</v>
+        <v>-0.8074014993830381</v>
       </c>
       <c r="G70">
-        <v>0.4487027938535518</v>
+        <v>0.7249048722172277</v>
       </c>
       <c r="H70">
-        <v>0.4404331948423506</v>
+        <v>0.5224700388847408</v>
       </c>
     </row>
     <row r="71">
@@ -2590,26 +2591,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours</t>
+          <t>specific_factorControlled motivation</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.4360334471970248</v>
+        <v>0.1779780973039902</v>
       </c>
       <c r="D71">
-        <v>0.1438834538451518</v>
+        <v>0.0452370027688464</v>
       </c>
       <c r="E71">
-        <v>1.842020252900795</v>
+        <v>10.36942096025044</v>
       </c>
       <c r="F71">
-        <v>-0.2026828189865191</v>
+        <v>0.07941657453599905</v>
       </c>
       <c r="G71">
-        <v>0.8144726166238004</v>
+        <v>0.2730934708964962</v>
       </c>
       <c r="H71">
-        <v>0.09260199777365283</v>
+        <v>0.002435308691484123</v>
       </c>
     </row>
     <row r="72">
@@ -2620,26 +2621,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions</t>
+          <t>specific_factoremotional intelligence</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.2412398737717333</v>
+        <v>-0.3667678079195031</v>
       </c>
       <c r="D72">
-        <v>0.02314088119075628</v>
+        <v>0.0740480608876088</v>
       </c>
       <c r="E72">
-        <v>3.165101328804697</v>
+        <v>1.283739465073843</v>
       </c>
       <c r="F72">
-        <v>0.1728197976544551</v>
+        <v>-0.7407392245835579</v>
       </c>
       <c r="G72">
-        <v>0.3073429598949379</v>
+        <v>0.1807409614185502</v>
       </c>
       <c r="H72">
-        <v>0.001395993256132434</v>
+        <v>0.08144101999833468</v>
       </c>
     </row>
     <row r="73">
@@ -2650,26 +2651,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours</t>
+          <t>specific_factorEmotional intelligence</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.009735452668157552</v>
+        <v>-0.1674328368164728</v>
       </c>
       <c r="D73">
-        <v>0.03218077403074981</v>
+        <v>0.06793894215066901</v>
       </c>
       <c r="E73">
-        <v>1.050206325334537</v>
+        <v>2.367324702356821</v>
       </c>
       <c r="F73">
-        <v>-0.3414558930301018</v>
+        <v>-0.3985323604363016</v>
       </c>
       <c r="G73">
-        <v>0.3585414323045586</v>
+        <v>0.08365840209222318</v>
       </c>
       <c r="H73">
-        <v>0.8111009741768228</v>
+        <v>0.1112190477168928</v>
       </c>
     </row>
     <row r="74">
@@ -2680,26 +2681,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions</t>
+          <t>specific_factorentity beliefs</t>
         </is>
       </c>
       <c r="C74">
-        <v>-0.1586458638585899</v>
+        <v>0.2156127213504127</v>
       </c>
       <c r="D74">
-        <v>0.0264628816173115</v>
+        <v>0.03825767635124397</v>
       </c>
       <c r="E74">
-        <v>1.09415107177412</v>
+        <v>1.0235966969635</v>
       </c>
       <c r="F74">
-        <v>-0.409504181921235</v>
+        <v>-0.2367814962668165</v>
       </c>
       <c r="G74">
-        <v>0.1145162159179259</v>
+        <v>0.5911697396790943</v>
       </c>
       <c r="H74">
-        <v>0.08979208104482481</v>
+        <v>0.1060841004489201</v>
       </c>
     </row>
     <row r="75">
@@ -2710,26 +2711,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals</t>
+          <t>specific_factorExternal pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1508280283598482</v>
+        <v>0.04467943153568026</v>
       </c>
       <c r="D75">
-        <v>0.05369139841781242</v>
+        <v>0.04895195372328594</v>
       </c>
       <c r="E75">
-        <v>1.924424853888363</v>
+        <v>3.321859935004698</v>
       </c>
       <c r="F75">
-        <v>-0.08771728322041628</v>
+        <v>-0.1025156733031215</v>
       </c>
       <c r="G75">
-        <v>0.3730130277107926</v>
+        <v>0.189959814036798</v>
       </c>
       <c r="H75">
-        <v>0.1100675946419245</v>
+        <v>0.4224321973023088</v>
       </c>
     </row>
     <row r="76">
@@ -2740,26 +2741,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others'</t>
+          <t>specific_factorexternal pressures</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.1242208138640595</v>
+        <v>0.2977721875834484</v>
       </c>
       <c r="D76">
-        <v>0.02633922780709083</v>
+        <v>0.1064720478081056</v>
       </c>
       <c r="E76">
-        <v>1.154918981904725</v>
+        <v>1.00381859261743</v>
       </c>
       <c r="F76">
-        <v>-0.3540364993102846</v>
+        <v>-0.7753806273242836</v>
       </c>
       <c r="G76">
-        <v>0.119742454044648</v>
+        <v>0.9285589579453264</v>
       </c>
       <c r="H76">
-        <v>0.1074187282522257</v>
+        <v>0.2117125657701961</v>
       </c>
     </row>
     <row r="77">
@@ -2770,26 +2771,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation</t>
+          <t>specific_factorExternal pressures</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.1174725182627606</v>
+        <v>0.2566870584020817</v>
       </c>
       <c r="D77">
-        <v>0.112940401852318</v>
+        <v>0.009462245450169554</v>
       </c>
       <c r="E77">
-        <v>1.898402626331899</v>
+        <v>2.021131283481305</v>
       </c>
       <c r="F77">
-        <v>-0.557882326482349</v>
+        <v>0.2186624657235204</v>
       </c>
       <c r="G77">
-        <v>0.3745614838435055</v>
+        <v>0.2939332883683489</v>
       </c>
       <c r="H77">
-        <v>0.4106965428909208</v>
+        <v>0.001225186010525994</v>
       </c>
     </row>
     <row r="78">
@@ -2800,26 +2801,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences</t>
+          <t>specific_factorExtrinsic goals</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.05177138307180371</v>
+        <v>0.3060679465616235</v>
       </c>
       <c r="D78">
-        <v>0.02867722758873927</v>
+        <v>0.1805190740859383</v>
       </c>
       <c r="E78">
-        <v>1.644389228205655</v>
+        <v>1.005499742652401</v>
       </c>
       <c r="F78">
-        <v>-0.2018496451849264</v>
+        <v>-0.9601694069118208</v>
       </c>
       <c r="G78">
-        <v>0.1006823026871311</v>
+        <v>0.9885930003682599</v>
       </c>
       <c r="H78">
-        <v>0.238945419225452</v>
+        <v>0.3292257369146629</v>
       </c>
     </row>
     <row r="79">
@@ -2830,26 +2831,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy</t>
+          <t>specific_factorHarmonious passion</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.09477156564789474</v>
+        <v>0.05206539668786078</v>
       </c>
       <c r="D79">
-        <v>0.02334135112966502</v>
+        <v>0.05323119078439352</v>
       </c>
       <c r="E79">
-        <v>1.708691424079592</v>
+        <v>1.40095552444633</v>
       </c>
       <c r="F79">
-        <v>-0.2106185335025161</v>
+        <v>-0.293029680942832</v>
       </c>
       <c r="G79">
-        <v>0.02370038564389566</v>
+        <v>0.3851582392278415</v>
       </c>
       <c r="H79">
-        <v>0.07159216299578061</v>
+        <v>0.4661687841900168</v>
       </c>
     </row>
     <row r="80">
@@ -2860,26 +2861,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support</t>
+          <t>specific_factorIll-being</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.1113637028458412</v>
+        <v>0.2761313921860271</v>
       </c>
       <c r="D80">
-        <v>0.0601960633093656</v>
+        <v>0.08935714365155595</v>
       </c>
       <c r="E80">
-        <v>1.493052164237642</v>
+        <v>6.472591279147492</v>
       </c>
       <c r="F80">
-        <v>-0.443337218783322</v>
+        <v>0.06854470835910779</v>
       </c>
       <c r="G80">
-        <v>0.2474754179928518</v>
+        <v>0.4607997627484773</v>
       </c>
       <c r="H80">
-        <v>0.2453169876522367</v>
+        <v>0.01737910737361844</v>
       </c>
     </row>
     <row r="81">
@@ -2890,26 +2891,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs</t>
+          <t>specific_factorIncremental beliefs</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.4244220471844439</v>
+        <v>-0.05327331151874538</v>
       </c>
       <c r="D81">
-        <v>0.1095584451808373</v>
+        <v>0.01370709984716678</v>
       </c>
       <c r="E81">
-        <v>1.020792647086891</v>
+        <v>1.434109394022903</v>
       </c>
       <c r="F81">
-        <v>-0.7032733663483742</v>
+        <v>-0.1403830926933506</v>
       </c>
       <c r="G81">
-        <v>0.9446838299123347</v>
+        <v>0.03465487608728839</v>
       </c>
       <c r="H81">
-        <v>0.14713500548453</v>
+        <v>0.0996341282699649</v>
       </c>
     </row>
     <row r="82">
@@ -2920,26 +2921,986 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>specific_factorInternal pressures</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.1664300944441492</v>
+      </c>
+      <c r="D82">
+        <v>0.03325452659200274</v>
+      </c>
+      <c r="E82">
+        <v>2.009049681438541</v>
+      </c>
+      <c r="F82">
+        <v>0.02552043180834018</v>
+      </c>
+      <c r="G82">
+        <v>0.3008551721364121</v>
+      </c>
+      <c r="H82">
+        <v>0.03668063098142558</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>specific_factorIntrinsic goals</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.02445313276108022</v>
+      </c>
+      <c r="D83">
+        <v>0.1158231418817769</v>
+      </c>
+      <c r="E83">
+        <v>1.005499742652402</v>
+      </c>
+      <c r="F83">
+        <v>-0.8913234932321467</v>
+      </c>
+      <c r="G83">
+        <v>0.9009504000308394</v>
+      </c>
+      <c r="H83">
+        <v>0.86736808736258</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>specific_factorInvitation from others to help</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>-0.1087589479328596</v>
+      </c>
+      <c r="D84">
+        <v>0.03403073471280345</v>
+      </c>
+      <c r="E84">
+        <v>1.360088976523753</v>
+      </c>
+      <c r="F84">
+        <v>-0.3330069826033007</v>
+      </c>
+      <c r="G84">
+        <v>0.1271331543786543</v>
+      </c>
+      <c r="H84">
+        <v>0.1369592263543798</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>specific_factorlow personal responsibility for others</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>-0.03398017103027687</v>
+      </c>
+      <c r="D85">
+        <v>0.03403073460075923</v>
+      </c>
+      <c r="E85">
+        <v>1.360088976523752</v>
+      </c>
+      <c r="F85">
+        <v>-0.2645633804594184</v>
+      </c>
+      <c r="G85">
+        <v>0.2002782314943087</v>
+      </c>
+      <c r="H85">
+        <v>0.4624045427566705</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>-0.1096852442046987</v>
+      </c>
+      <c r="D86">
+        <v>0.04466171933984796</v>
+      </c>
+      <c r="E86">
+        <v>2.674205305291343</v>
+      </c>
+      <c r="F86">
+        <v>-0.2567053783258065</v>
+      </c>
+      <c r="G86">
+        <v>0.04229626884873411</v>
+      </c>
+      <c r="H86">
+        <v>0.1007500161911587</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>specific_factorneed frustration</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0.1628849016349441</v>
+      </c>
+      <c r="D87">
+        <v>0.1149697999071058</v>
+      </c>
+      <c r="E87">
+        <v>1.184723546277541</v>
+      </c>
+      <c r="F87">
+        <v>-0.6933420329189869</v>
+      </c>
+      <c r="G87">
+        <v>0.8284143114681275</v>
+      </c>
+      <c r="H87">
+        <v>0.3608590404309301</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>0.3001443938681371</v>
+      </c>
+      <c r="D88">
+        <v>0.04240917102293758</v>
+      </c>
+      <c r="E88">
+        <v>7.312729705590153</v>
+      </c>
+      <c r="F88">
+        <v>0.2072147617258537</v>
+      </c>
+      <c r="G88">
+        <v>0.3877058424948115</v>
+      </c>
+      <c r="H88">
+        <v>0.0001311933743176956</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>specific_factorneed satisfaction</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>-0.07240468718678826</v>
+      </c>
+      <c r="D89">
+        <v>0.1149697999071058</v>
+      </c>
+      <c r="E89">
+        <v>1.184723546277541</v>
+      </c>
+      <c r="F89">
+        <v>-0.7973315917355556</v>
+      </c>
+      <c r="G89">
+        <v>0.7380489370273294</v>
+      </c>
+      <c r="H89">
+        <v>0.6278409463268724</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>-0.1515110564063894</v>
+      </c>
+      <c r="D90">
+        <v>0.03362837662156577</v>
+      </c>
+      <c r="E90">
+        <v>9.075749697522156</v>
+      </c>
+      <c r="F90">
+        <v>-0.2247589242079742</v>
+      </c>
+      <c r="G90">
+        <v>-0.07656052149840685</v>
+      </c>
+      <c r="H90">
+        <v>0.0013753357534298</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>specific_factornegative personality</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.4074587959758977</v>
+      </c>
+      <c r="D91">
+        <v>0.04017174524187251</v>
+      </c>
+      <c r="E91">
+        <v>2.388890202624459</v>
+      </c>
+      <c r="F91">
+        <v>0.2766650245521264</v>
+      </c>
+      <c r="G91">
+        <v>0.5234308097066309</v>
+      </c>
+      <c r="H91">
+        <v>0.004430452879447083</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>specific_factorNegative personality</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.2591696907521666</v>
+      </c>
+      <c r="D92">
+        <v>0.02570268847927584</v>
+      </c>
+      <c r="E92">
+        <v>2.008245839292818</v>
+      </c>
+      <c r="F92">
+        <v>0.1538314132488857</v>
+      </c>
+      <c r="G92">
+        <v>0.3586831897937759</v>
+      </c>
+      <c r="H92">
+        <v>0.009133075835287191</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>specific_factorObsessive passion</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.2421720609322957</v>
+      </c>
+      <c r="D93">
+        <v>0.0532311907843934</v>
+      </c>
+      <c r="E93">
+        <v>1.400955524446331</v>
+      </c>
+      <c r="F93">
+        <v>-0.1065041736229647</v>
+      </c>
+      <c r="G93">
+        <v>0.5378105572005134</v>
+      </c>
+      <c r="H93">
+        <v>0.08144537577351652</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>specific_factorOthers positive behaviour</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.006941987041497902</v>
+      </c>
+      <c r="D94">
+        <v>0.07404806088760894</v>
+      </c>
+      <c r="E94">
+        <v>1.283739465073844</v>
+      </c>
+      <c r="F94">
+        <v>-0.5083408045580213</v>
+      </c>
+      <c r="G94">
+        <v>0.5185643672615851</v>
+      </c>
+      <c r="H94">
+        <v>0.9377747929607787</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' abilities</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>-0.3849200972392453</v>
+      </c>
+      <c r="D95">
+        <v>0.1323756557820572</v>
+      </c>
+      <c r="E95">
+        <v>1.045184951627752</v>
+      </c>
+      <c r="F95">
+        <v>-0.9583556813531228</v>
+      </c>
+      <c r="G95">
+        <v>0.8053671728468315</v>
+      </c>
+      <c r="H95">
+        <v>0.1919865256687901</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>specific_factorothers' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>-0.3640675719416325</v>
+      </c>
+      <c r="D96">
+        <v>0.1410970682504037</v>
+      </c>
+      <c r="E96">
+        <v>1.678722237921518</v>
+      </c>
+      <c r="F96">
+        <v>-0.805751152879092</v>
+      </c>
+      <c r="G96">
+        <v>0.3378485570848254</v>
+      </c>
+      <c r="H96">
+        <v>0.1367198827855233</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.0577188171710423</v>
+      </c>
+      <c r="D97">
+        <v>0.07560122499458098</v>
+      </c>
+      <c r="E97">
+        <v>2.788892244245716</v>
+      </c>
+      <c r="F97">
+        <v>-0.1910746236039499</v>
+      </c>
+      <c r="G97">
+        <v>0.2995437987893974</v>
+      </c>
+      <c r="H97">
+        <v>0.5041208436610281</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>0.07967997946463884</v>
+      </c>
+      <c r="D98">
+        <v>0.03566876894476865</v>
+      </c>
+      <c r="E98">
+        <v>1.066010924308594</v>
+      </c>
+      <c r="F98">
+        <v>-0.3023829190302854</v>
+      </c>
+      <c r="G98">
+        <v>0.4396838042397027</v>
+      </c>
+      <c r="H98">
+        <v>0.2549786084464511</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.2803005107058366</v>
+      </c>
+      <c r="D99">
+        <v>0.02298818604464997</v>
+      </c>
+      <c r="E99">
+        <v>1.00376841428182</v>
+      </c>
+      <c r="F99">
+        <v>-0.001505755895068583</v>
+      </c>
+      <c r="G99">
+        <v>0.5208621168545911</v>
+      </c>
+      <c r="H99">
+        <v>0.0502612860736566</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.5750721352584356</v>
+      </c>
+      <c r="D100">
+        <v>0.06930042230139584</v>
+      </c>
+      <c r="E100">
+        <v>1.284584721724142</v>
+      </c>
+      <c r="F100">
+        <v>0.1239761487547054</v>
+      </c>
+      <c r="G100">
+        <v>0.8291841669342646</v>
+      </c>
+      <c r="H100">
+        <v>0.03825520041614101</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>specific_factorothers' negative emotions</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.2187435471567961</v>
+      </c>
+      <c r="D101">
+        <v>0.06782539711439473</v>
+      </c>
+      <c r="E101">
+        <v>1.093562783442361</v>
+      </c>
+      <c r="F101">
+        <v>-0.4489193512458671</v>
+      </c>
+      <c r="G101">
+        <v>0.7296686363433281</v>
+      </c>
+      <c r="H101">
+        <v>0.1711772876620575</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>0.2484055503213701</v>
+      </c>
+      <c r="D102">
+        <v>0.02758682548594778</v>
+      </c>
+      <c r="E102">
+        <v>1.165621487120484</v>
+      </c>
+      <c r="F102">
+        <v>0.001506349014329954</v>
+      </c>
+      <c r="G102">
+        <v>0.4667595640984766</v>
+      </c>
+      <c r="H102">
+        <v>0.04965737205814784</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive emotions</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>-0.1512577408650813</v>
+      </c>
+      <c r="D103">
+        <v>0.0238836606436458</v>
+      </c>
+      <c r="E103">
+        <v>1.097527519178317</v>
+      </c>
+      <c r="F103">
+        <v>-0.3791240323456197</v>
+      </c>
+      <c r="G103">
+        <v>0.09390400624354543</v>
+      </c>
+      <c r="H103">
+        <v>0.08426540248107864</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>0.1598460441500862</v>
+      </c>
+      <c r="D104">
+        <v>0.05257110490091336</v>
+      </c>
+      <c r="E104">
+        <v>1.93999732842414</v>
+      </c>
+      <c r="F104">
+        <v>-0.0716816747558198</v>
+      </c>
+      <c r="G104">
+        <v>0.3750288286388086</v>
+      </c>
+      <c r="H104">
+        <v>0.09541595630119067</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>specific_factorpersonal responsibility for others</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>-0.1214864515602174</v>
+      </c>
+      <c r="D105">
+        <v>0.03092757698315589</v>
+      </c>
+      <c r="E105">
+        <v>1.190106209754534</v>
+      </c>
+      <c r="F105">
+        <v>-0.3746145905565691</v>
+      </c>
+      <c r="G105">
+        <v>0.1484951832244172</v>
+      </c>
+      <c r="H105">
+        <v>0.1264770607898755</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>-0.1189739103378068</v>
+      </c>
+      <c r="D106">
+        <v>0.1160581532457926</v>
+      </c>
+      <c r="E106">
+        <v>1.894057015147879</v>
+      </c>
+      <c r="F106">
+        <v>-0.5694056986106331</v>
+      </c>
+      <c r="G106">
+        <v>0.3864013374207513</v>
+      </c>
+      <c r="H106">
+        <v>0.4163969139896689</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>specific_factorprior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>-0.04402340957521746</v>
+      </c>
+      <c r="D107">
+        <v>0.03403073535447964</v>
+      </c>
+      <c r="E107">
+        <v>1.360088976523753</v>
+      </c>
+      <c r="F107">
+        <v>-0.273892826725606</v>
+      </c>
+      <c r="G107">
+        <v>0.190603914687204</v>
+      </c>
+      <c r="H107">
+        <v>0.3727228087718134</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>specific_factorself-efficacy</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>-0.09388574259195462</v>
+      </c>
+      <c r="D108">
+        <v>0.03403073467502005</v>
+      </c>
+      <c r="E108">
+        <v>1.360088976523754</v>
+      </c>
+      <c r="F108">
+        <v>-0.3195795096050784</v>
+      </c>
+      <c r="G108">
+        <v>0.1418887332043288</v>
+      </c>
+      <c r="H108">
+        <v>0.1643397404970407</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>-0.0841708907436393</v>
+      </c>
+      <c r="D109">
+        <v>0.06346882832323976</v>
+      </c>
+      <c r="E109">
+        <v>1.026220044284197</v>
+      </c>
+      <c r="F109">
+        <v>-0.6877744735662966</v>
+      </c>
+      <c r="G109">
+        <v>0.5882455976856897</v>
+      </c>
+      <c r="H109">
+        <v>0.406396950939844</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>-0.1205100519981439</v>
+      </c>
+      <c r="D110">
+        <v>0.05265288586196503</v>
+      </c>
+      <c r="E110">
+        <v>1.516851528094732</v>
+      </c>
+      <c r="F110">
+        <v>-0.4078344948969768</v>
+      </c>
+      <c r="G110">
+        <v>0.1885311809949241</v>
+      </c>
+      <c r="H110">
+        <v>0.1870811448542616</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>specific_factorstyle-related beliefs</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>0.2940217656135655</v>
+      </c>
+      <c r="D111">
+        <v>0.01311253665956594</v>
+      </c>
+      <c r="E111">
+        <v>1.312053349462781</v>
+      </c>
+      <c r="F111">
+        <v>0.2032536195584809</v>
+      </c>
+      <c r="G111">
+        <v>0.3797793916770398</v>
+      </c>
+      <c r="H111">
+        <v>0.0113058646952417</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>specific_factorStyle-related beliefs</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>0.4913306803840954</v>
+      </c>
+      <c r="D112">
+        <v>7.952500249020348e-17</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0.4913306803840946</v>
+      </c>
+      <c r="G112">
+        <v>0.4913306803840961</v>
+      </c>
+      <c r="H112">
+        <v>9.413530726127671e-17</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>specific_factorwell-being</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>-0.1335962638755942</v>
+      </c>
+      <c r="D113">
+        <v>0.0340307347501664</v>
+      </c>
+      <c r="E113">
+        <v>1.360088976523753</v>
+      </c>
+      <c r="F113">
+        <v>-0.3552290815784578</v>
+      </c>
+      <c r="G113">
+        <v>0.1022572899809339</v>
+      </c>
+      <c r="H113">
+        <v>0.1052903297321444</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>specific_factorWell-being</t>
         </is>
       </c>
-      <c r="C82">
-        <v>-0.187504283116788</v>
-      </c>
-      <c r="D82">
-        <v>0.04589195563191479</v>
-      </c>
-      <c r="E82">
-        <v>5.238716044044504</v>
-      </c>
-      <c r="F82">
-        <v>-0.2969028651543047</v>
-      </c>
-      <c r="G82">
-        <v>-0.07324746351827814</v>
-      </c>
-      <c r="H82">
-        <v>0.008186982296365596</v>
+      <c r="C114">
+        <v>-0.1963258008502498</v>
+      </c>
+      <c r="D114">
+        <v>0.0559753378036465</v>
+      </c>
+      <c r="E114">
+        <v>4.162589155562383</v>
+      </c>
+      <c r="F114">
+        <v>-0.3381087501943265</v>
+      </c>
+      <c r="G114">
+        <v>-0.04582859538760283</v>
+      </c>
+      <c r="H114">
+        <v>0.02220005071531838</v>
       </c>
     </row>
   </sheetData>
@@ -3024,25 +3985,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.9864976341669962</v>
+        <v>-0.9618907009680471</v>
       </c>
       <c r="E2">
-        <v>0.6838177407335493</v>
+        <v>0.8263717078391433</v>
       </c>
       <c r="F2">
-        <v>-3.649556870200986</v>
+        <v>-2.384644568410494</v>
       </c>
       <c r="G2">
-        <v>0.002396242503355246</v>
+        <v>0.03086436704520496</v>
       </c>
       <c r="H2">
-        <v>-0.9992647499557552</v>
+        <v>-0.9988570114563077</v>
       </c>
       <c r="I2">
-        <v>-0.7767893880970304</v>
+        <v>-0.2049205091958818</v>
       </c>
       <c r="J2">
-        <v>14.89621490743453</v>
+        <v>14.86734371936792</v>
       </c>
     </row>
     <row r="3">
@@ -3062,25 +4023,81 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.8422405778780663</v>
+        <v>-0.8599032258605968</v>
       </c>
       <c r="E3">
-        <v>0.7103662241121139</v>
+        <v>0.5941155163519004</v>
       </c>
       <c r="F3">
-        <v>-1.729858841764404</v>
+        <v>-2.176299252763167</v>
       </c>
       <c r="G3">
-        <v>0.1178835414151363</v>
+        <v>0.05871969279199344</v>
       </c>
       <c r="H3">
-        <v>-0.9931559787354588</v>
+        <v>-0.9899738001087944</v>
       </c>
       <c r="I3">
-        <v>0.3621714933001058</v>
+        <v>0.0593215071458616</v>
       </c>
       <c r="J3">
-        <v>8.954112446554245</v>
+        <v>8.648142259971001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>845</v>
+      </c>
+      <c r="C2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>438</v>
+      </c>
+      <c r="C3">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/output/08-specific.xlsx
+++ b/output/08-specific.xlsx
@@ -409,25 +409,25 @@
         </is>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D2">
-        <v>0.01132103733344479</v>
+        <v>0.01057522579711685</v>
       </c>
       <c r="E2">
-        <v>0.02328286513378267</v>
+        <v>0.02468479606572522</v>
       </c>
       <c r="F2">
-        <v>94.6709166631459</v>
+        <v>94.77508775367545</v>
       </c>
       <c r="G2">
-        <v>63.69831225964064</v>
+        <v>66.35003581141055</v>
       </c>
       <c r="H2">
-        <v>30.97260440350525</v>
+        <v>28.4250519422649</v>
       </c>
     </row>
     <row r="3">
@@ -437,25 +437,25 @@
         </is>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="D3">
-        <v>4.756766376662213e-09</v>
+        <v>1.511324448310524e-09</v>
       </c>
       <c r="E3">
-        <v>0.02056550205416127</v>
+        <v>0.02299982895037337</v>
       </c>
       <c r="F3">
-        <v>86.29979330611449</v>
+        <v>88.12792592848962</v>
       </c>
       <c r="G3">
-        <v>86.29977334512064</v>
+        <v>88.12792013758219</v>
       </c>
       <c r="H3">
-        <v>1.996099385663073e-05</v>
+        <v>5.790907426749503e-06</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2879401344091578</v>
+        <v>-0.2913863358439596</v>
       </c>
       <c r="D2">
-        <v>0.07372407196522826</v>
+        <v>0.07205975725170799</v>
       </c>
       <c r="E2">
-        <v>3.282254419457011</v>
+        <v>3.215317587403502</v>
       </c>
       <c r="F2">
-        <v>-0.4776463076221116</v>
+        <v>-0.478439939139175</v>
       </c>
       <c r="G2">
-        <v>-0.07257917130727123</v>
+        <v>-0.07903678884677011</v>
       </c>
       <c r="H2">
-        <v>0.02333362774198711</v>
+        <v>0.02198074331115907</v>
       </c>
     </row>
     <row r="3">
@@ -555,22 +555,22 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.2289888685566282</v>
+        <v>0.2409639907240743</v>
       </c>
       <c r="D3">
-        <v>0.09851961304059803</v>
+        <v>0.09882423083829737</v>
       </c>
       <c r="E3">
-        <v>3.437185250829886</v>
+        <v>3.404044460270509</v>
       </c>
       <c r="F3">
-        <v>-0.05894642297826088</v>
+        <v>-0.04856823483526003</v>
       </c>
       <c r="G3">
-        <v>0.4817487754834548</v>
+        <v>0.4931401214715826</v>
       </c>
       <c r="H3">
-        <v>0.08778559552186349</v>
+        <v>0.07868234302002639</v>
       </c>
     </row>
     <row r="4">
@@ -581,26 +581,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation</t>
+          <t>specific_factorAutonomous motivation</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.2506357660002619</v>
+        <v>0.2987477015641252</v>
       </c>
       <c r="D4">
-        <v>0.1142905819764339</v>
+        <v>0.04107560713972953</v>
       </c>
       <c r="E4">
-        <v>2.957157537460784</v>
+        <v>25.683970777651</v>
       </c>
       <c r="F4">
-        <v>-0.1101827353587916</v>
+        <v>0.2200049469861175</v>
       </c>
       <c r="G4">
-        <v>0.5530842924406073</v>
+        <v>0.3736224982464272</v>
       </c>
       <c r="H4">
-        <v>0.112176620998581</v>
+        <v>6.250071748929735e-08</v>
       </c>
     </row>
     <row r="5">
@@ -611,26 +611,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation</t>
+          <t>specific_factorCoherence of mind</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.3096004236133296</v>
+        <v>0.1100445571831774</v>
       </c>
       <c r="D5">
-        <v>0.04548367978226992</v>
+        <v>5.038863299903562e-17</v>
       </c>
       <c r="E5">
-        <v>20.9750642114884</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2217616100983417</v>
+        <v>0.1100445571831768</v>
       </c>
       <c r="G5">
-        <v>0.3924550380519995</v>
+        <v>0.1100445571831781</v>
       </c>
       <c r="H5">
-        <v>6.067686676998122e-07</v>
+        <v>2.903232321824943e-16</v>
       </c>
     </row>
     <row r="6">
@@ -641,26 +641,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>specific_factorCoherence of mind</t>
+          <t>specific_factorControlled causality orientation</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.1100445571831774</v>
+        <v>-0.1614633831611527</v>
       </c>
       <c r="D6">
-        <v>2.785764763447593e-16</v>
+        <v>0.06438279923691564</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>1.481792803056664</v>
       </c>
       <c r="F6">
-        <v>0.1100445571831739</v>
+        <v>-0.5057446324799496</v>
       </c>
       <c r="G6">
-        <v>0.1100445571831809</v>
+        <v>0.227183310649113</v>
       </c>
       <c r="H6">
-        <v>1.605068806370845e-15</v>
+        <v>0.169122666939742</v>
       </c>
     </row>
     <row r="7">
@@ -671,26 +671,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation</t>
+          <t>specific_factorControlled motivation</t>
         </is>
       </c>
       <c r="C7">
-        <v>-0.1766338294130649</v>
+        <v>-0.04435326769183983</v>
       </c>
       <c r="D7">
-        <v>0.06721821012262652</v>
+        <v>0.03519161262948997</v>
       </c>
       <c r="E7">
-        <v>1.527608652616089</v>
+        <v>14.36789049541516</v>
       </c>
       <c r="F7">
-        <v>-0.5174533632235074</v>
+        <v>-0.1191118291691155</v>
       </c>
       <c r="G7">
-        <v>0.212553042990909</v>
+        <v>0.03090536060893916</v>
       </c>
       <c r="H7">
-        <v>0.1542026678731799</v>
+        <v>0.2273434530460732</v>
       </c>
     </row>
     <row r="8">
@@ -701,26 +701,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation</t>
+          <t>specific_factorEmotional intelligence</t>
         </is>
       </c>
       <c r="C8">
-        <v>-0.05309693740557916</v>
+        <v>0.2866196372955676</v>
       </c>
       <c r="D8">
-        <v>0.1022768154148985</v>
+        <v>0.06622681851720399</v>
       </c>
       <c r="E8">
-        <v>1.251965516108562</v>
+        <v>4.951532489303022</v>
       </c>
       <c r="F8">
-        <v>-0.7023550041182948</v>
+        <v>0.1235018242093524</v>
       </c>
       <c r="G8">
-        <v>0.6443866521598379</v>
+        <v>0.4346562742377997</v>
       </c>
       <c r="H8">
-        <v>0.6801870170186584</v>
+        <v>0.00684231313304508</v>
       </c>
     </row>
     <row r="9">
@@ -731,26 +731,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation</t>
+          <t>specific_factorEntity beliefs</t>
         </is>
       </c>
       <c r="C9">
-        <v>-0.0389146651680139</v>
+        <v>-0.2250417203192697</v>
       </c>
       <c r="D9">
-        <v>0.03858301209011348</v>
+        <v>0.03663115800875855</v>
       </c>
       <c r="E9">
-        <v>12.09978372921395</v>
+        <v>1.962572683911457</v>
       </c>
       <c r="F9">
-        <v>-0.1223072627988474</v>
+        <v>-0.3709181841149701</v>
       </c>
       <c r="G9">
-        <v>0.04502355047794267</v>
+        <v>-0.06832701539263573</v>
       </c>
       <c r="H9">
-        <v>0.3326785327846441</v>
+        <v>0.02581056275686232</v>
       </c>
     </row>
     <row r="10">
@@ -761,26 +761,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence</t>
+          <t>specific_factorExternal pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.1638121368939091</v>
+        <v>0.004596844096148441</v>
       </c>
       <c r="D10">
-        <v>0.06985812063579586</v>
+        <v>0.04011293780512363</v>
       </c>
       <c r="E10">
-        <v>1.450808100214358</v>
+        <v>5.349406328692565</v>
       </c>
       <c r="F10">
-        <v>-0.268793065252732</v>
+        <v>-0.09622486711419857</v>
       </c>
       <c r="G10">
-        <v>0.5414221643656131</v>
+        <v>0.1053251858788961</v>
       </c>
       <c r="H10">
-        <v>0.1874533638443457</v>
+        <v>0.912941845802089</v>
       </c>
     </row>
     <row r="11">
@@ -791,26 +791,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence</t>
+          <t>specific_factorExternal pressures</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.3457506622028271</v>
+        <v>0.006663766125107547</v>
       </c>
       <c r="D11">
-        <v>0.05889207747572282</v>
+        <v>0.04841777319105022</v>
       </c>
       <c r="E11">
-        <v>3.891747924426126</v>
+        <v>7.892379058375687</v>
       </c>
       <c r="F11">
-        <v>0.1928439693291948</v>
+        <v>-0.1048663262407125</v>
       </c>
       <c r="G11">
-        <v>0.4822633644931899</v>
+        <v>0.1180283165443261</v>
       </c>
       <c r="H11">
-        <v>0.003939444221078238</v>
+        <v>0.8939772062472882</v>
       </c>
     </row>
     <row r="12">
@@ -821,26 +821,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs</t>
+          <t>specific_factorExtrinsic goals</t>
         </is>
       </c>
       <c r="C12">
-        <v>-0.2139398837315766</v>
+        <v>-0.04590062381114492</v>
       </c>
       <c r="D12">
-        <v>0.04296076081338322</v>
+        <v>0.1195951526199938</v>
       </c>
       <c r="E12">
-        <v>1.993231174151196</v>
+        <v>1.871606323025626</v>
       </c>
       <c r="F12">
-        <v>-0.3822949513936216</v>
+        <v>-0.5340990362844488</v>
       </c>
       <c r="G12">
-        <v>-0.03183774939061355</v>
+        <v>0.4652547190353537</v>
       </c>
       <c r="H12">
-        <v>0.03719364522179795</v>
+        <v>0.7401355754177861</v>
       </c>
     </row>
     <row r="13">
@@ -851,26 +851,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints</t>
+          <t>specific_factorIll-being</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.003222811138076804</v>
+        <v>-0.225242374206191</v>
       </c>
       <c r="D13">
-        <v>0.0403731040656327</v>
+        <v>0.08328051962132899</v>
       </c>
       <c r="E13">
-        <v>5.517771809739739</v>
+        <v>11.32472967432907</v>
       </c>
       <c r="F13">
-        <v>-0.0973880244671394</v>
+        <v>-0.3900269503296332</v>
       </c>
       <c r="G13">
-        <v>0.1037684422802343</v>
+        <v>-0.04647838908900243</v>
       </c>
       <c r="H13">
-        <v>0.9391911665705092</v>
+        <v>0.01838350697566095</v>
       </c>
     </row>
     <row r="14">
@@ -881,26 +881,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures</t>
+          <t>specific_factorIncremental beliefs</t>
         </is>
       </c>
       <c r="C14">
-        <v>-0.006171653356446437</v>
+        <v>0.1358870942823804</v>
       </c>
       <c r="D14">
-        <v>0.08624327203965941</v>
+        <v>0.01934859624914688</v>
       </c>
       <c r="E14">
-        <v>3.460896305845217</v>
+        <v>1.091097744905533</v>
       </c>
       <c r="F14">
-        <v>-0.2552995807228989</v>
+        <v>-0.06544620272092198</v>
       </c>
       <c r="G14">
-        <v>0.2437247503201318</v>
+        <v>0.3265893921529504</v>
       </c>
       <c r="H14">
-        <v>0.9468903225251126</v>
+        <v>0.07632227189425196</v>
       </c>
     </row>
     <row r="15">
@@ -911,26 +911,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures</t>
+          <t>specific_factorInternal pressures</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.01761399285964584</v>
+        <v>-0.09374847598644301</v>
       </c>
       <c r="D15">
-        <v>0.0879373279374833</v>
+        <v>0.07063750159193412</v>
       </c>
       <c r="E15">
-        <v>2.825120148098273</v>
+        <v>1.906914406767494</v>
       </c>
       <c r="F15">
-        <v>-0.2657638777710591</v>
+        <v>-0.390697456552284</v>
       </c>
       <c r="G15">
-        <v>0.2981900506896155</v>
+        <v>0.2208730140661403</v>
       </c>
       <c r="H15">
-        <v>0.8547731850142815</v>
+        <v>0.32002917045404</v>
       </c>
     </row>
     <row r="16">
@@ -941,26 +941,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals</t>
+          <t>specific_factorIntrinsic goals</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.03864420658608525</v>
+        <v>0.2643495849371186</v>
       </c>
       <c r="D16">
-        <v>0.09794939697329667</v>
+        <v>0.07410440888901278</v>
       </c>
       <c r="E16">
-        <v>1.010544003454515</v>
+        <v>1.871606323025626</v>
       </c>
       <c r="F16">
-        <v>-0.8260687863270909</v>
+        <v>-0.06985846022036386</v>
       </c>
       <c r="G16">
-        <v>0.8491108439126085</v>
+        <v>0.5452035709411551</v>
       </c>
       <c r="H16">
-        <v>0.760121684240388</v>
+        <v>0.07441996586436689</v>
       </c>
     </row>
     <row r="17">
@@ -971,26 +971,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>specific_factorill-being</t>
+          <t>specific_factorInvitation from others' to help</t>
         </is>
       </c>
       <c r="C17">
-        <v>-0.08926316778257772</v>
+        <v>0.1960426734200881</v>
       </c>
       <c r="D17">
-        <v>0.05892431691851138</v>
+        <v>0.04590075446163292</v>
       </c>
       <c r="E17">
-        <v>2.048479603834451</v>
+        <v>10.46559743243417</v>
       </c>
       <c r="F17">
-        <v>-0.3251259334276128</v>
+        <v>0.0966512044971498</v>
       </c>
       <c r="G17">
-        <v>0.157054790370123</v>
+        <v>0.2915629425476112</v>
       </c>
       <c r="H17">
-        <v>0.2652766162679821</v>
+        <v>0.001346673246619238</v>
       </c>
     </row>
     <row r="18">
@@ -1001,26 +1001,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>specific_factorIll-being</t>
+          <t>specific_factorLow Personal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C18">
-        <v>-0.2468694860510272</v>
+        <v>0.1553578258719912</v>
       </c>
       <c r="D18">
-        <v>0.09732986923700716</v>
+        <v>0.04590075445742241</v>
       </c>
       <c r="E18">
-        <v>8.383665126207422</v>
+        <v>10.46559743243398</v>
       </c>
       <c r="F18">
-        <v>-0.4420244806556597</v>
+        <v>0.05491100893181139</v>
       </c>
       <c r="G18">
-        <v>-0.02940016186121146</v>
+        <v>0.2526916798298374</v>
       </c>
       <c r="H18">
-        <v>0.03091383892133356</v>
+        <v>0.006219349199606873</v>
       </c>
     </row>
     <row r="19">
@@ -1031,26 +1031,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs</t>
+          <t>specific_factorMastery goals</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.1388360487628135</v>
+        <v>0.2650406185397582</v>
       </c>
       <c r="D19">
-        <v>0.02486667889987222</v>
+        <v>0.04682600371516284</v>
       </c>
       <c r="E19">
-        <v>2.946107938712154</v>
+        <v>3.011339027415324</v>
       </c>
       <c r="F19">
-        <v>0.05970529851550637</v>
+        <v>0.1222040029972425</v>
       </c>
       <c r="G19">
-        <v>0.2162327829623275</v>
+        <v>0.3971211776109982</v>
       </c>
       <c r="H19">
-        <v>0.01169465459071435</v>
+        <v>0.01010036887143724</v>
       </c>
     </row>
     <row r="20">
@@ -1061,26 +1061,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures</t>
+          <t>specific_factorNeed frustration</t>
         </is>
       </c>
       <c r="C20">
-        <v>-0.07110218842577827</v>
+        <v>-0.1887930941546774</v>
       </c>
       <c r="D20">
-        <v>0.08621750185320334</v>
+        <v>0.05349559425249999</v>
       </c>
       <c r="E20">
-        <v>1.969460060496395</v>
+        <v>10.08973957300925</v>
       </c>
       <c r="F20">
-        <v>-0.420050845674484</v>
+        <v>-0.3005621143522748</v>
       </c>
       <c r="G20">
-        <v>0.2961635408680851</v>
+        <v>-0.0719089614605057</v>
       </c>
       <c r="H20">
-        <v>0.4967792351180647</v>
+        <v>0.005008198217963251</v>
       </c>
     </row>
     <row r="21">
@@ -1091,26 +1091,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals</t>
+          <t>specific_factorNeed satisfaction</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.3363183851054279</v>
+        <v>0.2709240092758623</v>
       </c>
       <c r="D21">
-        <v>0.0250804028380792</v>
+        <v>0.04057682065454203</v>
       </c>
       <c r="E21">
-        <v>1.010544003454515</v>
+        <v>19.95533618650413</v>
       </c>
       <c r="F21">
-        <v>0.03899012669041603</v>
+        <v>0.1908381431442945</v>
       </c>
       <c r="G21">
-        <v>0.5789362501031889</v>
+        <v>0.3474270969887208</v>
       </c>
       <c r="H21">
-        <v>0.04439142415400063</v>
+        <v>1.193614810944259e-06</v>
       </c>
     </row>
     <row r="22">
@@ -1121,26 +1121,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others to help</t>
+          <t>specific_factorNegative beliefs (religious)</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.187322258743308</v>
+        <v>-0.05759308966138252</v>
       </c>
       <c r="D22">
-        <v>0.04989482953614856</v>
+        <v>3.392014857246346e-18</v>
       </c>
       <c r="E22">
-        <v>5.000292672360957</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.0612274326707064</v>
+        <v>-0.05759308966138256</v>
       </c>
       <c r="G22">
-        <v>0.307531785418949</v>
+        <v>-0.05759308966138248</v>
       </c>
       <c r="H22">
-        <v>0.01263739551374711</v>
+        <v>3.745300081174162e-17</v>
       </c>
     </row>
     <row r="23">
@@ -1151,26 +1151,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorlow personal responsibility for others</t>
+          <t>specific_factorNegative beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C23">
-        <v>0.1465110194353271</v>
+        <v>-0.06013092168673724</v>
       </c>
       <c r="D23">
-        <v>0.04989482956140447</v>
+        <v>0.1986061929838664</v>
       </c>
       <c r="E23">
-        <v>5.000292672360973</v>
+        <v>1.51231237753852</v>
       </c>
       <c r="F23">
-        <v>0.01931415438329566</v>
+        <v>-0.8459169674543814</v>
       </c>
       <c r="G23">
-        <v>0.2690408358712215</v>
+        <v>0.8079903544826994</v>
       </c>
       <c r="H23">
-        <v>0.03160116092871575</v>
+        <v>0.7982386065086372</v>
       </c>
     </row>
     <row r="24">
@@ -1181,26 +1181,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factormastery goals</t>
+          <t>specific_factorNegative beliefs about motivation</t>
         </is>
       </c>
       <c r="C24">
-        <v>0.1182485381994976</v>
+        <v>-0.2687304722340395</v>
       </c>
       <c r="D24">
-        <v>0.09857052592096889</v>
+        <v>0.1090942441820898</v>
       </c>
       <c r="E24">
-        <v>1.740093962503031</v>
+        <v>1.051810728995659</v>
       </c>
       <c r="F24">
-        <v>-0.3559087395509849</v>
+        <v>-0.9069891320596302</v>
       </c>
       <c r="G24">
-        <v>0.5439877616269934</v>
+        <v>0.7439610443174108</v>
       </c>
       <c r="H24">
-        <v>0.3666141717992031</v>
+        <v>0.2300296352299197</v>
       </c>
     </row>
     <row r="25">
@@ -1211,26 +1211,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals</t>
+          <t>specific_factorNegative life events</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.2497059927447755</v>
+        <v>0.1466519662212899</v>
       </c>
       <c r="D25">
-        <v>0.09090610876934928</v>
+        <v>1.019325256991176e-17</v>
       </c>
       <c r="E25">
-        <v>2.876443955983618</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>-0.04133981001041878</v>
+        <v>0.1466519662212897</v>
       </c>
       <c r="G25">
-        <v>0.5016898639185298</v>
+        <v>0.14665196622129</v>
       </c>
       <c r="H25">
-        <v>0.0708530839421974</v>
+        <v>4.393009938395472e-17</v>
       </c>
     </row>
     <row r="26">
@@ -1241,26 +1241,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorneed frustration</t>
+          <t>specific_factorNegative personality</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.1278069098188511</v>
+        <v>-0.2957692222874741</v>
       </c>
       <c r="D26">
-        <v>0.07992778678232293</v>
+        <v>0.1731967605261105</v>
       </c>
       <c r="E26">
-        <v>1.923299950672379</v>
+        <v>1.994841948784727</v>
       </c>
       <c r="F26">
-        <v>-0.4509514620325612</v>
+        <v>-0.7825563096693786</v>
       </c>
       <c r="G26">
-        <v>0.2249601486378839</v>
+        <v>0.4154483450042018</v>
       </c>
       <c r="H26">
-        <v>0.2539757172263972</v>
+        <v>0.220748905397037</v>
       </c>
     </row>
     <row r="27">
@@ -1271,26 +1271,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration</t>
+          <t>specific_factorOthers' abilities</t>
         </is>
       </c>
       <c r="C27">
-        <v>-0.2070401641960139</v>
+        <v>0.2316550893244476</v>
       </c>
       <c r="D27">
-        <v>0.06584608291620157</v>
+        <v>0.07155250420300419</v>
       </c>
       <c r="E27">
-        <v>8.996303283856625</v>
+        <v>3.897424524185753</v>
       </c>
       <c r="F27">
-        <v>-0.3443685839906628</v>
+        <v>0.03518246177167355</v>
       </c>
       <c r="G27">
-        <v>-0.06103747375021984</v>
+        <v>0.4108874134003981</v>
       </c>
       <c r="H27">
-        <v>0.01100478432287874</v>
+        <v>0.03118602470432033</v>
       </c>
     </row>
     <row r="28">
@@ -1301,26 +1301,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorneed satisfaction</t>
+          <t>specific_factorOthers' autonomous motivation</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.3087689759545577</v>
+        <v>0.1762762680419017</v>
       </c>
       <c r="D28">
-        <v>0.0799277867823229</v>
+        <v>0.05316315955135713</v>
       </c>
       <c r="E28">
-        <v>1.923299950672377</v>
+        <v>8.231267018923869</v>
       </c>
       <c r="F28">
-        <v>-0.03818162261319558</v>
+        <v>0.05608051451997564</v>
       </c>
       <c r="G28">
-        <v>0.5892839366774407</v>
+        <v>0.2914356098190984</v>
       </c>
       <c r="H28">
-        <v>0.0611618189310917</v>
+        <v>0.009664419143239771</v>
       </c>
     </row>
     <row r="29">
@@ -1331,26 +1331,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction</t>
+          <t>specific_factorOthers' controlled motivation</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.2663874816857494</v>
+        <v>0.03726036922717415</v>
       </c>
       <c r="D29">
-        <v>0.04211334131294329</v>
+        <v>0.0338058137372859</v>
       </c>
       <c r="E29">
-        <v>18.64909051629715</v>
+        <v>1.679388451185373</v>
       </c>
       <c r="F29">
-        <v>0.1826421809408912</v>
+        <v>-0.137439145463765</v>
       </c>
       <c r="G29">
-        <v>0.346295183770054</v>
+        <v>0.2097116646036581</v>
       </c>
       <c r="H29">
-        <v>3.589016757869364e-06</v>
+        <v>0.4032152374648693</v>
       </c>
     </row>
     <row r="30">
@@ -1361,26 +1361,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious)</t>
+          <t>specific_factorOthers' negative behaviours</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.05759308966138256</v>
+        <v>-0.1302004633309602</v>
       </c>
       <c r="D30">
-        <v>8.029469166262554e-17</v>
+        <v>0.08731599920733848</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>5.403420347532359</v>
       </c>
       <c r="F30">
-        <v>-0.05759308966138357</v>
+        <v>-0.3367734955529982</v>
       </c>
       <c r="G30">
-        <v>-0.05759308966138154</v>
+        <v>0.08833045426818735</v>
       </c>
       <c r="H30">
-        <v>8.865754657867794e-16</v>
+        <v>0.1897016725092504</v>
       </c>
     </row>
     <row r="31">
@@ -1391,26 +1391,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning</t>
+          <t>specific_factorOthers' negative emotions</t>
         </is>
       </c>
       <c r="C31">
-        <v>0.03968841002109386</v>
+        <v>-0.1581630146436843</v>
       </c>
       <c r="D31">
-        <v>0.07813420695655701</v>
+        <v>0.04489334056179898</v>
       </c>
       <c r="E31">
-        <v>1.485911030036163</v>
+        <v>3.337158629780085</v>
       </c>
       <c r="F31">
-        <v>-0.4108983716780201</v>
+        <v>-0.2863116992031149</v>
       </c>
       <c r="G31">
-        <v>0.4746922356300118</v>
+        <v>-0.02445518207246665</v>
       </c>
       <c r="H31">
-        <v>0.6764729923282101</v>
+        <v>0.03199652095337587</v>
       </c>
     </row>
     <row r="32">
@@ -1421,26 +1421,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation</t>
+          <t>specific_factorOthers' positive behaviours</t>
         </is>
       </c>
       <c r="C32">
-        <v>-0.2453218878375166</v>
+        <v>0.1820094102441141</v>
       </c>
       <c r="D32">
-        <v>0.0926735634062994</v>
+        <v>0.04075763457993306</v>
       </c>
       <c r="E32">
-        <v>1.073361001722812</v>
+        <v>6.31298760832725</v>
       </c>
       <c r="F32">
-        <v>-0.8493483632163332</v>
+        <v>0.08530834996476519</v>
       </c>
       <c r="G32">
-        <v>0.6369063220499787</v>
+        <v>0.2753135397391427</v>
       </c>
       <c r="H32">
-        <v>0.211666596119184</v>
+        <v>0.003555702705344107</v>
       </c>
     </row>
     <row r="33">
@@ -1451,26 +1451,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events</t>
+          <t>specific_factorOthers' positive emotions</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.1466519662212899</v>
+        <v>0.2340942731827837</v>
       </c>
       <c r="D33">
-        <v>2.555587564414358e-16</v>
+        <v>0.05302297872020734</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>4.288496284593504</v>
       </c>
       <c r="F33">
-        <v>0.1466519662212867</v>
+        <v>0.09484014988112995</v>
       </c>
       <c r="G33">
-        <v>0.1466519662212931</v>
+        <v>0.3643628428784494</v>
       </c>
       <c r="H33">
-        <v>1.101387559261601e-15</v>
+        <v>0.00922122982917266</v>
       </c>
     </row>
     <row r="34">
@@ -1481,26 +1481,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factornegative personality</t>
+          <t>specific_factorPerformance goals</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.4082181336713323</v>
+        <v>-0.058493921956576</v>
       </c>
       <c r="D34">
-        <v>0.1411230731499395</v>
+        <v>0.2293955420796312</v>
       </c>
       <c r="E34">
-        <v>1.092177651688682</v>
+        <v>2.550071291916349</v>
       </c>
       <c r="F34">
-        <v>-0.9567233610553647</v>
+        <v>-0.6999308282551938</v>
       </c>
       <c r="G34">
-        <v>0.7773996954714921</v>
+        <v>0.6351748226455323</v>
       </c>
       <c r="H34">
-        <v>0.1831635973687392</v>
+        <v>0.8176725883740628</v>
       </c>
     </row>
     <row r="35">
@@ -1511,26 +1511,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality</t>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C35">
-        <v>-0.03968216060185056</v>
+        <v>0.2704210631557011</v>
       </c>
       <c r="D35">
-        <v>0.03355975550439644</v>
+        <v>0.06050756012784916</v>
       </c>
       <c r="E35">
-        <v>1.32046127859353</v>
+        <v>1.342922133324325</v>
       </c>
       <c r="F35">
-        <v>-0.2774635489075761</v>
+        <v>-0.1516070784526645</v>
       </c>
       <c r="G35">
-        <v>0.2026801471490908</v>
+        <v>0.6090570710869728</v>
       </c>
       <c r="H35">
-        <v>0.4073164609971786</v>
+        <v>0.08863041895073934</v>
       </c>
     </row>
     <row r="36">
@@ -1541,26 +1541,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorothers abilities</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.1723682942287592</v>
+        <v>0.2303090294305224</v>
       </c>
       <c r="D36">
-        <v>0.05111410309678052</v>
+        <v>0.06413371633577369</v>
       </c>
       <c r="E36">
-        <v>1.177500748244548</v>
+        <v>2.027109672355684</v>
       </c>
       <c r="F36">
-        <v>-0.2767201486736235</v>
+        <v>-0.03790470510352874</v>
       </c>
       <c r="G36">
-        <v>0.5596611381289575</v>
+        <v>0.4675688501702809</v>
       </c>
       <c r="H36">
-        <v>0.1511313043338615</v>
+        <v>0.0659677564250149</v>
       </c>
     </row>
     <row r="37">
@@ -1571,26 +1571,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorOthers positive behaviour</t>
+          <t>specific_factorPositive attitudes</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.2581920711057571</v>
+        <v>0.2466114365168716</v>
       </c>
       <c r="D37">
-        <v>0.06985812063579599</v>
+        <v>0.02774083154351385</v>
       </c>
       <c r="E37">
-        <v>1.450808100214357</v>
+        <v>2.308616751752052</v>
       </c>
       <c r="F37">
-        <v>-0.1748773740724137</v>
+        <v>0.1454623037366735</v>
       </c>
       <c r="G37">
-        <v>0.6075535108041475</v>
+        <v>0.3426585783035769</v>
       </c>
       <c r="H37">
-        <v>0.101846998352258</v>
+        <v>0.00744275532890068</v>
       </c>
     </row>
     <row r="38">
@@ -1601,26 +1601,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities</t>
+          <t>specific_factorPositive beliefs (religious)</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.2380999909488311</v>
+        <v>0.1730474015149224</v>
       </c>
       <c r="D38">
-        <v>0.08697827961805274</v>
+        <v>1.160149679756209e-17</v>
       </c>
       <c r="E38">
-        <v>2.564243242412953</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>-0.06257361071761257</v>
+        <v>0.1730474015149223</v>
       </c>
       <c r="G38">
-        <v>0.4991499336160283</v>
+        <v>0.1730474015149225</v>
       </c>
       <c r="H38">
-        <v>0.08173825965577783</v>
+        <v>4.225097313349575e-17</v>
       </c>
     </row>
     <row r="39">
@@ -1631,26 +1631,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorothers' autonomous motivation</t>
+          <t>specific_factorPositive beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.1898031532905998</v>
+        <v>0.1612127388422826</v>
       </c>
       <c r="D39">
-        <v>0.1055061108473458</v>
+        <v>0.0654362466182067</v>
       </c>
       <c r="E39">
-        <v>2.268437585743547</v>
+        <v>2.157702393545371</v>
       </c>
       <c r="F39">
-        <v>-0.2108285164165124</v>
+        <v>-0.09975625651104092</v>
       </c>
       <c r="G39">
-        <v>0.5358417464236644</v>
+        <v>0.401429803702233</v>
       </c>
       <c r="H39">
-        <v>0.195004884572574</v>
+        <v>0.1217476601541723</v>
       </c>
     </row>
     <row r="40">
@@ -1661,26 +1661,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation</t>
+          <t>specific_factorPrior positive related experiences</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.164792131734328</v>
+        <v>0.1636505059816757</v>
       </c>
       <c r="D40">
-        <v>0.07088196046612638</v>
+        <v>0.04590075441132337</v>
       </c>
       <c r="E40">
-        <v>4.505889054276688</v>
+        <v>10.46559743243454</v>
       </c>
       <c r="F40">
-        <v>-0.02207260442850469</v>
+        <v>0.06339040722293397</v>
       </c>
       <c r="G40">
-        <v>0.340531367644318</v>
+        <v>0.2606402786702761</v>
       </c>
       <c r="H40">
-        <v>0.07153174474480713</v>
+        <v>0.004527465286855921</v>
       </c>
     </row>
     <row r="41">
@@ -1691,26 +1691,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation</t>
+          <t>specific_factorSelf-efficacy</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.04542528870030182</v>
+        <v>0.2554363674039826</v>
       </c>
       <c r="D41">
-        <v>0.03398740580595615</v>
+        <v>0.04410717459749303</v>
       </c>
       <c r="E41">
-        <v>1.721601060633252</v>
+        <v>6.598353024157138</v>
       </c>
       <c r="F41">
-        <v>-0.1252897986957957</v>
+        <v>0.1543780533480834</v>
       </c>
       <c r="G41">
-        <v>0.2135277886100717</v>
+        <v>0.3512052075814454</v>
       </c>
       <c r="H41">
-        <v>0.3305346621959988</v>
+        <v>0.0007301393619785587</v>
       </c>
     </row>
     <row r="42">
@@ -1721,26 +1721,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative behaviours</t>
+          <t>specific_factorSocial competence</t>
         </is>
       </c>
       <c r="C42">
-        <v>-0.1124078064927822</v>
+        <v>0.3159778747222574</v>
       </c>
       <c r="D42">
-        <v>0.08706821374196599</v>
+        <v>0.02185270107403547</v>
       </c>
       <c r="E42">
-        <v>4.048775858546675</v>
+        <v>1.724363373351666</v>
       </c>
       <c r="F42">
-        <v>-0.339458849000516</v>
+        <v>0.2138181758464454</v>
       </c>
       <c r="G42">
-        <v>0.1270212004805617</v>
+        <v>0.4113008925459828</v>
       </c>
       <c r="H42">
-        <v>0.2637588217794573</v>
+        <v>0.007919457677290864</v>
       </c>
     </row>
     <row r="43">
@@ -1751,26 +1751,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours</t>
+          <t>specific_factorSocial connection/support</t>
         </is>
       </c>
       <c r="C43">
-        <v>-0.3091723363310063</v>
+        <v>0.3035118877688847</v>
       </c>
       <c r="D43">
-        <v>0.0363933708033769</v>
+        <v>0.09229310218899346</v>
       </c>
       <c r="E43">
-        <v>4.250794929293408</v>
+        <v>8.097383933539797</v>
       </c>
       <c r="F43">
-        <v>-0.3955529462884132</v>
+        <v>0.1006577136150223</v>
       </c>
       <c r="G43">
-        <v>-0.2173700465929618</v>
+        <v>0.4821386279553895</v>
       </c>
       <c r="H43">
-        <v>0.0007003881395710805</v>
+        <v>0.009255314846511806</v>
       </c>
     </row>
     <row r="44">
@@ -1781,26 +1781,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorothers' negative emotions</t>
+          <t>specific_factorStyle-related beliefs</t>
         </is>
       </c>
       <c r="C44">
-        <v>-0.1530899178627159</v>
+        <v>0.2869457227528986</v>
       </c>
       <c r="D44">
-        <v>0.06985812063579602</v>
+        <v>0.1399666968720757</v>
       </c>
       <c r="E44">
-        <v>1.450808100214358</v>
+        <v>1.971087489520665</v>
       </c>
       <c r="F44">
-        <v>-0.5336015075780014</v>
+        <v>-0.3054670614893189</v>
       </c>
       <c r="G44">
-        <v>0.278966413968</v>
+        <v>0.7192105905415952</v>
       </c>
       <c r="H44">
-        <v>0.2038943912484923</v>
+        <v>0.1712717956105734</v>
       </c>
     </row>
     <row r="45">
@@ -1811,596 +1811,596 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions</t>
+          <t>specific_factorWell-being</t>
         </is>
       </c>
       <c r="C45">
-        <v>-0.1728364095862377</v>
+        <v>0.3313098533296069</v>
       </c>
       <c r="D45">
-        <v>0.0736607680776586</v>
+        <v>0.05477208585018118</v>
       </c>
       <c r="E45">
-        <v>2.243927292896258</v>
+        <v>7.579784903725415</v>
       </c>
       <c r="F45">
-        <v>-0.4306504522195023</v>
+        <v>0.2134325400529897</v>
       </c>
       <c r="G45">
-        <v>0.1110570804461682</v>
+        <v>0.4396790125399302</v>
       </c>
       <c r="H45">
-        <v>0.1274895675983013</v>
+        <v>0.0002958076790570577</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive behaviours</t>
+          <t>specific_factorAmotivation</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.1196106645981078</v>
+        <v>0.3172678867295439</v>
       </c>
       <c r="D46">
-        <v>0.03907828262878475</v>
+        <v>0.06101200189118799</v>
       </c>
       <c r="E46">
-        <v>3.13295057358558</v>
+        <v>3.790317943001482</v>
       </c>
       <c r="F46">
-        <v>-0.001245544299269026</v>
+        <v>0.1542091053599401</v>
       </c>
       <c r="G46">
-        <v>0.2370230492826279</v>
+        <v>0.4635027622894288</v>
       </c>
       <c r="H46">
-        <v>0.05130574299557961</v>
+        <v>0.006689449825520642</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours</t>
+          <t>specific_factorAutonomous causality orientation</t>
         </is>
       </c>
       <c r="C47">
-        <v>0.2095908003586283</v>
+        <v>-0.07286953617951528</v>
       </c>
       <c r="D47">
-        <v>0.1480297275265076</v>
+        <v>0.07783707373221975</v>
       </c>
       <c r="E47">
-        <v>1.074670474624895</v>
+        <v>1.07549927025398</v>
       </c>
       <c r="F47">
-        <v>-0.8822359917433371</v>
+        <v>-0.7221540031707557</v>
       </c>
       <c r="G47">
-        <v>0.9479590342524209</v>
+        <v>0.6446759356440666</v>
       </c>
       <c r="H47">
-        <v>0.374934126888768</v>
+        <v>0.5114317724457249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorothers' positive emotions</t>
+          <t>specific_factorAutonomous motivation</t>
         </is>
       </c>
       <c r="C48">
-        <v>0.1287286073167945</v>
+        <v>-0.07112431926821515</v>
       </c>
       <c r="D48">
-        <v>0.05857554681916972</v>
+        <v>0.03484630421740972</v>
       </c>
       <c r="E48">
-        <v>1.302611218640095</v>
+        <v>13.12340185974573</v>
       </c>
       <c r="F48">
-        <v>-0.2989956770391582</v>
+        <v>-0.1454154132642033</v>
       </c>
       <c r="G48">
-        <v>0.5133809571742712</v>
+        <v>0.003964331673466859</v>
       </c>
       <c r="H48">
-        <v>0.221650387906173</v>
+        <v>0.06150059883243816</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions</t>
+          <t>specific_factorControlled causality orientation</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.2887127695163358</v>
+        <v>0.3668634243383597</v>
       </c>
       <c r="D49">
-        <v>0.04990451565519816</v>
+        <v>0.1667156719864104</v>
       </c>
       <c r="E49">
-        <v>2.287183539504542</v>
+        <v>1.075499270253978</v>
       </c>
       <c r="F49">
-        <v>0.1059161996398104</v>
+        <v>-0.8880253299430833</v>
       </c>
       <c r="G49">
-        <v>0.4526338704964955</v>
+        <v>0.9748698537324783</v>
       </c>
       <c r="H49">
-        <v>0.01953878461684337</v>
+        <v>0.2460543854571362</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorperformance goals</t>
+          <t>specific_factorControlled motivation</t>
         </is>
       </c>
       <c r="C50">
-        <v>-0.5328609944985814</v>
+        <v>0.146511837023171</v>
       </c>
       <c r="D50">
-        <v>0.09857052592096933</v>
+        <v>0.04851300119509536</v>
       </c>
       <c r="E50">
-        <v>1.740093962503029</v>
+        <v>11.44506596334228</v>
       </c>
       <c r="F50">
-        <v>-0.7950937145784576</v>
+        <v>0.04127843116860194</v>
       </c>
       <c r="G50">
-        <v>-0.1027703193016865</v>
+        <v>0.2485304018626768</v>
       </c>
       <c r="H50">
-        <v>0.03636866294058077</v>
+        <v>0.01074989651030975</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals</t>
+          <t>specific_factorEmotional intelligence</t>
         </is>
       </c>
       <c r="C51">
-        <v>0.06303301963039265</v>
+        <v>-0.2284753244867673</v>
       </c>
       <c r="D51">
-        <v>0.101705392082953</v>
+        <v>0.06178170016574185</v>
       </c>
       <c r="E51">
-        <v>2.332561226869948</v>
+        <v>3.210045079377279</v>
       </c>
       <c r="F51">
-        <v>-0.3093388412915384</v>
+        <v>-0.3987112063240494</v>
       </c>
       <c r="G51">
-        <v>0.4186446540363432</v>
+        <v>-0.04301829325715768</v>
       </c>
       <c r="H51">
-        <v>0.5901136051859828</v>
+        <v>0.02914905180269215</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorpersonal responsibility for others</t>
+          <t>specific_factorEntity beliefs</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2702975392370979</v>
+        <v>0.2159448581418348</v>
       </c>
       <c r="D52">
-        <v>0.08086326834909952</v>
+        <v>0.03208764145007279</v>
       </c>
       <c r="E52">
-        <v>1.550486353619381</v>
+        <v>1.01810833787685</v>
       </c>
       <c r="F52">
-        <v>-0.1855874855014223</v>
+        <v>-0.1699061158438933</v>
       </c>
       <c r="G52">
-        <v>0.6304320895015453</v>
+        <v>0.5443856340099582</v>
       </c>
       <c r="H52">
-        <v>0.1067108054293257</v>
+        <v>0.08958658584046118</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation</t>
+          <t>specific_factorExternal pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.2698269809339501</v>
+        <v>0.04630083280749332</v>
       </c>
       <c r="D53">
-        <v>0.06560937149676854</v>
+        <v>0.05326392758669015</v>
       </c>
       <c r="E53">
-        <v>2.131083433335451</v>
+        <v>3.301902655975277</v>
       </c>
       <c r="F53">
-        <v>0.01038645260253305</v>
+        <v>-0.1142353633518694</v>
       </c>
       <c r="G53">
-        <v>0.4952310340099811</v>
+        <v>0.2044804910863602</v>
       </c>
       <c r="H53">
-        <v>0.04640405399922538</v>
+        <v>0.4429949841371444</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes</t>
+          <t>specific_factorExternal pressures</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2378350218499762</v>
+        <v>0.2750729743326285</v>
       </c>
       <c r="D54">
-        <v>0.0262497666816096</v>
+        <v>0.03595084402728761</v>
       </c>
       <c r="E54">
-        <v>2.782500678227555</v>
+        <v>4.026741448695766</v>
       </c>
       <c r="F54">
-        <v>0.153888836668488</v>
+        <v>0.1807802508436133</v>
       </c>
       <c r="G54">
-        <v>0.3183724746839577</v>
+        <v>0.3643550809519047</v>
       </c>
       <c r="H54">
-        <v>0.003612267044186222</v>
+        <v>0.001381527197659937</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious)</t>
+          <t>specific_factorExtrinsic goals</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.1730474015149224</v>
+        <v>0.246840242895402</v>
       </c>
       <c r="D55">
-        <v>4.17818648772284e-17</v>
+        <v>0.09899684672135588</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>1.735880606558506</v>
       </c>
       <c r="F55">
-        <v>0.1730474015149219</v>
+        <v>-0.2378149703437954</v>
       </c>
       <c r="G55">
-        <v>0.1730474015149229</v>
+        <v>0.6330845875062666</v>
       </c>
       <c r="H55">
-        <v>1.521635079678761e-16</v>
+        <v>0.1443592361303601</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning</t>
+          <t>specific_factorHarmonious passion</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.2114042348889787</v>
+        <v>0.0574440826215883</v>
       </c>
       <c r="D56">
-        <v>0.07611712411401102</v>
+        <v>0.06081110982036628</v>
       </c>
       <c r="E56">
-        <v>2.063817275263957</v>
+        <v>1.364937798922799</v>
       </c>
       <c r="F56">
-        <v>-0.1029824949173325</v>
+        <v>-0.3484155956460986</v>
       </c>
       <c r="G56">
-        <v>0.4873893088121558</v>
+        <v>0.4451650685927608</v>
       </c>
       <c r="H56">
-        <v>0.1024484508757696</v>
+        <v>0.4811964297246546</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorprior positive related experiences</t>
+          <t>specific_factorIll-being</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.1548270188565713</v>
+        <v>0.2754708458368109</v>
       </c>
       <c r="D57">
-        <v>0.04989482983792321</v>
+        <v>0.08277583236625692</v>
       </c>
       <c r="E57">
-        <v>5.00029267236108</v>
+        <v>7.374173737487732</v>
       </c>
       <c r="F57">
-        <v>0.02781859864458489</v>
+        <v>0.08880152892064082</v>
       </c>
       <c r="G57">
-        <v>0.2769159172026469</v>
+        <v>0.4434463407167202</v>
       </c>
       <c r="H57">
-        <v>0.02600742433226903</v>
+        <v>0.01033764365192861</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorself-efficacy</t>
+          <t>specific_factorIncremental beliefs</t>
         </is>
       </c>
       <c r="C58">
-        <v>0.212787620152224</v>
+        <v>-0.05717522139354828</v>
       </c>
       <c r="D58">
-        <v>0.04772003377073344</v>
+        <v>0.01407032109565661</v>
       </c>
       <c r="E58">
-        <v>2.582797663872016</v>
+        <v>1.378114695226021</v>
       </c>
       <c r="F58">
-        <v>0.04931620122135876</v>
+        <v>-0.1520302799598909</v>
       </c>
       <c r="G58">
-        <v>0.365156131153936</v>
+        <v>0.03872343436884283</v>
       </c>
       <c r="H58">
-        <v>0.02757908875909569</v>
+        <v>0.0994468051128457</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy</t>
+          <t>specific_factorInternal pressures</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.3257019113642981</v>
+        <v>0.1631063012748051</v>
       </c>
       <c r="D59">
-        <v>0.04796232326754315</v>
+        <v>0.0391342118540404</v>
       </c>
       <c r="E59">
-        <v>4.584597585494796</v>
+        <v>2.006151387009912</v>
       </c>
       <c r="F59">
-        <v>0.2081955829933021</v>
+        <v>-0.003310866155017521</v>
       </c>
       <c r="G59">
-        <v>0.4339400667600122</v>
+        <v>0.320732484228308</v>
       </c>
       <c r="H59">
-        <v>0.001262209689719692</v>
+        <v>0.05188109251685272</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence</t>
+          <t>specific_factorIntrinsic goals</t>
         </is>
       </c>
       <c r="C60">
-        <v>0.3318349664291805</v>
+        <v>-0.04828274507648504</v>
       </c>
       <c r="D60">
-        <v>0.02492958306376005</v>
+        <v>0.07801523106121762</v>
       </c>
       <c r="E60">
-        <v>1.924813108585506</v>
+        <v>1.735880606558507</v>
       </c>
       <c r="F60">
-        <v>0.229355062277179</v>
+        <v>-0.4119989592367203</v>
       </c>
       <c r="G60">
-        <v>0.4270385785300352</v>
+        <v>0.328705140638154</v>
       </c>
       <c r="H60">
-        <v>0.006022877306906758</v>
+        <v>0.607054973062515</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support</t>
+          <t>specific_factorInvitation from others' to help</t>
         </is>
       </c>
       <c r="C61">
-        <v>0.2674989368163866</v>
+        <v>-0.1164262886494739</v>
       </c>
       <c r="D61">
-        <v>0.07575359484497278</v>
+        <v>0.02867722707966331</v>
       </c>
       <c r="E61">
-        <v>7.763061655700966</v>
+        <v>1.644389228205654</v>
       </c>
       <c r="F61">
-        <v>0.09822974499444913</v>
+        <v>-0.2634377607933919</v>
       </c>
       <c r="G61">
-        <v>0.4217251982894819</v>
+        <v>0.03587023754062333</v>
       </c>
       <c r="H61">
-        <v>0.007143839948003586</v>
+        <v>0.07588587490336964</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs</t>
+          <t>specific_factorLow Personal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C62">
-        <v>0.2886352384164592</v>
+        <v>-0.04173483088811094</v>
       </c>
       <c r="D62">
-        <v>0.1384652503482638</v>
+        <v>0.02867722699077257</v>
       </c>
       <c r="E62">
-        <v>1.962107914822423</v>
+        <v>1.644389228205656</v>
       </c>
       <c r="F62">
-        <v>-0.3003038855517203</v>
+        <v>-0.1921815360248191</v>
       </c>
       <c r="G62">
-        <v>0.7182434679998945</v>
+        <v>0.1106285517837352</v>
       </c>
       <c r="H62">
-        <v>0.1675185308492759</v>
+        <v>0.3071351767894417</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorwell-being</t>
+          <t>specific_factorMastery goals</t>
         </is>
       </c>
       <c r="C63">
-        <v>0.2617297699894836</v>
+        <v>-0.1339325330582583</v>
       </c>
       <c r="D63">
-        <v>0.04989482926143812</v>
+        <v>0.06005319405253089</v>
       </c>
       <c r="E63">
-        <v>5.000292672361118</v>
+        <v>2.650938143496861</v>
       </c>
       <c r="F63">
-        <v>0.1388060860756367</v>
+        <v>-0.3282934003964745</v>
       </c>
       <c r="G63">
-        <v>0.3767108421539445</v>
+        <v>0.07130888751480668</v>
       </c>
       <c r="H63">
-        <v>0.003012747284771595</v>
+        <v>0.1222255476583954</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorWell-being</t>
+          <t>specific_factorNeed frustration</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.3506030105162197</v>
+        <v>0.2829530332894469</v>
       </c>
       <c r="D64">
-        <v>0.05888986782067736</v>
+        <v>0.03744617934899078</v>
       </c>
       <c r="E64">
-        <v>7.57830535814656</v>
+        <v>7.953232257210509</v>
       </c>
       <c r="F64">
-        <v>0.2250832051481024</v>
+        <v>0.2016478904980107</v>
       </c>
       <c r="G64">
-        <v>0.4646755679892202</v>
+        <v>0.3603853647388794</v>
       </c>
       <c r="H64">
-        <v>0.0003179066207519449</v>
+        <v>5.568128384146473e-05</v>
       </c>
     </row>
     <row r="65">
@@ -2411,26 +2411,26 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation</t>
+          <t>specific_factorNeed satisfaction</t>
         </is>
       </c>
       <c r="C65">
-        <v>0.3217154486811605</v>
+        <v>-0.1265036918422774</v>
       </c>
       <c r="D65">
-        <v>0.06097844653285185</v>
+        <v>0.03565347145779352</v>
       </c>
       <c r="E65">
-        <v>3.823528489551652</v>
+        <v>9.759286425950553</v>
       </c>
       <c r="F65">
-        <v>0.1597493207292849</v>
+        <v>-0.2039900620881592</v>
       </c>
       <c r="G65">
-        <v>0.4668144660898341</v>
+        <v>-0.04744214175646551</v>
       </c>
       <c r="H65">
-        <v>0.006186975419763081</v>
+        <v>0.005318950330922309</v>
       </c>
     </row>
     <row r="66">
@@ -2441,26 +2441,26 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation</t>
+          <t>specific_factorNegative personality</t>
         </is>
       </c>
       <c r="C66">
-        <v>-0.01679457510912262</v>
+        <v>0.2877578300208043</v>
       </c>
       <c r="D66">
-        <v>0.03685792970647109</v>
+        <v>0.03091265211266894</v>
       </c>
       <c r="E66">
-        <v>1.081572285092605</v>
+        <v>3.083048026487834</v>
       </c>
       <c r="F66">
-        <v>-0.3879390108944448</v>
+        <v>0.1966298138254668</v>
       </c>
       <c r="G66">
-        <v>0.359036452335372</v>
+        <v>0.3739569463804141</v>
       </c>
       <c r="H66">
-        <v>0.7231662058278082</v>
+        <v>0.002154196270799892</v>
       </c>
     </row>
     <row r="67">
@@ -2471,26 +2471,26 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorautonomous motivation</t>
+          <t>specific_factorObsessive passion</t>
         </is>
       </c>
       <c r="C67">
-        <v>-0.05815017760692531</v>
+        <v>0.2472438640516283</v>
       </c>
       <c r="D67">
-        <v>0.1218733503551684</v>
+        <v>0.06081110982036631</v>
       </c>
       <c r="E67">
-        <v>1.945714685914591</v>
+        <v>1.364937798922799</v>
       </c>
       <c r="F67">
-        <v>-0.5348164807839264</v>
+        <v>-0.167090033067116</v>
       </c>
       <c r="G67">
-        <v>0.4465921936644343</v>
+        <v>0.5873572378801836</v>
       </c>
       <c r="H67">
-        <v>0.6811473964442074</v>
+        <v>0.09821833627065936</v>
       </c>
     </row>
     <row r="68">
@@ -2501,26 +2501,26 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation</t>
+          <t>specific_factorOthers' abilities</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.07296012802612345</v>
+        <v>-0.3817675117922412</v>
       </c>
       <c r="D68">
-        <v>0.03924697379633522</v>
+        <v>0.1081144487298978</v>
       </c>
       <c r="E68">
-        <v>10.72506899455353</v>
+        <v>1.425979211234832</v>
       </c>
       <c r="F68">
-        <v>-0.1583979086011102</v>
+        <v>-0.801243208143648</v>
       </c>
       <c r="G68">
-        <v>0.01356210689363882</v>
+        <v>0.2893173044236497</v>
       </c>
       <c r="H68">
-        <v>0.09015774215601167</v>
+        <v>0.1066428758529473</v>
       </c>
     </row>
     <row r="69">
@@ -2531,26 +2531,26 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation</t>
+          <t>specific_factorOthers' autonomous motivation</t>
         </is>
       </c>
       <c r="C69">
-        <v>0.4144702236832534</v>
+        <v>-0.1719887752303934</v>
       </c>
       <c r="D69">
-        <v>0.2213602606857248</v>
+        <v>0.1388641179717061</v>
       </c>
       <c r="E69">
-        <v>1.081572285092607</v>
+        <v>4.929355737718722</v>
       </c>
       <c r="F69">
-        <v>-0.9576463268949069</v>
+        <v>-0.48707709450757</v>
       </c>
       <c r="G69">
-        <v>0.9926126261753579</v>
+        <v>0.1827153982879102</v>
       </c>
       <c r="H69">
-        <v>0.2812572492877524</v>
+        <v>0.2670358401227546</v>
       </c>
     </row>
     <row r="70">
@@ -2561,26 +2561,26 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorcontrolled motivation</t>
+          <t>specific_factorOthers' controlled motivation</t>
         </is>
       </c>
       <c r="C70">
-        <v>-0.1004667944871779</v>
+        <v>0.04533833373215902</v>
       </c>
       <c r="D70">
-        <v>0.1149697999071057</v>
+        <v>0.03845130581195172</v>
       </c>
       <c r="E70">
-        <v>1.184723546277541</v>
+        <v>1.049109090770325</v>
       </c>
       <c r="F70">
-        <v>-0.8074014993830381</v>
+        <v>-0.3733723258115813</v>
       </c>
       <c r="G70">
-        <v>0.7249048722172277</v>
+        <v>0.4487027938535518</v>
       </c>
       <c r="H70">
-        <v>0.5224700388847408</v>
+        <v>0.4404331948423506</v>
       </c>
     </row>
     <row r="71">
@@ -2591,26 +2591,26 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation</t>
+          <t>specific_factorOthers' negative behaviours</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.1779780973039902</v>
+        <v>0.4360334471970248</v>
       </c>
       <c r="D71">
-        <v>0.0452370027688464</v>
+        <v>0.1438834538451518</v>
       </c>
       <c r="E71">
-        <v>10.36942096025044</v>
+        <v>1.842020252900795</v>
       </c>
       <c r="F71">
-        <v>0.07941657453599905</v>
+        <v>-0.2026828189865191</v>
       </c>
       <c r="G71">
-        <v>0.2730934708964962</v>
+        <v>0.8144726166238004</v>
       </c>
       <c r="H71">
-        <v>0.002435308691484123</v>
+        <v>0.09260199777365283</v>
       </c>
     </row>
     <row r="72">
@@ -2621,26 +2621,26 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factoremotional intelligence</t>
+          <t>specific_factorOthers' negative emotions</t>
         </is>
       </c>
       <c r="C72">
-        <v>-0.3667678079195031</v>
+        <v>0.2412398737717333</v>
       </c>
       <c r="D72">
-        <v>0.0740480608876088</v>
+        <v>0.02314088119075628</v>
       </c>
       <c r="E72">
-        <v>1.283739465073843</v>
+        <v>3.165101328804697</v>
       </c>
       <c r="F72">
-        <v>-0.7407392245835579</v>
+        <v>0.1728197976544551</v>
       </c>
       <c r="G72">
-        <v>0.1807409614185502</v>
+        <v>0.3073429598949379</v>
       </c>
       <c r="H72">
-        <v>0.08144101999833468</v>
+        <v>0.001395993256132434</v>
       </c>
     </row>
     <row r="73">
@@ -2651,26 +2651,26 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence</t>
+          <t>specific_factorOthers' positive behaviours</t>
         </is>
       </c>
       <c r="C73">
-        <v>-0.1674328368164728</v>
+        <v>0.009735452668157552</v>
       </c>
       <c r="D73">
-        <v>0.06793894215066901</v>
+        <v>0.03218077403074981</v>
       </c>
       <c r="E73">
-        <v>2.367324702356821</v>
+        <v>1.050206325334537</v>
       </c>
       <c r="F73">
-        <v>-0.3985323604363016</v>
+        <v>-0.3414558930301018</v>
       </c>
       <c r="G73">
-        <v>0.08365840209222318</v>
+        <v>0.3585414323045586</v>
       </c>
       <c r="H73">
-        <v>0.1112190477168928</v>
+        <v>0.8111009741768228</v>
       </c>
     </row>
     <row r="74">
@@ -2681,26 +2681,26 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorentity beliefs</t>
+          <t>specific_factorOthers' positive emotions</t>
         </is>
       </c>
       <c r="C74">
-        <v>0.2156127213504127</v>
+        <v>-0.1586458638585899</v>
       </c>
       <c r="D74">
-        <v>0.03825767635124397</v>
+        <v>0.0264628816173115</v>
       </c>
       <c r="E74">
-        <v>1.0235966969635</v>
+        <v>1.09415107177412</v>
       </c>
       <c r="F74">
-        <v>-0.2367814962668165</v>
+        <v>-0.409504181921235</v>
       </c>
       <c r="G74">
-        <v>0.5911697396790943</v>
+        <v>0.1145162159179259</v>
       </c>
       <c r="H74">
-        <v>0.1060841004489201</v>
+        <v>0.08979208104482481</v>
       </c>
     </row>
     <row r="75">
@@ -2711,26 +2711,26 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints</t>
+          <t>specific_factorPerformance goals</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.04467943153568026</v>
+        <v>0.1508280283598482</v>
       </c>
       <c r="D75">
-        <v>0.04895195372328594</v>
+        <v>0.05369139841781242</v>
       </c>
       <c r="E75">
-        <v>3.321859935004698</v>
+        <v>1.924424853888363</v>
       </c>
       <c r="F75">
-        <v>-0.1025156733031215</v>
+        <v>-0.08771728322041628</v>
       </c>
       <c r="G75">
-        <v>0.189959814036798</v>
+        <v>0.3730130277107926</v>
       </c>
       <c r="H75">
-        <v>0.4224321973023088</v>
+        <v>0.1100675946419245</v>
       </c>
     </row>
     <row r="76">
@@ -2741,26 +2741,26 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorexternal pressures</t>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C76">
-        <v>0.2977721875834484</v>
+        <v>-0.1242208138640595</v>
       </c>
       <c r="D76">
-        <v>0.1064720478081056</v>
+        <v>0.02633922780709083</v>
       </c>
       <c r="E76">
-        <v>1.00381859261743</v>
+        <v>1.154918981904725</v>
       </c>
       <c r="F76">
-        <v>-0.7753806273242836</v>
+        <v>-0.3540364993102846</v>
       </c>
       <c r="G76">
-        <v>0.9285589579453264</v>
+        <v>0.119742454044648</v>
       </c>
       <c r="H76">
-        <v>0.2117125657701961</v>
+        <v>0.1074187282522257</v>
       </c>
     </row>
     <row r="77">
@@ -2771,26 +2771,26 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures</t>
+          <t>specific_factorPersonal responsibility for others' motivation motivation</t>
         </is>
       </c>
       <c r="C77">
-        <v>0.2566870584020817</v>
+        <v>-0.1174725182627606</v>
       </c>
       <c r="D77">
-        <v>0.009462245450169554</v>
+        <v>0.112940401852318</v>
       </c>
       <c r="E77">
-        <v>2.021131283481305</v>
+        <v>1.898402626331899</v>
       </c>
       <c r="F77">
-        <v>0.2186624657235204</v>
+        <v>-0.557882326482349</v>
       </c>
       <c r="G77">
-        <v>0.2939332883683489</v>
+        <v>0.3745614838435055</v>
       </c>
       <c r="H77">
-        <v>0.001225186010525994</v>
+        <v>0.4106965428909208</v>
       </c>
     </row>
     <row r="78">
@@ -2801,26 +2801,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals</t>
+          <t>specific_factorPrior positive related experiences</t>
         </is>
       </c>
       <c r="C78">
-        <v>0.3060679465616235</v>
+        <v>-0.05177138307180371</v>
       </c>
       <c r="D78">
-        <v>0.1805190740859383</v>
+        <v>0.02867722758873927</v>
       </c>
       <c r="E78">
-        <v>1.005499742652401</v>
+        <v>1.644389228205655</v>
       </c>
       <c r="F78">
-        <v>-0.9601694069118208</v>
+        <v>-0.2018496451849264</v>
       </c>
       <c r="G78">
-        <v>0.9885930003682599</v>
+        <v>0.1006823026871311</v>
       </c>
       <c r="H78">
-        <v>0.3292257369146629</v>
+        <v>0.238945419225452</v>
       </c>
     </row>
     <row r="79">
@@ -2831,26 +2831,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion</t>
+          <t>specific_factorSelf-efficacy</t>
         </is>
       </c>
       <c r="C79">
-        <v>0.05206539668786078</v>
+        <v>-0.09477156564789474</v>
       </c>
       <c r="D79">
-        <v>0.05323119078439352</v>
+        <v>0.02334135112966502</v>
       </c>
       <c r="E79">
-        <v>1.40095552444633</v>
+        <v>1.708691424079592</v>
       </c>
       <c r="F79">
-        <v>-0.293029680942832</v>
+        <v>-0.2106185335025161</v>
       </c>
       <c r="G79">
-        <v>0.3851582392278415</v>
+        <v>0.02370038564389566</v>
       </c>
       <c r="H79">
-        <v>0.4661687841900168</v>
+        <v>0.07159216299578061</v>
       </c>
     </row>
     <row r="80">
@@ -2861,26 +2861,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorIll-being</t>
+          <t>specific_factorSocial connection/support</t>
         </is>
       </c>
       <c r="C80">
-        <v>0.2761313921860271</v>
+        <v>-0.1113637028458412</v>
       </c>
       <c r="D80">
-        <v>0.08935714365155595</v>
+        <v>0.0601960633093656</v>
       </c>
       <c r="E80">
-        <v>6.472591279147492</v>
+        <v>1.493052164237642</v>
       </c>
       <c r="F80">
-        <v>0.06854470835910779</v>
+        <v>-0.443337218783322</v>
       </c>
       <c r="G80">
-        <v>0.4607997627484773</v>
+        <v>0.2474754179928518</v>
       </c>
       <c r="H80">
-        <v>0.01737910737361844</v>
+        <v>0.2453169876522367</v>
       </c>
     </row>
     <row r="81">
@@ -2891,26 +2891,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs</t>
+          <t>specific_factorStyle-related beliefs</t>
         </is>
       </c>
       <c r="C81">
-        <v>-0.05327331151874538</v>
+        <v>0.4244220471844439</v>
       </c>
       <c r="D81">
-        <v>0.01370709984716678</v>
+        <v>0.1095584451808373</v>
       </c>
       <c r="E81">
-        <v>1.434109394022903</v>
+        <v>1.020792647086891</v>
       </c>
       <c r="F81">
-        <v>-0.1403830926933506</v>
+        <v>-0.7032733663483742</v>
       </c>
       <c r="G81">
-        <v>0.03465487608728839</v>
+        <v>0.9446838299123347</v>
       </c>
       <c r="H81">
-        <v>0.0996341282699649</v>
+        <v>0.14713500548453</v>
       </c>
     </row>
     <row r="82">
@@ -2921,986 +2921,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures</t>
+          <t>specific_factorWell-being</t>
         </is>
       </c>
       <c r="C82">
-        <v>0.1664300944441492</v>
+        <v>-0.187504283116788</v>
       </c>
       <c r="D82">
-        <v>0.03325452659200274</v>
+        <v>0.04589195563191479</v>
       </c>
       <c r="E82">
-        <v>2.009049681438541</v>
+        <v>5.238716044044504</v>
       </c>
       <c r="F82">
-        <v>0.02552043180834018</v>
+        <v>-0.2969028651543047</v>
       </c>
       <c r="G82">
-        <v>0.3008551721364121</v>
+        <v>-0.07324746351827814</v>
       </c>
       <c r="H82">
-        <v>0.03668063098142558</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>specific_factorIntrinsic goals</t>
-        </is>
-      </c>
-      <c r="C83">
-        <v>0.02445313276108022</v>
-      </c>
-      <c r="D83">
-        <v>0.1158231418817769</v>
-      </c>
-      <c r="E83">
-        <v>1.005499742652402</v>
-      </c>
-      <c r="F83">
-        <v>-0.8913234932321467</v>
-      </c>
-      <c r="G83">
-        <v>0.9009504000308394</v>
-      </c>
-      <c r="H83">
-        <v>0.86736808736258</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>specific_factorInvitation from others to help</t>
-        </is>
-      </c>
-      <c r="C84">
-        <v>-0.1087589479328596</v>
-      </c>
-      <c r="D84">
-        <v>0.03403073471280345</v>
-      </c>
-      <c r="E84">
-        <v>1.360088976523753</v>
-      </c>
-      <c r="F84">
-        <v>-0.3330069826033007</v>
-      </c>
-      <c r="G84">
-        <v>0.1271331543786543</v>
-      </c>
-      <c r="H84">
-        <v>0.1369592263543798</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>specific_factorlow personal responsibility for others</t>
-        </is>
-      </c>
-      <c r="C85">
-        <v>-0.03398017103027687</v>
-      </c>
-      <c r="D85">
-        <v>0.03403073460075923</v>
-      </c>
-      <c r="E85">
-        <v>1.360088976523752</v>
-      </c>
-      <c r="F85">
-        <v>-0.2645633804594184</v>
-      </c>
-      <c r="G85">
-        <v>0.2002782314943087</v>
-      </c>
-      <c r="H85">
-        <v>0.4624045427566705</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>specific_factorMastery goals</t>
-        </is>
-      </c>
-      <c r="C86">
-        <v>-0.1096852442046987</v>
-      </c>
-      <c r="D86">
-        <v>0.04466171933984796</v>
-      </c>
-      <c r="E86">
-        <v>2.674205305291343</v>
-      </c>
-      <c r="F86">
-        <v>-0.2567053783258065</v>
-      </c>
-      <c r="G86">
-        <v>0.04229626884873411</v>
-      </c>
-      <c r="H86">
-        <v>0.1007500161911587</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>specific_factorneed frustration</t>
-        </is>
-      </c>
-      <c r="C87">
-        <v>0.1628849016349441</v>
-      </c>
-      <c r="D87">
-        <v>0.1149697999071058</v>
-      </c>
-      <c r="E87">
-        <v>1.184723546277541</v>
-      </c>
-      <c r="F87">
-        <v>-0.6933420329189869</v>
-      </c>
-      <c r="G87">
-        <v>0.8284143114681275</v>
-      </c>
-      <c r="H87">
-        <v>0.3608590404309301</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>specific_factorNeed frustration</t>
-        </is>
-      </c>
-      <c r="C88">
-        <v>0.3001443938681371</v>
-      </c>
-      <c r="D88">
-        <v>0.04240917102293758</v>
-      </c>
-      <c r="E88">
-        <v>7.312729705590153</v>
-      </c>
-      <c r="F88">
-        <v>0.2072147617258537</v>
-      </c>
-      <c r="G88">
-        <v>0.3877058424948115</v>
-      </c>
-      <c r="H88">
-        <v>0.0001311933743176956</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>specific_factorneed satisfaction</t>
-        </is>
-      </c>
-      <c r="C89">
-        <v>-0.07240468718678826</v>
-      </c>
-      <c r="D89">
-        <v>0.1149697999071058</v>
-      </c>
-      <c r="E89">
-        <v>1.184723546277541</v>
-      </c>
-      <c r="F89">
-        <v>-0.7973315917355556</v>
-      </c>
-      <c r="G89">
-        <v>0.7380489370273294</v>
-      </c>
-      <c r="H89">
-        <v>0.6278409463268724</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>specific_factorNeed satisfaction</t>
-        </is>
-      </c>
-      <c r="C90">
-        <v>-0.1515110564063894</v>
-      </c>
-      <c r="D90">
-        <v>0.03362837662156577</v>
-      </c>
-      <c r="E90">
-        <v>9.075749697522156</v>
-      </c>
-      <c r="F90">
-        <v>-0.2247589242079742</v>
-      </c>
-      <c r="G90">
-        <v>-0.07656052149840685</v>
-      </c>
-      <c r="H90">
-        <v>0.0013753357534298</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>specific_factornegative personality</t>
-        </is>
-      </c>
-      <c r="C91">
-        <v>0.4074587959758977</v>
-      </c>
-      <c r="D91">
-        <v>0.04017174524187251</v>
-      </c>
-      <c r="E91">
-        <v>2.388890202624459</v>
-      </c>
-      <c r="F91">
-        <v>0.2766650245521264</v>
-      </c>
-      <c r="G91">
-        <v>0.5234308097066309</v>
-      </c>
-      <c r="H91">
-        <v>0.004430452879447083</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>specific_factorNegative personality</t>
-        </is>
-      </c>
-      <c r="C92">
-        <v>0.2591696907521666</v>
-      </c>
-      <c r="D92">
-        <v>0.02570268847927584</v>
-      </c>
-      <c r="E92">
-        <v>2.008245839292818</v>
-      </c>
-      <c r="F92">
-        <v>0.1538314132488857</v>
-      </c>
-      <c r="G92">
-        <v>0.3586831897937759</v>
-      </c>
-      <c r="H92">
-        <v>0.009133075835287191</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>specific_factorObsessive passion</t>
-        </is>
-      </c>
-      <c r="C93">
-        <v>0.2421720609322957</v>
-      </c>
-      <c r="D93">
-        <v>0.0532311907843934</v>
-      </c>
-      <c r="E93">
-        <v>1.400955524446331</v>
-      </c>
-      <c r="F93">
-        <v>-0.1065041736229647</v>
-      </c>
-      <c r="G93">
-        <v>0.5378105572005134</v>
-      </c>
-      <c r="H93">
-        <v>0.08144537577351652</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>specific_factorOthers positive behaviour</t>
-        </is>
-      </c>
-      <c r="C94">
-        <v>0.006941987041497902</v>
-      </c>
-      <c r="D94">
-        <v>0.07404806088760894</v>
-      </c>
-      <c r="E94">
-        <v>1.283739465073844</v>
-      </c>
-      <c r="F94">
-        <v>-0.5083408045580213</v>
-      </c>
-      <c r="G94">
-        <v>0.5185643672615851</v>
-      </c>
-      <c r="H94">
-        <v>0.9377747929607787</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' abilities</t>
-        </is>
-      </c>
-      <c r="C95">
-        <v>-0.3849200972392453</v>
-      </c>
-      <c r="D95">
-        <v>0.1323756557820572</v>
-      </c>
-      <c r="E95">
-        <v>1.045184951627752</v>
-      </c>
-      <c r="F95">
-        <v>-0.9583556813531228</v>
-      </c>
-      <c r="G95">
-        <v>0.8053671728468315</v>
-      </c>
-      <c r="H95">
-        <v>0.1919865256687901</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>specific_factorothers' autonomous motivation</t>
-        </is>
-      </c>
-      <c r="C96">
-        <v>-0.3640675719416325</v>
-      </c>
-      <c r="D96">
-        <v>0.1410970682504037</v>
-      </c>
-      <c r="E96">
-        <v>1.678722237921518</v>
-      </c>
-      <c r="F96">
-        <v>-0.805751152879092</v>
-      </c>
-      <c r="G96">
-        <v>0.3378485570848254</v>
-      </c>
-      <c r="H96">
-        <v>0.1367198827855233</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' autonomous motivation</t>
-        </is>
-      </c>
-      <c r="C97">
-        <v>0.0577188171710423</v>
-      </c>
-      <c r="D97">
-        <v>0.07560122499458098</v>
-      </c>
-      <c r="E97">
-        <v>2.788892244245716</v>
-      </c>
-      <c r="F97">
-        <v>-0.1910746236039499</v>
-      </c>
-      <c r="G97">
-        <v>0.2995437987893974</v>
-      </c>
-      <c r="H97">
-        <v>0.5041208436610281</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' controlled motivation</t>
-        </is>
-      </c>
-      <c r="C98">
-        <v>0.07967997946463884</v>
-      </c>
-      <c r="D98">
-        <v>0.03566876894476865</v>
-      </c>
-      <c r="E98">
-        <v>1.066010924308594</v>
-      </c>
-      <c r="F98">
-        <v>-0.3023829190302854</v>
-      </c>
-      <c r="G98">
-        <v>0.4396838042397027</v>
-      </c>
-      <c r="H98">
-        <v>0.2549786084464511</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative behaviours</t>
-        </is>
-      </c>
-      <c r="C99">
-        <v>0.2803005107058366</v>
-      </c>
-      <c r="D99">
-        <v>0.02298818604464997</v>
-      </c>
-      <c r="E99">
-        <v>1.00376841428182</v>
-      </c>
-      <c r="F99">
-        <v>-0.001505755895068583</v>
-      </c>
-      <c r="G99">
-        <v>0.5208621168545911</v>
-      </c>
-      <c r="H99">
-        <v>0.0502612860736566</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative behaviours</t>
-        </is>
-      </c>
-      <c r="C100">
-        <v>0.5750721352584356</v>
-      </c>
-      <c r="D100">
-        <v>0.06930042230139584</v>
-      </c>
-      <c r="E100">
-        <v>1.284584721724142</v>
-      </c>
-      <c r="F100">
-        <v>0.1239761487547054</v>
-      </c>
-      <c r="G100">
-        <v>0.8291841669342646</v>
-      </c>
-      <c r="H100">
-        <v>0.03825520041614101</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>specific_factorothers' negative emotions</t>
-        </is>
-      </c>
-      <c r="C101">
-        <v>0.2187435471567961</v>
-      </c>
-      <c r="D101">
-        <v>0.06782539711439473</v>
-      </c>
-      <c r="E101">
-        <v>1.093562783442361</v>
-      </c>
-      <c r="F101">
-        <v>-0.4489193512458671</v>
-      </c>
-      <c r="G101">
-        <v>0.7296686363433281</v>
-      </c>
-      <c r="H101">
-        <v>0.1711772876620575</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' negative emotions</t>
-        </is>
-      </c>
-      <c r="C102">
-        <v>0.2484055503213701</v>
-      </c>
-      <c r="D102">
-        <v>0.02758682548594778</v>
-      </c>
-      <c r="E102">
-        <v>1.165621487120484</v>
-      </c>
-      <c r="F102">
-        <v>0.001506349014329954</v>
-      </c>
-      <c r="G102">
-        <v>0.4667595640984766</v>
-      </c>
-      <c r="H102">
-        <v>0.04965737205814784</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>specific_factorOthers' positive emotions</t>
-        </is>
-      </c>
-      <c r="C103">
-        <v>-0.1512577408650813</v>
-      </c>
-      <c r="D103">
-        <v>0.0238836606436458</v>
-      </c>
-      <c r="E103">
-        <v>1.097527519178317</v>
-      </c>
-      <c r="F103">
-        <v>-0.3791240323456197</v>
-      </c>
-      <c r="G103">
-        <v>0.09390400624354543</v>
-      </c>
-      <c r="H103">
-        <v>0.08426540248107864</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>specific_factorPerformance goals</t>
-        </is>
-      </c>
-      <c r="C104">
-        <v>0.1598460441500862</v>
-      </c>
-      <c r="D104">
-        <v>0.05257110490091336</v>
-      </c>
-      <c r="E104">
-        <v>1.93999732842414</v>
-      </c>
-      <c r="F104">
-        <v>-0.0716816747558198</v>
-      </c>
-      <c r="G104">
-        <v>0.3750288286388086</v>
-      </c>
-      <c r="H104">
-        <v>0.09541595630119067</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>specific_factorpersonal responsibility for others</t>
-        </is>
-      </c>
-      <c r="C105">
-        <v>-0.1214864515602174</v>
-      </c>
-      <c r="D105">
-        <v>0.03092757698315589</v>
-      </c>
-      <c r="E105">
-        <v>1.190106209754534</v>
-      </c>
-      <c r="F105">
-        <v>-0.3746145905565691</v>
-      </c>
-      <c r="G105">
-        <v>0.1484951832244172</v>
-      </c>
-      <c r="H105">
-        <v>0.1264770607898755</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>specific_factorPersonal responsibility for others' motivation</t>
-        </is>
-      </c>
-      <c r="C106">
-        <v>-0.1189739103378068</v>
-      </c>
-      <c r="D106">
-        <v>0.1160581532457926</v>
-      </c>
-      <c r="E106">
-        <v>1.894057015147879</v>
-      </c>
-      <c r="F106">
-        <v>-0.5694056986106331</v>
-      </c>
-      <c r="G106">
-        <v>0.3864013374207513</v>
-      </c>
-      <c r="H106">
-        <v>0.4163969139896689</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>specific_factorprior positive related experiences</t>
-        </is>
-      </c>
-      <c r="C107">
-        <v>-0.04402340957521746</v>
-      </c>
-      <c r="D107">
-        <v>0.03403073535447964</v>
-      </c>
-      <c r="E107">
-        <v>1.360088976523753</v>
-      </c>
-      <c r="F107">
-        <v>-0.273892826725606</v>
-      </c>
-      <c r="G107">
-        <v>0.190603914687204</v>
-      </c>
-      <c r="H107">
-        <v>0.3727228087718134</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>specific_factorself-efficacy</t>
-        </is>
-      </c>
-      <c r="C108">
-        <v>-0.09388574259195462</v>
-      </c>
-      <c r="D108">
-        <v>0.03403073467502005</v>
-      </c>
-      <c r="E108">
-        <v>1.360088976523754</v>
-      </c>
-      <c r="F108">
-        <v>-0.3195795096050784</v>
-      </c>
-      <c r="G108">
-        <v>0.1418887332043288</v>
-      </c>
-      <c r="H108">
-        <v>0.1643397404970407</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>specific_factorSelf-efficacy</t>
-        </is>
-      </c>
-      <c r="C109">
-        <v>-0.0841708907436393</v>
-      </c>
-      <c r="D109">
-        <v>0.06346882832323976</v>
-      </c>
-      <c r="E109">
-        <v>1.026220044284197</v>
-      </c>
-      <c r="F109">
-        <v>-0.6877744735662966</v>
-      </c>
-      <c r="G109">
-        <v>0.5882455976856897</v>
-      </c>
-      <c r="H109">
-        <v>0.406396950939844</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>specific_factorSocial connection/support</t>
-        </is>
-      </c>
-      <c r="C110">
-        <v>-0.1205100519981439</v>
-      </c>
-      <c r="D110">
-        <v>0.05265288586196503</v>
-      </c>
-      <c r="E110">
-        <v>1.516851528094732</v>
-      </c>
-      <c r="F110">
-        <v>-0.4078344948969768</v>
-      </c>
-      <c r="G110">
-        <v>0.1885311809949241</v>
-      </c>
-      <c r="H110">
-        <v>0.1870811448542616</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>specific_factorstyle-related beliefs</t>
-        </is>
-      </c>
-      <c r="C111">
-        <v>0.2940217656135655</v>
-      </c>
-      <c r="D111">
-        <v>0.01311253665956594</v>
-      </c>
-      <c r="E111">
-        <v>1.312053349462781</v>
-      </c>
-      <c r="F111">
-        <v>0.2032536195584809</v>
-      </c>
-      <c r="G111">
-        <v>0.3797793916770398</v>
-      </c>
-      <c r="H111">
-        <v>0.0113058646952417</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>specific_factorStyle-related beliefs</t>
-        </is>
-      </c>
-      <c r="C112">
-        <v>0.4913306803840954</v>
-      </c>
-      <c r="D112">
-        <v>7.952500249020348e-17</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>0.4913306803840946</v>
-      </c>
-      <c r="G112">
-        <v>0.4913306803840961</v>
-      </c>
-      <c r="H112">
-        <v>9.413530726127671e-17</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>specific_factorwell-being</t>
-        </is>
-      </c>
-      <c r="C113">
-        <v>-0.1335962638755942</v>
-      </c>
-      <c r="D113">
-        <v>0.0340307347501664</v>
-      </c>
-      <c r="E113">
-        <v>1.360088976523753</v>
-      </c>
-      <c r="F113">
-        <v>-0.3552290815784578</v>
-      </c>
-      <c r="G113">
-        <v>0.1022572899809339</v>
-      </c>
-      <c r="H113">
-        <v>0.1052903297321444</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>specific_factorWell-being</t>
-        </is>
-      </c>
-      <c r="C114">
-        <v>-0.1963258008502498</v>
-      </c>
-      <c r="D114">
-        <v>0.0559753378036465</v>
-      </c>
-      <c r="E114">
-        <v>4.162589155562383</v>
-      </c>
-      <c r="F114">
-        <v>-0.3381087501943265</v>
-      </c>
-      <c r="G114">
-        <v>-0.04582859538760283</v>
-      </c>
-      <c r="H114">
-        <v>0.02220005071531838</v>
+        <v>0.008186982296365596</v>
       </c>
     </row>
   </sheetData>
@@ -3985,25 +3025,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.9618907009680471</v>
+        <v>-0.9864976341669962</v>
       </c>
       <c r="E2">
-        <v>0.8263717078391433</v>
+        <v>0.6838177407335493</v>
       </c>
       <c r="F2">
-        <v>-2.384644568410494</v>
+        <v>-3.649556870200986</v>
       </c>
       <c r="G2">
-        <v>0.03086436704520496</v>
+        <v>0.002396242503355246</v>
       </c>
       <c r="H2">
-        <v>-0.9988570114563077</v>
+        <v>-0.9992647499557552</v>
       </c>
       <c r="I2">
-        <v>-0.2049205091958818</v>
+        <v>-0.7767893880970304</v>
       </c>
       <c r="J2">
-        <v>14.86734371936792</v>
+        <v>14.89621490743453</v>
       </c>
     </row>
     <row r="3">
@@ -4023,25 +3063,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.8599032258605968</v>
+        <v>-0.8422405778780663</v>
       </c>
       <c r="E3">
-        <v>0.5941155163519004</v>
+        <v>0.7103662241121139</v>
       </c>
       <c r="F3">
-        <v>-2.176299252763167</v>
+        <v>-1.729858841764404</v>
       </c>
       <c r="G3">
-        <v>0.05871969279199344</v>
+        <v>0.1178835414151363</v>
       </c>
       <c r="H3">
-        <v>-0.9899738001087944</v>
+        <v>-0.9931559787354588</v>
       </c>
       <c r="I3">
-        <v>0.0593215071458616</v>
+        <v>0.3621714933001058</v>
       </c>
       <c r="J3">
-        <v>8.648142259971001</v>
+        <v>8.954112446554245</v>
       </c>
     </row>
   </sheetData>
@@ -4051,7 +3091,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4065,10 +3105,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>specific_factor</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>n_effect_sizes</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>k_studies</t>
         </is>
@@ -4080,24 +3125,1654 @@
           <t>NS</t>
         </is>
       </c>
-      <c r="B2">
-        <v>845</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
       </c>
       <c r="C2">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>438</v>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
       </c>
       <c r="C3">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>94</v>
+      </c>
+      <c r="D4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Behavioral investment</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coherence of mind</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Negative beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Negative life events</t>
+        </is>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>40</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Positive beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Positive personality</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>24</v>
+      </c>
+      <c r="D46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>25</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>25</v>
+      </c>
+      <c r="D53">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Extrinsic goals</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Harmonious passion</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Intrinsic goals</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Job security</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>41</v>
+      </c>
+      <c r="D68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Negative personality</t>
+        </is>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Obsessive passion</t>
+        </is>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Opportunitiies for professional development</t>
+        </is>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C73">
+        <v>8</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Others' controlled motivation</t>
+        </is>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C77">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation motivation</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Positive beliefs about knowledge and learning</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>19</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Social competence</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/08-specific.xlsx
+++ b/output/08-specific.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,57 +405,225 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>735</v>
+        <v>473</v>
       </c>
       <c r="D2">
-        <v>0.01057522579711685</v>
+        <v>0.01152102796246635</v>
       </c>
       <c r="E2">
-        <v>0.02468479606572522</v>
+        <v>0.02326089330729948</v>
       </c>
       <c r="F2">
-        <v>94.77508775367545</v>
+        <v>95.36671422083022</v>
       </c>
       <c r="G2">
-        <v>66.35003581141055</v>
+        <v>63.77781570354829</v>
       </c>
       <c r="H2">
-        <v>28.4250519422649</v>
+        <v>31.58889851728193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>273</v>
+      </c>
+      <c r="D3">
+        <v>3.653053303661122e-09</v>
+      </c>
+      <c r="E3">
+        <v>0.02043333962205041</v>
+      </c>
+      <c r="F3">
+        <v>86.84417177806421</v>
+      </c>
+      <c r="G3">
+        <v>86.84415625214736</v>
+      </c>
+      <c r="H3">
+        <v>1.552591684808179e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>118</v>
+      </c>
+      <c r="D4">
+        <v>2.07479617122853e-09</v>
+      </c>
+      <c r="E4">
+        <v>0.0290962342349992</v>
+      </c>
+      <c r="F4">
+        <v>89.26854942749469</v>
+      </c>
+      <c r="G4">
+        <v>89.26854306192759</v>
+      </c>
+      <c r="H4">
+        <v>6.365567099169375e-06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>5.924020919513231e-10</v>
+      </c>
+      <c r="E5">
+        <v>0.02152327834529992</v>
+      </c>
+      <c r="F5">
+        <v>84.89152505942236</v>
+      </c>
+      <c r="G5">
+        <v>84.89152272288632</v>
+      </c>
+      <c r="H5">
+        <v>2.336536044517263e-06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>6.065029707009189e-10</v>
+      </c>
+      <c r="E6">
+        <v>0.04533260422758612</v>
+      </c>
+      <c r="F6">
+        <v>95.95363176424367</v>
+      </c>
+      <c r="G6">
+        <v>95.95363048048415</v>
+      </c>
+      <c r="H6">
+        <v>1.283759513214507e-06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="B3">
-        <v>51</v>
-      </c>
-      <c r="C3">
-        <v>381</v>
-      </c>
-      <c r="D3">
-        <v>1.511324448310524e-09</v>
-      </c>
-      <c r="E3">
-        <v>0.02299982895037337</v>
-      </c>
-      <c r="F3">
-        <v>88.12792592848962</v>
-      </c>
-      <c r="G3">
-        <v>88.12792013758219</v>
-      </c>
-      <c r="H3">
-        <v>5.790907426749503e-06</v>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>2.968116350656305e-10</v>
+      </c>
+      <c r="E7">
+        <v>0.04957340061396698</v>
+      </c>
+      <c r="F7">
+        <v>97.2340595973737</v>
+      </c>
+      <c r="G7">
+        <v>97.23405901520262</v>
+      </c>
+      <c r="H7">
+        <v>5.821710772901694e-07</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>0.01195749299833392</v>
+      </c>
+      <c r="E8">
+        <v>0.01315572324167424</v>
+      </c>
+      <c r="F8">
+        <v>88.64609939572783</v>
+      </c>
+      <c r="G8">
+        <v>46.43784129275521</v>
+      </c>
+      <c r="H8">
+        <v>42.20825810297262</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>2.215715558262663e-09</v>
+      </c>
+      <c r="E9">
+        <v>0.01783832086401516</v>
+      </c>
+      <c r="F9">
+        <v>86.30138506698422</v>
+      </c>
+      <c r="G9">
+        <v>86.30137434740477</v>
+      </c>
+      <c r="H9">
+        <v>1.071957945474214e-05</v>
       </c>
     </row>
   </sheetData>
@@ -465,7 +633,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,7 +684,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -525,28 +693,28 @@
         </is>
       </c>
       <c r="C2">
-        <v>-0.2913863358439596</v>
+        <v>-0.2422278654424933</v>
       </c>
       <c r="D2">
-        <v>0.07205975725170799</v>
+        <v>0.09485454935112007</v>
       </c>
       <c r="E2">
-        <v>3.215317587403502</v>
+        <v>2.139058856419632</v>
       </c>
       <c r="F2">
-        <v>-0.478439939139175</v>
+        <v>-0.5586478910185443</v>
       </c>
       <c r="G2">
-        <v>-0.07903678884677011</v>
+        <v>0.1357434237169353</v>
       </c>
       <c r="H2">
-        <v>0.02198074331115907</v>
+        <v>0.1131487675239217</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -555,28 +723,28 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.2409639907240743</v>
+        <v>0.2323110056083919</v>
       </c>
       <c r="D3">
-        <v>0.09882423083829737</v>
+        <v>0.09871508437720798</v>
       </c>
       <c r="E3">
-        <v>3.404044460270509</v>
+        <v>4.120452613460896</v>
       </c>
       <c r="F3">
-        <v>-0.04856823483526003</v>
+        <v>-0.03430156012121652</v>
       </c>
       <c r="G3">
-        <v>0.4931401214715826</v>
+        <v>0.4680550715862172</v>
       </c>
       <c r="H3">
-        <v>0.07868234302002639</v>
+        <v>0.07271343456378646</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -585,28 +753,28 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.2987477015641252</v>
+        <v>0.2483100938922045</v>
       </c>
       <c r="D4">
-        <v>0.04107560713972953</v>
+        <v>0.03315615996785262</v>
       </c>
       <c r="E4">
-        <v>25.683970777651</v>
+        <v>20.82906850161143</v>
       </c>
       <c r="F4">
-        <v>0.2200049469861175</v>
+        <v>0.1825550687456653</v>
       </c>
       <c r="G4">
-        <v>0.3736224982464272</v>
+        <v>0.3118537347868808</v>
       </c>
       <c r="H4">
-        <v>6.250071748929735e-08</v>
+        <v>1.770952764399361e-07</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -618,25 +786,25 @@
         <v>0.1100445571831774</v>
       </c>
       <c r="D5">
-        <v>5.038863299903562e-17</v>
+        <v>1.375000718057609e-16</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1100445571831768</v>
+        <v>0.1100445571831757</v>
       </c>
       <c r="G5">
-        <v>0.1100445571831781</v>
+        <v>0.1100445571831791</v>
       </c>
       <c r="H5">
-        <v>2.903232321824943e-16</v>
+        <v>7.92231558906104e-16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -645,28 +813,28 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.1614633831611527</v>
+        <v>-0.0978080401096281</v>
       </c>
       <c r="D6">
-        <v>0.06438279923691564</v>
+        <v>0.1170877246158418</v>
       </c>
       <c r="E6">
-        <v>1.481792803056664</v>
+        <v>1.139978124312011</v>
       </c>
       <c r="F6">
-        <v>-0.5057446324799496</v>
+        <v>-0.838646711814394</v>
       </c>
       <c r="G6">
-        <v>0.227183310649113</v>
+        <v>0.7700094343376171</v>
       </c>
       <c r="H6">
-        <v>0.169122666939742</v>
+        <v>0.541565697118368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -675,28 +843,28 @@
         </is>
       </c>
       <c r="C7">
-        <v>-0.04435326769183983</v>
+        <v>-0.004018899434181623</v>
       </c>
       <c r="D7">
-        <v>0.03519161262948997</v>
+        <v>0.03733260478395699</v>
       </c>
       <c r="E7">
-        <v>14.36789049541516</v>
+        <v>11.47594271028528</v>
       </c>
       <c r="F7">
-        <v>-0.1191118291691155</v>
+        <v>-0.08556383511129181</v>
       </c>
       <c r="G7">
-        <v>0.03090536060893916</v>
+        <v>0.07757952012108994</v>
       </c>
       <c r="H7">
-        <v>0.2273434530460732</v>
+        <v>0.9161310415823362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -705,28 +873,28 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.2866196372955676</v>
+        <v>0.264896614980456</v>
       </c>
       <c r="D8">
-        <v>0.06622681851720399</v>
+        <v>0.06566370875668998</v>
       </c>
       <c r="E8">
-        <v>4.951532489303022</v>
+        <v>4.100308172412354</v>
       </c>
       <c r="F8">
-        <v>0.1235018242093524</v>
+        <v>0.09055238541557116</v>
       </c>
       <c r="G8">
-        <v>0.4346562742377997</v>
+        <v>0.4234869727160396</v>
       </c>
       <c r="H8">
-        <v>0.00684231313304508</v>
+        <v>0.01374176791014408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -735,28 +903,28 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.2250417203192697</v>
+        <v>-0.2475668076244437</v>
       </c>
       <c r="D9">
-        <v>0.03663115800875855</v>
+        <v>0.11680878065679</v>
       </c>
       <c r="E9">
-        <v>1.962572683911457</v>
+        <v>1.046256601840964</v>
       </c>
       <c r="F9">
-        <v>-0.3709181841149701</v>
+        <v>-0.9202394547945344</v>
       </c>
       <c r="G9">
-        <v>-0.06832701539263573</v>
+        <v>0.7950275146278037</v>
       </c>
       <c r="H9">
-        <v>0.02581056275686232</v>
+        <v>0.266721529079288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -765,28 +933,28 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.004596844096148441</v>
+        <v>0.01426139560116313</v>
       </c>
       <c r="D10">
-        <v>0.04011293780512363</v>
+        <v>0.03497751721890206</v>
       </c>
       <c r="E10">
-        <v>5.349406328692565</v>
+        <v>3.523146792390099</v>
       </c>
       <c r="F10">
-        <v>-0.09622486711419857</v>
+        <v>-0.08803237614358204</v>
       </c>
       <c r="G10">
-        <v>0.1053251858788961</v>
+        <v>0.1162575123397731</v>
       </c>
       <c r="H10">
-        <v>0.912941845802089</v>
+        <v>0.7069921027534695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -795,28 +963,28 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.006663766125107547</v>
+        <v>0.003360313847202485</v>
       </c>
       <c r="D11">
-        <v>0.04841777319105022</v>
+        <v>0.04329930529758392</v>
       </c>
       <c r="E11">
-        <v>7.892379058375687</v>
+        <v>7.476184998205273</v>
       </c>
       <c r="F11">
-        <v>-0.1048663262407125</v>
+        <v>-0.09740912101561149</v>
       </c>
       <c r="G11">
-        <v>0.1180283165443261</v>
+        <v>0.1040615496538353</v>
       </c>
       <c r="H11">
-        <v>0.8939772062472882</v>
+        <v>0.9401772300006526</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -825,28 +993,28 @@
         </is>
       </c>
       <c r="C12">
-        <v>-0.04590062381114492</v>
+        <v>-0.04708675884598968</v>
       </c>
       <c r="D12">
-        <v>0.1195951526199938</v>
+        <v>0.1191841431659465</v>
       </c>
       <c r="E12">
-        <v>1.871606323025626</v>
+        <v>1.884943642990029</v>
       </c>
       <c r="F12">
-        <v>-0.5340990362844488</v>
+        <v>-0.5307043746655215</v>
       </c>
       <c r="G12">
-        <v>0.4652547190353537</v>
+        <v>0.4596614684307417</v>
       </c>
       <c r="H12">
-        <v>0.7401355754177861</v>
+        <v>0.7327979353527989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -855,28 +1023,28 @@
         </is>
       </c>
       <c r="C13">
-        <v>-0.225242374206191</v>
+        <v>-0.2416838421393416</v>
       </c>
       <c r="D13">
-        <v>0.08328051962132899</v>
+        <v>0.09554227811829963</v>
       </c>
       <c r="E13">
-        <v>11.32472967432907</v>
+        <v>9.964883359741936</v>
       </c>
       <c r="F13">
-        <v>-0.3900269503296332</v>
+        <v>-0.4297131668690502</v>
       </c>
       <c r="G13">
-        <v>-0.04647838908900243</v>
+        <v>-0.03356583169067232</v>
       </c>
       <c r="H13">
-        <v>0.01838350697566095</v>
+        <v>0.02745701083837289</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -885,28 +1053,28 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.1358870942823804</v>
+        <v>0.09189796551842792</v>
       </c>
       <c r="D14">
-        <v>0.01934859624914688</v>
+        <v>0.07554666895346503</v>
       </c>
       <c r="E14">
-        <v>1.091097744905533</v>
+        <v>1.046256601840964</v>
       </c>
       <c r="F14">
-        <v>-0.06544620272092198</v>
+        <v>-0.64869998807865</v>
       </c>
       <c r="G14">
-        <v>0.3265893921529504</v>
+        <v>0.7431000453250389</v>
       </c>
       <c r="H14">
-        <v>0.07632227189425196</v>
+        <v>0.4302488576018232</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -915,28 +1083,28 @@
         </is>
       </c>
       <c r="C15">
-        <v>-0.09374847598644301</v>
+        <v>-0.1105483882787627</v>
       </c>
       <c r="D15">
-        <v>0.07063750159193412</v>
+        <v>0.1115426418595988</v>
       </c>
       <c r="E15">
-        <v>1.906914406767494</v>
+        <v>1.094913215709729</v>
       </c>
       <c r="F15">
-        <v>-0.390697456552284</v>
+        <v>-0.8533959198777422</v>
       </c>
       <c r="G15">
-        <v>0.2208730140661403</v>
+        <v>0.7804479682023825</v>
       </c>
       <c r="H15">
-        <v>0.32002917045404</v>
+        <v>0.4898181094196964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -945,28 +1113,28 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.2643495849371186</v>
+        <v>0.2632436007255575</v>
       </c>
       <c r="D16">
-        <v>0.07410440888901278</v>
+        <v>0.07441567345388934</v>
       </c>
       <c r="E16">
-        <v>1.871606323025626</v>
+        <v>1.884943642990031</v>
       </c>
       <c r="F16">
-        <v>-0.06985846022036386</v>
+        <v>-0.0699577790448067</v>
       </c>
       <c r="G16">
-        <v>0.5452035709411551</v>
+        <v>0.5436009913187478</v>
       </c>
       <c r="H16">
-        <v>0.07441996586436689</v>
+        <v>0.07473228013268406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -975,28 +1143,28 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.1960426734200881</v>
+        <v>0.2032266328630546</v>
       </c>
       <c r="D17">
-        <v>0.04590075446163292</v>
+        <v>0.03652966783205326</v>
       </c>
       <c r="E17">
-        <v>10.46559743243417</v>
+        <v>5.250897081630636</v>
       </c>
       <c r="F17">
-        <v>0.0966512044971498</v>
+        <v>0.1130417985980497</v>
       </c>
       <c r="G17">
-        <v>0.2915629425476112</v>
+        <v>0.2900902314035528</v>
       </c>
       <c r="H17">
-        <v>0.001346673246619238</v>
+        <v>0.002070716094090801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1005,28 +1173,28 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.1553578258719912</v>
+        <v>0.1129194710816652</v>
       </c>
       <c r="D18">
-        <v>0.04590075445742241</v>
+        <v>0.0365296679864992</v>
       </c>
       <c r="E18">
-        <v>10.46559743243398</v>
+        <v>5.250897081630589</v>
       </c>
       <c r="F18">
-        <v>0.05491100893181139</v>
+        <v>0.02083122079353498</v>
       </c>
       <c r="G18">
-        <v>0.2526916798298374</v>
+        <v>0.203107838657571</v>
       </c>
       <c r="H18">
-        <v>0.006219349199606873</v>
+        <v>0.02503250148115441</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1035,28 +1203,28 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.2650406185397582</v>
+        <v>0.2805566864654144</v>
       </c>
       <c r="D19">
-        <v>0.04682600371516284</v>
+        <v>0.07456699243643472</v>
       </c>
       <c r="E19">
-        <v>3.011339027415324</v>
+        <v>3.841214665176791</v>
       </c>
       <c r="F19">
-        <v>0.1222040029972425</v>
+        <v>0.0776790310508636</v>
       </c>
       <c r="G19">
-        <v>0.3971211776109982</v>
+        <v>0.4611229776753197</v>
       </c>
       <c r="H19">
-        <v>0.01010036887143724</v>
+        <v>0.01947608674876857</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1065,28 +1233,28 @@
         </is>
       </c>
       <c r="C20">
-        <v>-0.1887930941546774</v>
+        <v>-0.1753100790652333</v>
       </c>
       <c r="D20">
-        <v>0.05349559425249999</v>
+        <v>0.08524856913998111</v>
       </c>
       <c r="E20">
-        <v>10.08973957300925</v>
+        <v>9.711257870275103</v>
       </c>
       <c r="F20">
-        <v>-0.3005621143522748</v>
+        <v>-0.3521130956463466</v>
       </c>
       <c r="G20">
-        <v>-0.0719089614605057</v>
+        <v>0.01357321626238903</v>
       </c>
       <c r="H20">
-        <v>0.005008198217963251</v>
+        <v>0.06524231051134161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1095,1852 +1263,3682 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.2709240092758623</v>
+        <v>0.2482181224741149</v>
       </c>
       <c r="D21">
-        <v>0.04057682065454203</v>
+        <v>0.04725056719325246</v>
       </c>
       <c r="E21">
-        <v>19.95533618650413</v>
+        <v>17.3821263071243</v>
       </c>
       <c r="F21">
-        <v>0.1908381431442945</v>
+        <v>0.1527840019134781</v>
       </c>
       <c r="G21">
-        <v>0.3474270969887208</v>
+        <v>0.3390655723196887</v>
       </c>
       <c r="H21">
-        <v>1.193614810944259e-06</v>
+        <v>4.768820457450032e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs (religious)</t>
+          <t>specific_factorNegative beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C22">
-        <v>-0.05759308966138252</v>
+        <v>-0.06462950955139768</v>
       </c>
       <c r="D22">
-        <v>3.392014857246346e-18</v>
+        <v>0.1967358918047385</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>1.563630501518323</v>
       </c>
       <c r="F22">
-        <v>-0.05759308966138256</v>
+        <v>-0.8284741807924877</v>
       </c>
       <c r="G22">
-        <v>-0.05759308966138248</v>
+        <v>0.7832840544550226</v>
       </c>
       <c r="H22">
-        <v>3.745300081174162e-17</v>
+        <v>0.7808656215436972</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about knowledge and learning</t>
+          <t>specific_factorNegative life events</t>
         </is>
       </c>
       <c r="C23">
-        <v>-0.06013092168673724</v>
+        <v>0.1466519662212898</v>
       </c>
       <c r="D23">
-        <v>0.1986061929838664</v>
+        <v>1.220822044460023e-16</v>
       </c>
       <c r="E23">
-        <v>1.51231237753852</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>-0.8459169674543814</v>
+        <v>0.1466519662212883</v>
       </c>
       <c r="G23">
-        <v>0.8079903544826994</v>
+        <v>0.1466519662212914</v>
       </c>
       <c r="H23">
-        <v>0.7982386065086372</v>
+        <v>5.261405363540001e-16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>specific_factorNegative beliefs about motivation</t>
+          <t>specific_factorNegative personality</t>
         </is>
       </c>
       <c r="C24">
-        <v>-0.2687304722340395</v>
+        <v>-0.3016186273858603</v>
       </c>
       <c r="D24">
-        <v>0.1090942441820898</v>
+        <v>0.174550994172233</v>
       </c>
       <c r="E24">
-        <v>1.051810728995659</v>
+        <v>2.080694825425365</v>
       </c>
       <c r="F24">
-        <v>-0.9069891320596302</v>
+        <v>-0.7759451016617754</v>
       </c>
       <c r="G24">
-        <v>0.7439610443174108</v>
+        <v>0.390593270717691</v>
       </c>
       <c r="H24">
-        <v>0.2300296352299197</v>
+        <v>0.2115489307739653</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>specific_factorNegative life events</t>
+          <t>specific_factorOthers' abilities</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.1466519662212899</v>
+        <v>0.2425151744379159</v>
       </c>
       <c r="D25">
-        <v>1.019325256991176e-17</v>
+        <v>0.07413362292206403</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>4.00740297294066</v>
       </c>
       <c r="F25">
-        <v>0.1466519662212897</v>
+        <v>0.04174239749542914</v>
       </c>
       <c r="G25">
-        <v>0.14665196622129</v>
+        <v>0.4244625636679171</v>
       </c>
       <c r="H25">
-        <v>4.393009938395472e-17</v>
+        <v>0.02881359186229787</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality</t>
+          <t>specific_factorOthers' autonomous motivation</t>
         </is>
       </c>
       <c r="C26">
-        <v>-0.2957692222874741</v>
+        <v>0.1355647959569836</v>
       </c>
       <c r="D26">
-        <v>0.1731967605261105</v>
+        <v>0.04882502567804116</v>
       </c>
       <c r="E26">
-        <v>1.994841948784727</v>
+        <v>8.126439282459181</v>
       </c>
       <c r="F26">
-        <v>-0.7825563096693786</v>
+        <v>0.02411334686801681</v>
       </c>
       <c r="G26">
-        <v>0.4154483450042018</v>
+        <v>0.243687837272913</v>
       </c>
       <c r="H26">
-        <v>0.220748905397037</v>
+        <v>0.02306748646166757</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities</t>
+          <t>specific_factorOthers' controlled motivation</t>
         </is>
       </c>
       <c r="C27">
-        <v>0.2316550893244476</v>
+        <v>0.02553701073729264</v>
       </c>
       <c r="D27">
-        <v>0.07155250420300419</v>
+        <v>0.03363737830067748</v>
       </c>
       <c r="E27">
-        <v>3.897424524185753</v>
+        <v>1.74991001229909</v>
       </c>
       <c r="F27">
-        <v>0.03518246177167355</v>
+        <v>-0.1400077562603197</v>
       </c>
       <c r="G27">
-        <v>0.4108874134003981</v>
+        <v>0.1896929276628692</v>
       </c>
       <c r="H27">
-        <v>0.03118602470432033</v>
+        <v>0.5365626595936666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation</t>
+          <t>specific_factorOthers' negative behaviours</t>
         </is>
       </c>
       <c r="C28">
-        <v>0.1762762680419017</v>
+        <v>-0.1619449754498855</v>
       </c>
       <c r="D28">
-        <v>0.05316315955135713</v>
+        <v>0.1024176839781466</v>
       </c>
       <c r="E28">
-        <v>8.231267018923869</v>
+        <v>2.136341142221174</v>
       </c>
       <c r="F28">
-        <v>0.05608051451997564</v>
+        <v>-0.5213327103669447</v>
       </c>
       <c r="G28">
-        <v>0.2914356098190984</v>
+        <v>0.2462354545969865</v>
       </c>
       <c r="H28">
-        <v>0.009664419143239771</v>
+        <v>0.2438493199061828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation</t>
+          <t>specific_factorOthers' negative emotions</t>
         </is>
       </c>
       <c r="C29">
-        <v>0.03726036922717415</v>
+        <v>-0.1677965945039025</v>
       </c>
       <c r="D29">
-        <v>0.0338058137372859</v>
+        <v>0.05153502209111546</v>
       </c>
       <c r="E29">
-        <v>1.679388451185373</v>
+        <v>3.400816096072792</v>
       </c>
       <c r="F29">
-        <v>-0.137439145463765</v>
+        <v>-0.3122124901381613</v>
       </c>
       <c r="G29">
-        <v>0.2097116646036581</v>
+        <v>-0.01580080728447079</v>
       </c>
       <c r="H29">
-        <v>0.4032152374648693</v>
+        <v>0.03847547063788812</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours</t>
+          <t>specific_factorOthers' positive behaviours</t>
         </is>
       </c>
       <c r="C30">
-        <v>-0.1302004633309602</v>
+        <v>0.1526641857630324</v>
       </c>
       <c r="D30">
-        <v>0.08731599920733848</v>
+        <v>0.07036615822957117</v>
       </c>
       <c r="E30">
-        <v>5.403420347532359</v>
+        <v>4.646770451105606</v>
       </c>
       <c r="F30">
-        <v>-0.3367734955529982</v>
+        <v>-0.03121971521315921</v>
       </c>
       <c r="G30">
-        <v>0.08833045426818735</v>
+        <v>0.3265521819639247</v>
       </c>
       <c r="H30">
-        <v>0.1897016725092504</v>
+        <v>0.08456861809965052</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions</t>
+          <t>specific_factorOthers' positive emotions</t>
         </is>
       </c>
       <c r="C31">
-        <v>-0.1581630146436843</v>
+        <v>0.2737188599245758</v>
       </c>
       <c r="D31">
-        <v>0.04489334056179898</v>
+        <v>0.05961309653060141</v>
       </c>
       <c r="E31">
-        <v>3.337158629780085</v>
+        <v>2.255542692214946</v>
       </c>
       <c r="F31">
-        <v>-0.2863116992031149</v>
+        <v>0.05027307476283217</v>
       </c>
       <c r="G31">
-        <v>-0.02445518207246665</v>
+        <v>0.4710691092761498</v>
       </c>
       <c r="H31">
-        <v>0.03199652095337587</v>
+        <v>0.03327495763096854</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours</t>
+          <t>specific_factorPerformance goals</t>
         </is>
       </c>
       <c r="C32">
-        <v>0.1820094102441141</v>
+        <v>-0.1017339824503778</v>
       </c>
       <c r="D32">
-        <v>0.04075763457993306</v>
+        <v>0.1023792511987786</v>
       </c>
       <c r="E32">
-        <v>6.31298760832725</v>
+        <v>3.045181776232575</v>
       </c>
       <c r="F32">
-        <v>0.08530834996476519</v>
+        <v>-0.4012901961664707</v>
       </c>
       <c r="G32">
-        <v>0.2753135397391427</v>
+        <v>0.2174819460289706</v>
       </c>
       <c r="H32">
-        <v>0.003555702705344107</v>
+        <v>0.391195639581736</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions</t>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C33">
-        <v>0.2340942731827837</v>
+        <v>0.2608033451151916</v>
       </c>
       <c r="D33">
-        <v>0.05302297872020734</v>
+        <v>0.04149432431362146</v>
       </c>
       <c r="E33">
-        <v>4.288496284593504</v>
+        <v>2.97244580821143</v>
       </c>
       <c r="F33">
-        <v>0.09484014988112995</v>
+        <v>0.1334212590342063</v>
       </c>
       <c r="G33">
-        <v>0.3643628428784494</v>
+        <v>0.3797083872278334</v>
       </c>
       <c r="H33">
-        <v>0.00922122982917266</v>
+        <v>0.007827991193263819</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals</t>
+          <t>specific_factorPositive beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C34">
-        <v>-0.058493921956576</v>
+        <v>0.1590757379585485</v>
       </c>
       <c r="D34">
-        <v>0.2293955420796312</v>
+        <v>0.06685044510576488</v>
       </c>
       <c r="E34">
-        <v>2.550071291916349</v>
+        <v>2.213520569425341</v>
       </c>
       <c r="F34">
-        <v>-0.6999308282551938</v>
+        <v>-0.1018229788526116</v>
       </c>
       <c r="G34">
-        <v>0.6351748226455323</v>
+        <v>0.3994998638567736</v>
       </c>
       <c r="H34">
-        <v>0.8176725883740628</v>
+        <v>0.1262942338919353</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation</t>
+          <t>specific_factorPrior positive related experiences</t>
         </is>
       </c>
       <c r="C35">
-        <v>0.2704210631557011</v>
+        <v>0.162257471110345</v>
       </c>
       <c r="D35">
-        <v>0.06050756012784916</v>
+        <v>0.03652966811727753</v>
       </c>
       <c r="E35">
-        <v>1.342922133324325</v>
+        <v>5.250897081630582</v>
       </c>
       <c r="F35">
-        <v>-0.1516070784526645</v>
+        <v>0.07101571430882009</v>
       </c>
       <c r="G35">
-        <v>0.6090570710869728</v>
+        <v>0.2508064593355179</v>
       </c>
       <c r="H35">
-        <v>0.08863041895073934</v>
+        <v>0.005788634551392882</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation motivation</t>
+          <t>specific_factorSelf-efficacy</t>
         </is>
       </c>
       <c r="C36">
-        <v>0.2303090294305224</v>
+        <v>0.2834921136516005</v>
       </c>
       <c r="D36">
-        <v>0.06413371633577369</v>
+        <v>0.04118433557462389</v>
       </c>
       <c r="E36">
-        <v>2.027109672355684</v>
+        <v>6.670956641750058</v>
       </c>
       <c r="F36">
-        <v>-0.03790470510352874</v>
+        <v>0.190742460625021</v>
       </c>
       <c r="G36">
-        <v>0.4675688501702809</v>
+        <v>0.3712249168882728</v>
       </c>
       <c r="H36">
-        <v>0.0659677564250149</v>
+        <v>0.000247058407208598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>specific_factorPositive attitudes</t>
+          <t>specific_factorSocial connection/support</t>
         </is>
       </c>
       <c r="C37">
-        <v>0.2466114365168716</v>
+        <v>0.2434387545355098</v>
       </c>
       <c r="D37">
-        <v>0.02774083154351385</v>
+        <v>0.1055422750678909</v>
       </c>
       <c r="E37">
-        <v>2.308616751752052</v>
+        <v>6.579896982846419</v>
       </c>
       <c r="F37">
-        <v>0.1454623037366735</v>
+        <v>-0.004408269880131842</v>
       </c>
       <c r="G37">
-        <v>0.3426585783035769</v>
+        <v>0.4631081476258963</v>
       </c>
       <c r="H37">
-        <v>0.00744275532890068</v>
+        <v>0.05307329082379868</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs (religious)</t>
+          <t>specific_factorStyle-related beliefs</t>
         </is>
       </c>
       <c r="C38">
-        <v>0.1730474015149224</v>
+        <v>0.2895594146286458</v>
       </c>
       <c r="D38">
-        <v>1.160149679756209e-17</v>
+        <v>0.1474069971722925</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2.015477836243299</v>
       </c>
       <c r="F38">
-        <v>0.1730474015149223</v>
+        <v>-0.3198779297737946</v>
       </c>
       <c r="G38">
-        <v>0.1730474015149225</v>
+        <v>0.7295111963511524</v>
       </c>
       <c r="H38">
-        <v>4.225097313349575e-17</v>
+        <v>0.1795368656166371</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>specific_factorPositive beliefs about knowledge and learning</t>
+          <t>specific_factorWell-being</t>
         </is>
       </c>
       <c r="C39">
-        <v>0.1612127388422826</v>
+        <v>0.3417388535224913</v>
       </c>
       <c r="D39">
-        <v>0.0654362466182067</v>
+        <v>0.05167437039504395</v>
       </c>
       <c r="E39">
-        <v>2.157702393545371</v>
+        <v>9.099401595345544</v>
       </c>
       <c r="F39">
-        <v>-0.09975625651104092</v>
+        <v>0.2348900218960696</v>
       </c>
       <c r="G39">
-        <v>0.401429803702233</v>
+        <v>0.4404275851518658</v>
       </c>
       <c r="H39">
-        <v>0.1217476601541723</v>
+        <v>6.769517323829985e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences</t>
+          <t>specific_factorAmotivation</t>
         </is>
       </c>
       <c r="C40">
-        <v>0.1636505059816757</v>
+        <v>0.2379529539384566</v>
       </c>
       <c r="D40">
-        <v>0.04590075441132337</v>
+        <v>0.02406580818843031</v>
       </c>
       <c r="E40">
-        <v>10.46559743243454</v>
+        <v>3.047793766109278</v>
       </c>
       <c r="F40">
-        <v>0.06339040722293397</v>
+        <v>0.1651630233438889</v>
       </c>
       <c r="G40">
-        <v>0.2606402786702761</v>
+        <v>0.3081646871058335</v>
       </c>
       <c r="H40">
-        <v>0.004527465286855921</v>
+        <v>0.001942218775454515</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy</t>
+          <t>specific_factorAutonomous causality orientation</t>
         </is>
       </c>
       <c r="C41">
-        <v>0.2554363674039826</v>
+        <v>-0.175300250479336</v>
       </c>
       <c r="D41">
-        <v>0.04410717459749303</v>
+        <v>0.04644342472416067</v>
       </c>
       <c r="E41">
-        <v>6.598353024157138</v>
+        <v>1.053113201720974</v>
       </c>
       <c r="F41">
-        <v>0.1543780533480834</v>
+        <v>-0.6052316690906203</v>
       </c>
       <c r="G41">
-        <v>0.3512052075814454</v>
+        <v>0.3338034751008729</v>
       </c>
       <c r="H41">
-        <v>0.0007301393619785587</v>
+        <v>0.1533556194531141</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>specific_factorSocial competence</t>
+          <t>specific_factorAutonomous motivation</t>
         </is>
       </c>
       <c r="C42">
-        <v>0.3159778747222574</v>
+        <v>-0.02688188434602662</v>
       </c>
       <c r="D42">
-        <v>0.02185270107403547</v>
+        <v>0.03886020050522347</v>
       </c>
       <c r="E42">
-        <v>1.724363373351666</v>
+        <v>10.68952027073703</v>
       </c>
       <c r="F42">
-        <v>0.2138181758464454</v>
+        <v>-0.1122481359573899</v>
       </c>
       <c r="G42">
-        <v>0.4113008925459828</v>
+        <v>0.05887825763035141</v>
       </c>
       <c r="H42">
-        <v>0.007919457677290864</v>
+        <v>0.5037360580529278</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support</t>
+          <t>specific_factorControlled causality orientation</t>
         </is>
       </c>
       <c r="C43">
-        <v>0.3035118877688847</v>
+        <v>0.4963470569520651</v>
       </c>
       <c r="D43">
-        <v>0.09229310218899346</v>
+        <v>0.1726467664971731</v>
       </c>
       <c r="E43">
-        <v>8.097383933539797</v>
+        <v>1.053113201720973</v>
       </c>
       <c r="F43">
-        <v>0.1006577136150223</v>
+        <v>-0.8862799847436582</v>
       </c>
       <c r="G43">
-        <v>0.4821386279553895</v>
+        <v>0.9864324125258976</v>
       </c>
       <c r="H43">
-        <v>0.009255314846511806</v>
+        <v>0.1852990605204201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs</t>
+          <t>specific_factorControlled motivation</t>
         </is>
       </c>
       <c r="C44">
-        <v>0.2869457227528986</v>
+        <v>0.184906834930587</v>
       </c>
       <c r="D44">
-        <v>0.1399666968720757</v>
+        <v>0.0652979932794101</v>
       </c>
       <c r="E44">
-        <v>1.971087489520665</v>
+        <v>9.465241404204834</v>
       </c>
       <c r="F44">
-        <v>-0.3054670614893189</v>
+        <v>0.04042153807729077</v>
       </c>
       <c r="G44">
-        <v>0.7192105905415952</v>
+        <v>0.321817650174138</v>
       </c>
       <c r="H44">
-        <v>0.1712717956105734</v>
+        <v>0.0177361488381601</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>specific_factorWell-being</t>
+          <t>specific_factorEmotional intelligence</t>
         </is>
       </c>
       <c r="C45">
-        <v>0.3313098533296069</v>
+        <v>-0.1986857599749176</v>
       </c>
       <c r="D45">
-        <v>0.05477208585018118</v>
+        <v>0.05520131956718141</v>
       </c>
       <c r="E45">
-        <v>7.579784903725415</v>
+        <v>3.176630117968559</v>
       </c>
       <c r="F45">
-        <v>0.2134325400529897</v>
+        <v>-0.3554257071823713</v>
       </c>
       <c r="G45">
-        <v>0.4396790125399302</v>
+        <v>-0.03107745941813029</v>
       </c>
       <c r="H45">
-        <v>0.0002958076790570577</v>
+        <v>0.03231201776937816</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>specific_factorAmotivation</t>
+          <t>specific_factorExternal pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C46">
-        <v>0.3172678867295439</v>
+        <v>0.06468113510371118</v>
       </c>
       <c r="D46">
-        <v>0.06101200189118799</v>
+        <v>0.08687231599826746</v>
       </c>
       <c r="E46">
-        <v>3.790317943001482</v>
+        <v>2.825404840342611</v>
       </c>
       <c r="F46">
-        <v>0.1542091053599401</v>
+        <v>-0.2180574221831571</v>
       </c>
       <c r="G46">
-        <v>0.4635027622894288</v>
+        <v>0.3374027990108087</v>
       </c>
       <c r="H46">
-        <v>0.006689449825520642</v>
+        <v>0.5130579349840216</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous causality orientation</t>
+          <t>specific_factorExternal pressures</t>
         </is>
       </c>
       <c r="C47">
-        <v>-0.07286953617951528</v>
+        <v>0.2783693995785096</v>
       </c>
       <c r="D47">
-        <v>0.07783707373221975</v>
+        <v>0.04588771646351398</v>
       </c>
       <c r="E47">
-        <v>1.07549927025398</v>
+        <v>3.026676066939546</v>
       </c>
       <c r="F47">
-        <v>-0.7221540031707557</v>
+        <v>0.1396846013143523</v>
       </c>
       <c r="G47">
-        <v>0.6446759356440666</v>
+        <v>0.4063431960030254</v>
       </c>
       <c r="H47">
-        <v>0.5114317724457249</v>
+        <v>0.008121107681384585</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>specific_factorAutonomous motivation</t>
+          <t>specific_factorExtrinsic goals</t>
         </is>
       </c>
       <c r="C48">
-        <v>-0.07112431926821515</v>
+        <v>0.245095538192852</v>
       </c>
       <c r="D48">
-        <v>0.03484630421740972</v>
+        <v>0.09926901102439302</v>
       </c>
       <c r="E48">
-        <v>13.12340185974573</v>
+        <v>1.749710209348157</v>
       </c>
       <c r="F48">
-        <v>-0.1454154132642033</v>
+        <v>-0.2366025084109694</v>
       </c>
       <c r="G48">
-        <v>0.003964331673466859</v>
+        <v>0.6300797619852535</v>
       </c>
       <c r="H48">
-        <v>0.06150059883243816</v>
+        <v>0.1454103795797927</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>specific_factorControlled causality orientation</t>
+          <t>specific_factorHarmonious passion</t>
         </is>
       </c>
       <c r="C49">
-        <v>0.3668634243383597</v>
+        <v>0.02709667907264672</v>
       </c>
       <c r="D49">
-        <v>0.1667156719864104</v>
+        <v>0.05651040004809744</v>
       </c>
       <c r="E49">
-        <v>1.075499270253978</v>
+        <v>1.003773886493681</v>
       </c>
       <c r="F49">
-        <v>-0.8880253299430833</v>
+        <v>-0.5944896552563321</v>
       </c>
       <c r="G49">
-        <v>0.9748698537324783</v>
+        <v>0.6284123016693569</v>
       </c>
       <c r="H49">
-        <v>0.2460543854571362</v>
+        <v>0.7150593350928851</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>specific_factorControlled motivation</t>
+          <t>specific_factorIll-being</t>
         </is>
       </c>
       <c r="C50">
-        <v>0.146511837023171</v>
+        <v>0.2632715274402362</v>
       </c>
       <c r="D50">
-        <v>0.04851300119509536</v>
+        <v>0.1015011830597892</v>
       </c>
       <c r="E50">
-        <v>11.44506596334228</v>
+        <v>6.174851582160455</v>
       </c>
       <c r="F50">
-        <v>0.04127843116860194</v>
+        <v>0.02294673046176401</v>
       </c>
       <c r="G50">
-        <v>0.2485304018626768</v>
+        <v>0.4748314950324919</v>
       </c>
       <c r="H50">
-        <v>0.01074989651030975</v>
+        <v>0.0366895346920886</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>specific_factorEmotional intelligence</t>
+          <t>specific_factorInternal pressures</t>
         </is>
       </c>
       <c r="C51">
-        <v>-0.2284753244867673</v>
+        <v>0.1662477304588113</v>
       </c>
       <c r="D51">
-        <v>0.06178170016574185</v>
+        <v>0.03641867839376991</v>
       </c>
       <c r="E51">
-        <v>3.210045079377279</v>
+        <v>2.010248477255108</v>
       </c>
       <c r="F51">
-        <v>-0.3987112063240494</v>
+        <v>0.01187081537334371</v>
       </c>
       <c r="G51">
-        <v>-0.04301829325715768</v>
+        <v>0.3128839244764389</v>
       </c>
       <c r="H51">
-        <v>0.02914905180269215</v>
+        <v>0.04359117162845377</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>specific_factorEntity beliefs</t>
+          <t>specific_factorIntrinsic goals</t>
         </is>
       </c>
       <c r="C52">
-        <v>0.2159448581418348</v>
+        <v>-0.05013530534105032</v>
       </c>
       <c r="D52">
-        <v>0.03208764145007279</v>
+        <v>0.07973292718990957</v>
       </c>
       <c r="E52">
-        <v>1.01810833787685</v>
+        <v>1.749710209348158</v>
       </c>
       <c r="F52">
-        <v>-0.1699061158438933</v>
+        <v>-0.4176467782274528</v>
       </c>
       <c r="G52">
-        <v>0.5443856340099582</v>
+        <v>0.3314741404633367</v>
       </c>
       <c r="H52">
-        <v>0.08958658584046118</v>
+        <v>0.6013227409001676</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressure in terms of constraints</t>
+          <t>specific_factorInvitation from others' to help</t>
         </is>
       </c>
       <c r="C53">
-        <v>0.04630083280749332</v>
+        <v>-0.1137884293616499</v>
       </c>
       <c r="D53">
-        <v>0.05326392758669015</v>
+        <v>0.02676376127506922</v>
       </c>
       <c r="E53">
-        <v>3.301902655975277</v>
+        <v>1.716135017223322</v>
       </c>
       <c r="F53">
-        <v>-0.1142353633518694</v>
+        <v>-0.2446967687955672</v>
       </c>
       <c r="G53">
-        <v>0.2044804910863602</v>
+        <v>0.0211940186071993</v>
       </c>
       <c r="H53">
-        <v>0.4429949841371444</v>
+        <v>0.06590049183562008</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>specific_factorExternal pressures</t>
+          <t>specific_factorLow Personal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C54">
-        <v>0.2750729743326285</v>
+        <v>-0.03906591467157763</v>
       </c>
       <c r="D54">
-        <v>0.03595084402728761</v>
+        <v>0.02676376118115715</v>
       </c>
       <c r="E54">
-        <v>4.026741448695766</v>
+        <v>1.716135017223319</v>
       </c>
       <c r="F54">
-        <v>0.1807802508436133</v>
+        <v>-0.1728145217284749</v>
       </c>
       <c r="G54">
-        <v>0.3643550809519047</v>
+        <v>0.09609731015244399</v>
       </c>
       <c r="H54">
-        <v>0.001381527197659937</v>
+        <v>0.3005452571974715</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>specific_factorExtrinsic goals</t>
+          <t>specific_factorMastery goals</t>
         </is>
       </c>
       <c r="C55">
-        <v>0.246840242895402</v>
+        <v>-0.1246414406190012</v>
       </c>
       <c r="D55">
-        <v>0.09899684672135588</v>
+        <v>0.05441892145406359</v>
       </c>
       <c r="E55">
-        <v>1.735880606558506</v>
+        <v>2.66076004921956</v>
       </c>
       <c r="F55">
-        <v>-0.2378149703437954</v>
+        <v>-0.3019513342552809</v>
       </c>
       <c r="G55">
-        <v>0.6330845875062666</v>
+        <v>0.06100350855324452</v>
       </c>
       <c r="H55">
-        <v>0.1443592361303601</v>
+        <v>0.1159327803433736</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>specific_factorHarmonious passion</t>
+          <t>specific_factorNeed frustration</t>
         </is>
       </c>
       <c r="C56">
-        <v>0.0574440826215883</v>
+        <v>0.2883870388056478</v>
       </c>
       <c r="D56">
-        <v>0.06081110982036628</v>
+        <v>0.0505503211387782</v>
       </c>
       <c r="E56">
-        <v>1.364937798922799</v>
+        <v>8.648931032153852</v>
       </c>
       <c r="F56">
-        <v>-0.3484155956460986</v>
+        <v>0.1797669416141782</v>
       </c>
       <c r="G56">
-        <v>0.4451650685927608</v>
+        <v>0.3900596197393902</v>
       </c>
       <c r="H56">
-        <v>0.4811964297246546</v>
+        <v>0.0002769251636026732</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>specific_factorIll-being</t>
+          <t>specific_factorNeed satisfaction</t>
         </is>
       </c>
       <c r="C57">
-        <v>0.2754708458368109</v>
+        <v>-0.1248831161897737</v>
       </c>
       <c r="D57">
-        <v>0.08277583236625692</v>
+        <v>0.04127040047353934</v>
       </c>
       <c r="E57">
-        <v>7.374173737487732</v>
+        <v>10.24033659020487</v>
       </c>
       <c r="F57">
-        <v>0.08880152892064082</v>
+        <v>-0.2138505383635808</v>
       </c>
       <c r="G57">
-        <v>0.4434463407167202</v>
+        <v>-0.0338610433653001</v>
       </c>
       <c r="H57">
-        <v>0.01033764365192861</v>
+        <v>0.0121048934807501</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>specific_factorIncremental beliefs</t>
+          <t>specific_factorNegative personality</t>
         </is>
       </c>
       <c r="C58">
-        <v>-0.05717522139354828</v>
+        <v>0.2976364396150739</v>
       </c>
       <c r="D58">
-        <v>0.01407032109565661</v>
+        <v>0.03616843188837204</v>
       </c>
       <c r="E58">
-        <v>1.378114695226021</v>
+        <v>3.109573658272737</v>
       </c>
       <c r="F58">
-        <v>-0.1520302799598909</v>
+        <v>0.1916804057091648</v>
       </c>
       <c r="G58">
-        <v>0.03872343436884283</v>
+        <v>0.3967345570667549</v>
       </c>
       <c r="H58">
-        <v>0.0994468051128457</v>
+        <v>0.002995088291809857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>specific_factorInternal pressures</t>
+          <t>specific_factorObsessive passion</t>
         </is>
       </c>
       <c r="C59">
-        <v>0.1631063012748051</v>
+        <v>0.218491089930068</v>
       </c>
       <c r="D59">
-        <v>0.0391342118540404</v>
+        <v>0.05651040004809743</v>
       </c>
       <c r="E59">
-        <v>2.006151387009912</v>
+        <v>1.00377388649368</v>
       </c>
       <c r="F59">
-        <v>-0.003310866155017521</v>
+        <v>-0.4539097107944942</v>
       </c>
       <c r="G59">
-        <v>0.320732484228308</v>
+        <v>0.7323400916091274</v>
       </c>
       <c r="H59">
-        <v>0.05188109251685272</v>
+        <v>0.1579055225969072</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>specific_factorIntrinsic goals</t>
+          <t>specific_factorOthers' abilities</t>
         </is>
       </c>
       <c r="C60">
-        <v>-0.04828274507648504</v>
+        <v>-0.3783007632531489</v>
       </c>
       <c r="D60">
-        <v>0.07801523106121762</v>
+        <v>0.1068467913189321</v>
       </c>
       <c r="E60">
-        <v>1.735880606558507</v>
+        <v>1.442242278173071</v>
       </c>
       <c r="F60">
-        <v>-0.4119989592367203</v>
+        <v>-0.7925528457359664</v>
       </c>
       <c r="G60">
-        <v>0.328705140638154</v>
+        <v>0.2748563053759174</v>
       </c>
       <c r="H60">
-        <v>0.607054973062515</v>
+        <v>0.1047680012377317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>specific_factorInvitation from others' to help</t>
+          <t>specific_factorOthers' autonomous motivation</t>
         </is>
       </c>
       <c r="C61">
-        <v>-0.1164262886494739</v>
+        <v>-0.05642148489684476</v>
       </c>
       <c r="D61">
-        <v>0.02867722707966331</v>
+        <v>0.07319715617241659</v>
       </c>
       <c r="E61">
-        <v>1.644389228205654</v>
+        <v>5.813060001249651</v>
       </c>
       <c r="F61">
-        <v>-0.2634377607933919</v>
+        <v>-0.232654422715325</v>
       </c>
       <c r="G61">
-        <v>0.03587023754062333</v>
+        <v>0.1233988978043169</v>
       </c>
       <c r="H61">
-        <v>0.07588587490336964</v>
+        <v>0.4705241159170185</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>specific_factorLow Personal responsibility for others' motivation</t>
+          <t>specific_factorOthers' controlled motivation</t>
         </is>
       </c>
       <c r="C62">
-        <v>-0.04173483088811094</v>
+        <v>0.07783157927059144</v>
       </c>
       <c r="D62">
-        <v>0.02867722699077257</v>
+        <v>0.03524552273544265</v>
       </c>
       <c r="E62">
-        <v>1.644389228205656</v>
+        <v>1.077060139130863</v>
       </c>
       <c r="F62">
-        <v>-0.1921815360248191</v>
+        <v>-0.2920399993479034</v>
       </c>
       <c r="G62">
-        <v>0.1106285517837352</v>
+        <v>0.4274510046745856</v>
       </c>
       <c r="H62">
-        <v>0.3071351767894417</v>
+        <v>0.2557970760914569</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>specific_factorMastery goals</t>
+          <t>specific_factorOthers' negative behaviours</t>
         </is>
       </c>
       <c r="C63">
-        <v>-0.1339325330582583</v>
+        <v>0.4894104786981272</v>
       </c>
       <c r="D63">
-        <v>0.06005319405253089</v>
+        <v>0.1545325837553085</v>
       </c>
       <c r="E63">
-        <v>2.650938143496861</v>
+        <v>1.016106456011478</v>
       </c>
       <c r="F63">
-        <v>-0.3282934003964745</v>
+        <v>-0.8755073935227777</v>
       </c>
       <c r="G63">
-        <v>0.07130888751480668</v>
+        <v>0.9845191409446763</v>
       </c>
       <c r="H63">
-        <v>0.1222255476583954</v>
+        <v>0.1757761788796147</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>specific_factorNeed frustration</t>
+          <t>specific_factorOthers' negative emotions</t>
         </is>
       </c>
       <c r="C64">
-        <v>0.2829530332894469</v>
+        <v>0.2358766964642103</v>
       </c>
       <c r="D64">
-        <v>0.03744617934899078</v>
+        <v>0.02498995141502928</v>
       </c>
       <c r="E64">
-        <v>7.953232257210509</v>
+        <v>3.176471442792313</v>
       </c>
       <c r="F64">
-        <v>0.2016478904980107</v>
+        <v>0.1618795314638386</v>
       </c>
       <c r="G64">
-        <v>0.3603853647388794</v>
+        <v>0.3072360577245164</v>
       </c>
       <c r="H64">
-        <v>5.568128384146473e-05</v>
+        <v>0.001873610310657109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>specific_factorNeed satisfaction</t>
+          <t>specific_factorOthers' positive behaviours</t>
         </is>
       </c>
       <c r="C65">
-        <v>-0.1265036918422774</v>
+        <v>-0.02487922218498704</v>
       </c>
       <c r="D65">
-        <v>0.03565347145779352</v>
+        <v>0.01441704708591483</v>
       </c>
       <c r="E65">
-        <v>9.759286425950553</v>
+        <v>1.015373364099885</v>
       </c>
       <c r="F65">
-        <v>-0.2039900620881592</v>
+        <v>-0.1989551257613001</v>
       </c>
       <c r="G65">
-        <v>-0.04744214175646551</v>
+        <v>0.1507186072520233</v>
       </c>
       <c r="H65">
-        <v>0.005318950330922309</v>
+        <v>0.3314795880445214</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>specific_factorNegative personality</t>
+          <t>specific_factorOthers' positive emotions</t>
         </is>
       </c>
       <c r="C66">
-        <v>0.2877578300208043</v>
+        <v>-0.1594508221322965</v>
       </c>
       <c r="D66">
-        <v>0.03091265211266894</v>
+        <v>0.02497644763005028</v>
       </c>
       <c r="E66">
-        <v>3.083048026487834</v>
+        <v>1.117181169940093</v>
       </c>
       <c r="F66">
-        <v>0.1966298138254668</v>
+        <v>-0.3879477399806621</v>
       </c>
       <c r="G66">
-        <v>0.3739569463804141</v>
+        <v>0.08751120239070861</v>
       </c>
       <c r="H66">
-        <v>0.002154196270799892</v>
+        <v>0.08084784918494875</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>specific_factorObsessive passion</t>
+          <t>specific_factorPerformance goals</t>
         </is>
       </c>
       <c r="C67">
-        <v>0.2472438640516283</v>
+        <v>0.1557794368867143</v>
       </c>
       <c r="D67">
-        <v>0.06081110982036631</v>
+        <v>0.05080689911771066</v>
       </c>
       <c r="E67">
-        <v>1.364937798922799</v>
+        <v>1.934921602198771</v>
       </c>
       <c r="F67">
-        <v>-0.167090033067116</v>
+        <v>-0.06863732316947554</v>
       </c>
       <c r="G67">
-        <v>0.5873572378801836</v>
+        <v>0.3651902429002208</v>
       </c>
       <c r="H67">
-        <v>0.09821833627065936</v>
+        <v>0.09445245638960942</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>specific_factorOthers' abilities</t>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C68">
-        <v>-0.3817675117922412</v>
+        <v>-0.09578148780863602</v>
       </c>
       <c r="D68">
-        <v>0.1081144487298978</v>
+        <v>0.04726395386596582</v>
       </c>
       <c r="E68">
-        <v>1.425979211234832</v>
+        <v>3.560073430362654</v>
       </c>
       <c r="F68">
-        <v>-0.801243208143648</v>
+        <v>-0.2297743262597555</v>
       </c>
       <c r="G68">
-        <v>0.2893173044236497</v>
+        <v>0.04177484771258536</v>
       </c>
       <c r="H68">
-        <v>0.1066428758529473</v>
+        <v>0.1204982131172623</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>specific_factorOthers' autonomous motivation</t>
+          <t>specific_factorPrior positive related experiences</t>
         </is>
       </c>
       <c r="C69">
-        <v>-0.1719887752303934</v>
+        <v>-0.04910490447954216</v>
       </c>
       <c r="D69">
-        <v>0.1388641179717061</v>
+        <v>0.02676376181290331</v>
       </c>
       <c r="E69">
-        <v>4.929355737718722</v>
+        <v>1.716135017223319</v>
       </c>
       <c r="F69">
-        <v>-0.48707709450757</v>
+        <v>-0.1825554885425084</v>
       </c>
       <c r="G69">
-        <v>0.1827153982879102</v>
+        <v>0.08612227198556321</v>
       </c>
       <c r="H69">
-        <v>0.2670358401227546</v>
+        <v>0.2281633608780483</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>specific_factorOthers' controlled motivation</t>
+          <t>specific_factorSelf-efficacy</t>
         </is>
       </c>
       <c r="C70">
-        <v>0.04533833373215902</v>
+        <v>-0.09176787640326906</v>
       </c>
       <c r="D70">
-        <v>0.03845130581195172</v>
+        <v>0.0232601113746296</v>
       </c>
       <c r="E70">
-        <v>1.049109090770325</v>
+        <v>1.746450819882043</v>
       </c>
       <c r="F70">
-        <v>-0.3733723258115813</v>
+        <v>-0.2044816201926417</v>
       </c>
       <c r="G70">
-        <v>0.4487027938535518</v>
+        <v>0.02334748389045535</v>
       </c>
       <c r="H70">
-        <v>0.4404331948423506</v>
+        <v>0.07245429031208854</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative behaviours</t>
+          <t>specific_factorSocial connection/support</t>
         </is>
       </c>
       <c r="C71">
-        <v>0.4360334471970248</v>
+        <v>-0.152227723592326</v>
       </c>
       <c r="D71">
-        <v>0.1438834538451518</v>
+        <v>0.0582709994287994</v>
       </c>
       <c r="E71">
-        <v>1.842020252900795</v>
+        <v>1.005769501901323</v>
       </c>
       <c r="F71">
-        <v>-0.2026828189865191</v>
+        <v>-0.7083486988947609</v>
       </c>
       <c r="G71">
-        <v>0.8144726166238004</v>
+        <v>0.5204971205718171</v>
       </c>
       <c r="H71">
-        <v>0.09260199777365283</v>
+        <v>0.2299272522879578</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>specific_factorOthers' negative emotions</t>
+          <t>specific_factorStyle-related beliefs</t>
         </is>
       </c>
       <c r="C72">
-        <v>0.2412398737717333</v>
+        <v>0.4258580699112239</v>
       </c>
       <c r="D72">
-        <v>0.02314088119075628</v>
+        <v>0.1076442013003445</v>
       </c>
       <c r="E72">
-        <v>3.165101328804697</v>
+        <v>1.024332527681509</v>
       </c>
       <c r="F72">
-        <v>0.1728197976544551</v>
+        <v>-0.6850054837212699</v>
       </c>
       <c r="G72">
-        <v>0.3073429598949379</v>
+        <v>0.9411631192995726</v>
       </c>
       <c r="H72">
-        <v>0.001395993256132434</v>
+        <v>0.1434126093455353</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive behaviours</t>
+          <t>specific_factorWell-being</t>
         </is>
       </c>
       <c r="C73">
-        <v>0.009735452668157552</v>
+        <v>-0.1927965328223471</v>
       </c>
       <c r="D73">
-        <v>0.03218077403074981</v>
+        <v>0.05973090959374554</v>
       </c>
       <c r="E73">
-        <v>1.050206325334537</v>
+        <v>4.190170459547945</v>
       </c>
       <c r="F73">
-        <v>-0.3414558930301018</v>
+        <v>-0.34358615442529</v>
       </c>
       <c r="G73">
-        <v>0.3585414323045586</v>
+        <v>-0.03231578572974</v>
       </c>
       <c r="H73">
-        <v>0.8111009741768228</v>
+        <v>0.02879923507126558</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>specific_factorOthers' positive emotions</t>
+          <t>specific_factorAmotivation</t>
         </is>
       </c>
       <c r="C74">
-        <v>-0.1586458638585899</v>
+        <v>-0.2143375756846427</v>
       </c>
       <c r="D74">
-        <v>0.0264628816173115</v>
+        <v>0.06294376932410273</v>
       </c>
       <c r="E74">
-        <v>1.09415107177412</v>
+        <v>2.017642833633842</v>
       </c>
       <c r="F74">
-        <v>-0.409504181921235</v>
+        <v>-0.4512603548127572</v>
       </c>
       <c r="G74">
-        <v>0.1145162159179259</v>
+        <v>0.05081120389859965</v>
       </c>
       <c r="H74">
-        <v>0.08979208104482481</v>
+        <v>0.07345805258447072</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>specific_factorPerformance goals</t>
+          <t>specific_factorAutonomous causality orientation</t>
         </is>
       </c>
       <c r="C75">
-        <v>0.1508280283598482</v>
+        <v>0.2745465770029769</v>
       </c>
       <c r="D75">
-        <v>0.05369139841781242</v>
+        <v>0.1310372732148015</v>
       </c>
       <c r="E75">
-        <v>1.924424853888363</v>
+        <v>2.017332190207021</v>
       </c>
       <c r="F75">
-        <v>-0.08771728322041628</v>
+        <v>-0.2705125718803458</v>
       </c>
       <c r="G75">
-        <v>0.3730130277107926</v>
+        <v>0.6863202112951647</v>
       </c>
       <c r="H75">
-        <v>0.1100675946419245</v>
+        <v>0.1634025803541206</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation</t>
+          <t>specific_factorAutonomous motivation</t>
         </is>
       </c>
       <c r="C76">
-        <v>-0.1242208138640595</v>
+        <v>0.2783401676733868</v>
       </c>
       <c r="D76">
-        <v>0.02633922780709083</v>
+        <v>0.05987575131149001</v>
       </c>
       <c r="E76">
-        <v>1.154918981904725</v>
+        <v>6.633543721438171</v>
       </c>
       <c r="F76">
-        <v>-0.3540364993102846</v>
+        <v>0.1417364636771488</v>
       </c>
       <c r="G76">
-        <v>0.119742454044648</v>
+        <v>0.4045410361771323</v>
       </c>
       <c r="H76">
-        <v>0.1074187282522257</v>
+        <v>0.002346050221850966</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>specific_factorPersonal responsibility for others' motivation motivation</t>
+          <t>specific_factorControlled causality orientation</t>
         </is>
       </c>
       <c r="C77">
-        <v>-0.1174725182627606</v>
+        <v>-0.3100847870703847</v>
       </c>
       <c r="D77">
-        <v>0.112940401852318</v>
+        <v>0.07365198804975019</v>
       </c>
       <c r="E77">
-        <v>1.898402626331899</v>
+        <v>1.347703758927217</v>
       </c>
       <c r="F77">
-        <v>-0.557882326482349</v>
+        <v>-0.6864331348173645</v>
       </c>
       <c r="G77">
-        <v>0.3745614838435055</v>
+        <v>0.1972799489475739</v>
       </c>
       <c r="H77">
-        <v>0.4106965428909208</v>
+        <v>0.09416659652659461</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>specific_factorPrior positive related experiences</t>
+          <t>specific_factorControlled motivation</t>
         </is>
       </c>
       <c r="C78">
-        <v>-0.05177138307180371</v>
+        <v>-0.006018479969041677</v>
       </c>
       <c r="D78">
-        <v>0.02867722758873927</v>
+        <v>0.03583908648154617</v>
       </c>
       <c r="E78">
-        <v>1.644389228205655</v>
+        <v>6.140662801520097</v>
       </c>
       <c r="F78">
-        <v>-0.2018496451849264</v>
+        <v>-0.09295982221930622</v>
       </c>
       <c r="G78">
-        <v>0.1006823026871311</v>
+        <v>0.0810139458368388</v>
       </c>
       <c r="H78">
-        <v>0.238945419225452</v>
+        <v>0.8720310332973261</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>specific_factorSelf-efficacy</t>
+          <t>specific_factorExternal pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C79">
-        <v>-0.09477156564789474</v>
+        <v>-0.08308736852034149</v>
       </c>
       <c r="D79">
-        <v>0.02334135112966502</v>
+        <v>0.06719793087765237</v>
       </c>
       <c r="E79">
-        <v>1.708691424079592</v>
+        <v>1.020298892367233</v>
       </c>
       <c r="F79">
-        <v>-0.2106185335025161</v>
+        <v>-0.7153205769597313</v>
       </c>
       <c r="G79">
-        <v>0.02370038564389566</v>
+        <v>0.6239437351031352</v>
       </c>
       <c r="H79">
-        <v>0.07159216299578061</v>
+        <v>0.429107538896399</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>specific_factorSocial connection/support</t>
+          <t>specific_factorExternal pressures</t>
         </is>
       </c>
       <c r="C80">
-        <v>-0.1113637028458412</v>
+        <v>-0.117207455838248</v>
       </c>
       <c r="D80">
-        <v>0.0601960633093656</v>
+        <v>0.0293117939601481</v>
       </c>
       <c r="E80">
-        <v>1.493052164237642</v>
+        <v>1.022107034217293</v>
       </c>
       <c r="F80">
-        <v>-0.443337218783322</v>
+        <v>-0.439558448432852</v>
       </c>
       <c r="G80">
-        <v>0.2474754179928518</v>
+        <v>0.2318901391382044</v>
       </c>
       <c r="H80">
-        <v>0.2453169876522367</v>
+        <v>0.151141753905157</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>specific_factorStyle-related beliefs</t>
+          <t>specific_factorIll-being</t>
         </is>
       </c>
       <c r="C81">
-        <v>0.4244220471844439</v>
+        <v>-0.1790856571624096</v>
       </c>
       <c r="D81">
-        <v>0.1095584451808373</v>
+        <v>0.05271251665427008</v>
       </c>
       <c r="E81">
-        <v>1.020792647086891</v>
+        <v>1.009058218321037</v>
       </c>
       <c r="F81">
-        <v>-0.7032733663483742</v>
+        <v>-0.6840952253059411</v>
       </c>
       <c r="G81">
-        <v>0.9446838299123347</v>
+        <v>0.441985518278838</v>
       </c>
       <c r="H81">
-        <v>0.14713500548453</v>
+        <v>0.1785946683172642</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>specific_factorInvitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C82">
+        <v>0.005690604844027594</v>
+      </c>
+      <c r="D82">
+        <v>0.02021750381268017</v>
+      </c>
+      <c r="E82">
+        <v>1.186945167990011</v>
+      </c>
+      <c r="F82">
+        <v>-0.1711131019498839</v>
+      </c>
+      <c r="G82">
+        <v>0.1821392431211733</v>
+      </c>
+      <c r="H82">
+        <v>0.8194429463878767</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>specific_factorLow Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C83">
+        <v>0.03823639419939241</v>
+      </c>
+      <c r="D83">
+        <v>0.02021750365240062</v>
+      </c>
+      <c r="E83">
+        <v>1.186945167990011</v>
+      </c>
+      <c r="F83">
+        <v>-0.1393363627037705</v>
+      </c>
+      <c r="G83">
+        <v>0.2134266742878174</v>
+      </c>
+      <c r="H83">
+        <v>0.27806652656481</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals</t>
+        </is>
+      </c>
+      <c r="C84">
+        <v>0.1367309742832254</v>
+      </c>
+      <c r="D84">
+        <v>0.1116014798769903</v>
+      </c>
+      <c r="E84">
+        <v>1.013098655600616</v>
+      </c>
+      <c r="F84">
+        <v>-0.8448379611899132</v>
+      </c>
+      <c r="G84">
+        <v>0.9074741992169865</v>
+      </c>
+      <c r="H84">
+        <v>0.4318262367775567</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration</t>
+        </is>
+      </c>
+      <c r="C85">
+        <v>-0.2013475534999431</v>
+      </c>
+      <c r="D85">
+        <v>0.06395650885984235</v>
+      </c>
+      <c r="E85">
+        <v>1.730627118826945</v>
+      </c>
+      <c r="F85">
+        <v>-0.4813427723828045</v>
+      </c>
+      <c r="G85">
+        <v>0.1159335723354795</v>
+      </c>
+      <c r="H85">
+        <v>0.1030710853102173</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction</t>
+        </is>
+      </c>
+      <c r="C86">
+        <v>0.2784987507819183</v>
+      </c>
+      <c r="D86">
+        <v>0.05875402369613935</v>
+      </c>
+      <c r="E86">
+        <v>5.422125217318395</v>
+      </c>
+      <c r="F86">
+        <v>0.1376121662555957</v>
+      </c>
+      <c r="G86">
+        <v>0.4083395482467356</v>
+      </c>
+      <c r="H86">
+        <v>0.003694969801368274</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C87">
+        <v>0.3392594235426092</v>
+      </c>
+      <c r="D87">
+        <v>0.01467628297854967</v>
+      </c>
+      <c r="E87">
+        <v>1.020298892367232</v>
+      </c>
+      <c r="F87">
+        <v>0.1735438254818619</v>
+      </c>
+      <c r="G87">
+        <v>0.4862921501320518</v>
+      </c>
+      <c r="H87">
+        <v>0.02488096234275746</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions</t>
+        </is>
+      </c>
+      <c r="C88">
+        <v>-0.08678597534512579</v>
+      </c>
+      <c r="D88">
+        <v>0.01529919963631109</v>
+      </c>
+      <c r="E88">
+        <v>1.164845717015778</v>
+      </c>
+      <c r="F88">
+        <v>-0.223232607486943</v>
+      </c>
+      <c r="G88">
+        <v>0.05299628648546597</v>
+      </c>
+      <c r="H88">
+        <v>0.08630737059626216</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C89">
+        <v>0.2639722714518193</v>
+      </c>
+      <c r="D89">
+        <v>0.005208814205308543</v>
+      </c>
+      <c r="E89">
+        <v>1.007332488279868</v>
+      </c>
+      <c r="F89">
+        <v>0.2024796211677113</v>
+      </c>
+      <c r="G89">
+        <v>0.3233914116278959</v>
+      </c>
+      <c r="H89">
+        <v>0.011930166505186</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals</t>
+        </is>
+      </c>
+      <c r="C90">
+        <v>-0.05377956250708927</v>
+      </c>
+      <c r="D90">
+        <v>0.324074133719043</v>
+      </c>
+      <c r="E90">
+        <v>1.013098655600617</v>
+      </c>
+      <c r="F90">
+        <v>-0.9993905271899871</v>
+      </c>
+      <c r="G90">
+        <v>0.9992441468400729</v>
+      </c>
+      <c r="H90">
+        <v>0.8949401615279048</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C91">
+        <v>0.1968828364141614</v>
+      </c>
+      <c r="D91">
+        <v>0.103168243225763</v>
+      </c>
+      <c r="E91">
+        <v>1.797772931932619</v>
+      </c>
+      <c r="F91">
+        <v>-0.2875260847143169</v>
+      </c>
+      <c r="G91">
+        <v>0.6010839037992252</v>
+      </c>
+      <c r="H91">
+        <v>0.2069398858875723</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>specific_factorPrior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C92">
+        <v>0.06351798719999908</v>
+      </c>
+      <c r="D92">
+        <v>0.02021750388510665</v>
+      </c>
+      <c r="E92">
+        <v>1.186945167990012</v>
+      </c>
+      <c r="F92">
+        <v>-0.1143971826499411</v>
+      </c>
+      <c r="G92">
+        <v>0.2374852852499919</v>
+      </c>
+      <c r="H92">
+        <v>0.1634644359830576</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>0.06822765902086454</v>
+      </c>
+      <c r="D93">
+        <v>0.02021750375190322</v>
+      </c>
+      <c r="E93">
+        <v>1.186945167990011</v>
+      </c>
+      <c r="F93">
+        <v>-0.1097263855506597</v>
+      </c>
+      <c r="G93">
+        <v>0.2419436685783103</v>
+      </c>
+      <c r="H93">
+        <v>0.1510176132091878</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>0.3100360989718849</v>
+      </c>
+      <c r="D94">
+        <v>0.08441424192559491</v>
+      </c>
+      <c r="E94">
+        <v>1.827304475129801</v>
+      </c>
+      <c r="F94">
+        <v>-0.07742577866288775</v>
+      </c>
+      <c r="G94">
+        <v>0.616135510937198</v>
+      </c>
+      <c r="H94">
+        <v>0.07228097277351678</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>specific_factorStyle-related beliefs</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>0.1673007949582311</v>
+      </c>
+      <c r="D95">
+        <v>0.06794766793479247</v>
+      </c>
+      <c r="E95">
+        <v>1.021146242362653</v>
+      </c>
+      <c r="F95">
+        <v>-0.5739171561596019</v>
+      </c>
+      <c r="G95">
+        <v>0.7578400731730346</v>
+      </c>
+      <c r="H95">
+        <v>0.2393383378819968</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>specific_factorWell-being</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>0.05623718540911971</v>
+      </c>
+      <c r="D96">
+        <v>0.04994295692994571</v>
+      </c>
+      <c r="E96">
+        <v>1.026777446032618</v>
+      </c>
+      <c r="F96">
+        <v>-0.493355956351646</v>
+      </c>
+      <c r="G96">
+        <v>0.5737393645034606</v>
+      </c>
+      <c r="H96">
+        <v>0.4581472546635285</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>specific_factorAmotivation</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>0.3189390761991936</v>
+      </c>
+      <c r="D97">
+        <v>0.03782030329276428</v>
+      </c>
+      <c r="E97">
+        <v>2.033725096856973</v>
+      </c>
+      <c r="F97">
+        <v>0.168669375531419</v>
+      </c>
+      <c r="G97">
+        <v>0.4547198346399008</v>
+      </c>
+      <c r="H97">
+        <v>0.01219993278472378</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous motivation</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>-0.05457802570611594</v>
+      </c>
+      <c r="D98">
+        <v>0.02775260497846484</v>
+      </c>
+      <c r="E98">
+        <v>6.076131925206898</v>
+      </c>
+      <c r="F98">
+        <v>-0.1217281245573344</v>
+      </c>
+      <c r="G98">
+        <v>0.01306939933872704</v>
+      </c>
+      <c r="H98">
+        <v>0.0959431274778734</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>specific_factorControlled motivation</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>0.1568929226467321</v>
+      </c>
+      <c r="D99">
+        <v>0.09538607504230837</v>
+      </c>
+      <c r="E99">
+        <v>6.07945927915633</v>
+      </c>
+      <c r="F99">
+        <v>-0.07432690726726791</v>
+      </c>
+      <c r="G99">
+        <v>0.3721043548693267</v>
+      </c>
+      <c r="H99">
+        <v>0.1476380624254391</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>specific_factorIll-being</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>0.3107994237169677</v>
+      </c>
+      <c r="D100">
+        <v>0.1076186992962855</v>
+      </c>
+      <c r="E100">
+        <v>1.009888505245436</v>
+      </c>
+      <c r="F100">
+        <v>-0.7677223702006324</v>
+      </c>
+      <c r="G100">
+        <v>0.9298954991489474</v>
+      </c>
+      <c r="H100">
+        <v>0.2037088974235737</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>0.2544919919213356</v>
+      </c>
+      <c r="D101">
+        <v>0.02585057092165801</v>
+      </c>
+      <c r="E101">
+        <v>1.77242542424913</v>
+      </c>
+      <c r="F101">
+        <v>0.1333141548610919</v>
+      </c>
+      <c r="G101">
+        <v>0.3681727179079123</v>
+      </c>
+      <c r="H101">
+        <v>0.01434874993461752</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>-0.1190549027030366</v>
+      </c>
+      <c r="D102">
+        <v>0.0715648672830774</v>
+      </c>
+      <c r="E102">
+        <v>2.732256853538919</v>
+      </c>
+      <c r="F102">
+        <v>-0.3456852589173842</v>
+      </c>
+      <c r="G102">
+        <v>0.1206993067552608</v>
+      </c>
+      <c r="H102">
+        <v>0.2020468885266315</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative emotions</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>0.1702290661767039</v>
+      </c>
+      <c r="D103">
+        <v>0.05747241468259994</v>
+      </c>
+      <c r="E103">
+        <v>1.002372385512073</v>
+      </c>
+      <c r="F103">
+        <v>-0.5037226571280315</v>
+      </c>
+      <c r="G103">
+        <v>0.7153652128692767</v>
+      </c>
+      <c r="H103">
+        <v>0.2049288198321126</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>-0.1330854331322173</v>
+      </c>
+      <c r="D104">
+        <v>0.02897295156335095</v>
+      </c>
+      <c r="E104">
+        <v>2.032198828331685</v>
+      </c>
+      <c r="F104">
+        <v>-0.2511748526520292</v>
+      </c>
+      <c r="G104">
+        <v>-0.01109239299325521</v>
+      </c>
+      <c r="H104">
+        <v>0.04246983896643225</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>-0.08528977992571063</v>
+      </c>
+      <c r="D105">
+        <v>0.01668183331140946</v>
+      </c>
+      <c r="E105">
+        <v>1.30826860076497</v>
+      </c>
+      <c r="F105">
+        <v>-0.2062895441980146</v>
+      </c>
+      <c r="G105">
+        <v>0.03827914666101544</v>
+      </c>
+      <c r="H105">
+        <v>0.08021849905147331</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>specific_factorWell-being</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>-0.1478334265919949</v>
+      </c>
+      <c r="D106">
+        <v>0.05246945831921016</v>
+      </c>
+      <c r="E106">
+        <v>1.100535887912989</v>
+      </c>
+      <c r="F106">
+        <v>-0.5964336669607164</v>
+      </c>
+      <c r="G106">
+        <v>0.3711393784965047</v>
+      </c>
+      <c r="H106">
+        <v>0.1968988948896577</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous motivation</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>0.4369184463640202</v>
+      </c>
+      <c r="D107">
+        <v>0.05522316172319774</v>
+      </c>
+      <c r="E107">
+        <v>3.29386151474753</v>
+      </c>
+      <c r="F107">
+        <v>0.2924255142293159</v>
+      </c>
+      <c r="G107">
+        <v>0.5619065459984958</v>
+      </c>
+      <c r="H107">
+        <v>0.002392363068514873</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>specific_factorControlled motivation</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>-0.08406684328919416</v>
+      </c>
+      <c r="D108">
+        <v>0.1209992760248023</v>
+      </c>
+      <c r="E108">
+        <v>2.852728647511434</v>
+      </c>
+      <c r="F108">
+        <v>-0.4469109270752078</v>
+      </c>
+      <c r="G108">
+        <v>0.3025299517280574</v>
+      </c>
+      <c r="H108">
+        <v>0.5386394572643579</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>specific_factorIll-being</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>0.003967924630116271</v>
+      </c>
+      <c r="D109">
+        <v>5.832346047721578e-05</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0.003226864424654786</v>
+      </c>
+      <c r="G109">
+        <v>0.004708980477402621</v>
+      </c>
+      <c r="H109">
+        <v>0.009356780462242786</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>0.2442839260708657</v>
+      </c>
+      <c r="D110">
+        <v>0.0730588071358674</v>
+      </c>
+      <c r="E110">
+        <v>1.705551523465186</v>
+      </c>
+      <c r="F110">
+        <v>-0.122589695389022</v>
+      </c>
+      <c r="G110">
+        <v>0.5524211406604633</v>
+      </c>
+      <c r="H110">
+        <v>0.09472320646981329</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>specific_factorNegative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>-0.05759308966138248</v>
+      </c>
+      <c r="D111">
+        <v>4.286099236860712e-18</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>-0.05759308966138254</v>
+      </c>
+      <c r="G111">
+        <v>-0.05759308966138243</v>
+      </c>
+      <c r="H111">
+        <v>4.732505161479933e-17</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>-0.09002152250063011</v>
+      </c>
+      <c r="D112">
+        <v>0.2228922461149246</v>
+      </c>
+      <c r="E112">
+        <v>1.864004953010727</v>
+      </c>
+      <c r="F112">
+        <v>-0.8074180819325639</v>
+      </c>
+      <c r="G112">
+        <v>0.734778450071528</v>
+      </c>
+      <c r="H112">
+        <v>0.7272051396898214</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>0.2144559910482508</v>
+      </c>
+      <c r="D113">
+        <v>0.0230884636416113</v>
+      </c>
+      <c r="E113">
+        <v>1.221208801395153</v>
+      </c>
+      <c r="F113">
+        <v>0.02452089037359838</v>
+      </c>
+      <c r="G113">
+        <v>0.3894480360588053</v>
+      </c>
+      <c r="H113">
+        <v>0.04328008987227164</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' positive emotions</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>0.2333923811069229</v>
+      </c>
+      <c r="D114">
+        <v>0.04395090695406596</v>
+      </c>
+      <c r="E114">
+        <v>1.021785461294021</v>
+      </c>
+      <c r="F114">
+        <v>-0.2851778124508293</v>
+      </c>
+      <c r="G114">
+        <v>0.6462648278208326</v>
+      </c>
+      <c r="H114">
+        <v>0.11259031049122</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>specific_factorPositive attitudes</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>0.2885926252988554</v>
+      </c>
+      <c r="D115">
+        <v>0.05352851746816697</v>
+      </c>
+      <c r="E115">
+        <v>1.373139587304204</v>
+      </c>
+      <c r="F115">
+        <v>-0.07007613782109801</v>
+      </c>
+      <c r="G115">
+        <v>0.5811860572798422</v>
+      </c>
+      <c r="H115">
+        <v>0.06642656097926117</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>specific_factorPositive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>0.1730474015149224</v>
+      </c>
+      <c r="D116">
+        <v>1.766125272059954e-17</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0.1730474015149222</v>
+      </c>
+      <c r="G116">
+        <v>0.1730474015149226</v>
+      </c>
+      <c r="H116">
+        <v>6.43197276371042e-17</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>0.1927432768283364</v>
+      </c>
+      <c r="D117">
+        <v>0.05352851746816655</v>
+      </c>
+      <c r="E117">
+        <v>1.373139587304204</v>
+      </c>
+      <c r="F117">
+        <v>-0.1703594099977158</v>
+      </c>
+      <c r="G117">
+        <v>0.5097605977595563</v>
+      </c>
+      <c r="H117">
+        <v>0.1151293008885925</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>specific_factorSocial competence</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>0.3379760456416404</v>
+      </c>
+      <c r="D118">
+        <v>0.01912667603329163</v>
+      </c>
+      <c r="E118">
+        <v>1.19489962204463</v>
+      </c>
+      <c r="F118">
+        <v>0.18296973497227</v>
+      </c>
+      <c r="G118">
+        <v>0.4765863265755797</v>
+      </c>
+      <c r="H118">
+        <v>0.02059209696299842</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>0.3820666332459082</v>
+      </c>
+      <c r="D119">
+        <v>0.01084018906598106</v>
+      </c>
+      <c r="E119">
+        <v>2.003388222726139</v>
+      </c>
+      <c r="F119">
+        <v>0.3416074682395062</v>
+      </c>
+      <c r="G119">
+        <v>0.4211123221077199</v>
+      </c>
+      <c r="H119">
+        <v>0.0007173989843748288</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous motivation</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>-0.2409051476436773</v>
+      </c>
+      <c r="D120">
+        <v>0.09718082955673021</v>
+      </c>
+      <c r="E120">
+        <v>1.000043914945585</v>
+      </c>
+      <c r="F120">
+        <v>-0.9015440624258025</v>
+      </c>
+      <c r="G120">
+        <v>0.756908515229621</v>
+      </c>
+      <c r="H120">
+        <v>0.2397392742388549</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>specific_factorControlled motivation</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>0.1178302722715739</v>
+      </c>
+      <c r="D121">
+        <v>0.002029098376844034</v>
+      </c>
+      <c r="E121">
+        <v>1.00004559270699</v>
+      </c>
+      <c r="F121">
+        <v>0.09233703948899025</v>
+      </c>
+      <c r="G121">
+        <v>0.1431691322324348</v>
+      </c>
+      <c r="H121">
+        <v>0.0109090018826237</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>0.1470129019361019</v>
+      </c>
+      <c r="D122">
+        <v>0.09913326814533115</v>
+      </c>
+      <c r="E122">
+        <v>1.193843139992879</v>
+      </c>
+      <c r="F122">
+        <v>-0.6154393486180186</v>
+      </c>
+      <c r="G122">
+        <v>0.7673301108631342</v>
+      </c>
+      <c r="H122">
+        <v>0.3459276443478236</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous motivation</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>0.4473520732354166</v>
+      </c>
+      <c r="D123">
+        <v>0.10322491195286</v>
+      </c>
+      <c r="E123">
+        <v>3.95016943894134</v>
+      </c>
+      <c r="F123">
+        <v>0.1909810462910583</v>
+      </c>
+      <c r="G123">
+        <v>0.6465889895117869</v>
+      </c>
+      <c r="H123">
+        <v>0.009857199805611118</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>specific_factorControlled motivation</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>-0.06687982390162625</v>
+      </c>
+      <c r="D124">
+        <v>0.08125612436207257</v>
+      </c>
+      <c r="E124">
+        <v>3.057573772904863</v>
+      </c>
+      <c r="F124">
+        <v>-0.3120727028416095</v>
+      </c>
+      <c r="G124">
+        <v>0.1866659349533872</v>
+      </c>
+      <c r="H124">
+        <v>0.4691529622509231</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>specific_factorExternal pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>-0.007455916894663625</v>
+      </c>
+      <c r="D125">
+        <v>0.0934573090293109</v>
+      </c>
+      <c r="E125">
+        <v>1.443288966430775</v>
+      </c>
+      <c r="F125">
+        <v>-0.5383061764933331</v>
+      </c>
+      <c r="G125">
+        <v>0.5276302943257037</v>
+      </c>
+      <c r="H125">
+        <v>0.9460339397183083</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>specific_factorExternal pressures</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>-0.006227652109419787</v>
+      </c>
+      <c r="D126">
+        <v>0.04983914483211096</v>
+      </c>
+      <c r="E126">
+        <v>1.325206864326197</v>
+      </c>
+      <c r="F126">
+        <v>-0.3524716770607133</v>
+      </c>
+      <c r="G126">
+        <v>0.3415161019102433</v>
+      </c>
+      <c r="H126">
+        <v>0.9168018202526402</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>specific_factorInvitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>0.01181923973795184</v>
+      </c>
+      <c r="D127">
+        <v>0.09388998486758325</v>
+      </c>
+      <c r="E127">
+        <v>1.408145381940909</v>
+      </c>
+      <c r="F127">
+        <v>-0.5425006201965896</v>
+      </c>
+      <c r="G127">
+        <v>0.5589686468651871</v>
+      </c>
+      <c r="H127">
+        <v>0.9153863394832911</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>specific_factorLow Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>-0.05396200559994373</v>
+      </c>
+      <c r="D128">
+        <v>0.09388998453177079</v>
+      </c>
+      <c r="E128">
+        <v>1.408145381940889</v>
+      </c>
+      <c r="F128">
+        <v>-0.5872948746311564</v>
+      </c>
+      <c r="G128">
+        <v>0.5120450463811049</v>
+      </c>
+      <c r="H128">
+        <v>0.6433914427039699</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>specific_factorMastery goals</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>0.06512222684549775</v>
+      </c>
+      <c r="D129">
+        <v>0.068978417989414</v>
+      </c>
+      <c r="E129">
+        <v>1.186660117563625</v>
+      </c>
+      <c r="F129">
+        <v>-0.4960744551200878</v>
+      </c>
+      <c r="G129">
+        <v>0.587941829991822</v>
+      </c>
+      <c r="H129">
+        <v>0.4970502046963694</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>-0.2033798744127641</v>
+      </c>
+      <c r="D130">
+        <v>0.1052664929443654</v>
+      </c>
+      <c r="E130">
+        <v>3.109418260385105</v>
+      </c>
+      <c r="F130">
+        <v>-0.4889575270276746</v>
+      </c>
+      <c r="G130">
+        <v>0.1215735717114621</v>
+      </c>
+      <c r="H130">
+        <v>0.1417049434737249</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>0.3739443763427914</v>
+      </c>
+      <c r="D131">
+        <v>0.0892051227888561</v>
+      </c>
+      <c r="E131">
+        <v>4.751634938693512</v>
+      </c>
+      <c r="F131">
+        <v>0.1586869291253382</v>
+      </c>
+      <c r="G131">
+        <v>0.5552657155267745</v>
+      </c>
+      <c r="H131">
+        <v>0.007863350842940237</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>specific_factorOthers' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>0.3611426255844751</v>
+      </c>
+      <c r="D132">
+        <v>0.05694014974671653</v>
+      </c>
+      <c r="E132">
+        <v>1.443288966430774</v>
+      </c>
+      <c r="F132">
+        <v>0.01610539761700934</v>
+      </c>
+      <c r="G132">
+        <v>0.6293214115844953</v>
+      </c>
+      <c r="H132">
+        <v>0.04702536834123559</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>specific_factorPerformance goals</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>-0.2799596299994826</v>
+      </c>
+      <c r="D133">
+        <v>0.2173574930794228</v>
+      </c>
+      <c r="E133">
+        <v>1.186660117563624</v>
+      </c>
+      <c r="F133">
+        <v>-0.9761047057456806</v>
+      </c>
+      <c r="G133">
+        <v>0.9263918480969805</v>
+      </c>
+      <c r="H133">
+        <v>0.3851783669563136</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>specific_factorPersonal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>0.04684940321408564</v>
+      </c>
+      <c r="D134">
+        <v>0.09388998503754983</v>
+      </c>
+      <c r="E134">
+        <v>1.40814538194091</v>
+      </c>
+      <c r="F134">
+        <v>-0.5172869581858981</v>
+      </c>
+      <c r="G134">
+        <v>0.5826040664105466</v>
+      </c>
+      <c r="H134">
+        <v>0.6843507440834015</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>specific_factorPrior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>-0.1037617991645017</v>
+      </c>
+      <c r="D135">
+        <v>0.09388998436459974</v>
+      </c>
+      <c r="E135">
+        <v>1.408145381940902</v>
+      </c>
+      <c r="F135">
+        <v>-0.6191643108368844</v>
+      </c>
+      <c r="G135">
+        <v>0.4741229289466822</v>
+      </c>
+      <c r="H135">
+        <v>0.421516339915349</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>specific_factorSelf-efficacy</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>0.01681117717041734</v>
+      </c>
+      <c r="D136">
+        <v>0.09388998537555118</v>
+      </c>
+      <c r="E136">
+        <v>1.408145381940914</v>
+      </c>
+      <c r="F136">
+        <v>-0.5389675769437845</v>
+      </c>
+      <c r="G136">
+        <v>0.5623920038579219</v>
+      </c>
+      <c r="H136">
+        <v>0.8801899561517901</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>0.4094825802180206</v>
+      </c>
+      <c r="D137">
+        <v>0.264372588471992</v>
+      </c>
+      <c r="E137">
+        <v>1.402609748737639</v>
+      </c>
+      <c r="F137">
+        <v>-0.8667659210117201</v>
+      </c>
+      <c r="G137">
+        <v>0.9752545963456433</v>
+      </c>
+      <c r="H137">
+        <v>0.2907938463791871</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>specific_factorWell-being</t>
         </is>
       </c>
-      <c r="C82">
-        <v>-0.187504283116788</v>
-      </c>
-      <c r="D82">
-        <v>0.04589195563191479</v>
-      </c>
-      <c r="E82">
-        <v>5.238716044044504</v>
-      </c>
-      <c r="F82">
-        <v>-0.2969028651543047</v>
-      </c>
-      <c r="G82">
-        <v>-0.07324746351827814</v>
-      </c>
-      <c r="H82">
-        <v>0.008186982296365596</v>
+      <c r="C138">
+        <v>0.1192519050196349</v>
+      </c>
+      <c r="D138">
+        <v>0.06569793918249947</v>
+      </c>
+      <c r="E138">
+        <v>1.466191237082147</v>
+      </c>
+      <c r="F138">
+        <v>-0.2807365396534105</v>
+      </c>
+      <c r="G138">
+        <v>0.483946981136916</v>
+      </c>
+      <c r="H138">
+        <v>0.2533868652833527</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>specific_factorAutonomous motivation</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>-0.0238603102397878</v>
+      </c>
+      <c r="D139">
+        <v>0.1499599318403768</v>
+      </c>
+      <c r="E139">
+        <v>1.054337973081267</v>
+      </c>
+      <c r="F139">
+        <v>-0.9369166783759514</v>
+      </c>
+      <c r="G139">
+        <v>0.9308165677868828</v>
+      </c>
+      <c r="H139">
+        <v>0.8984947023507125</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>specific_factorControlled motivation</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>-0.06449308795861584</v>
+      </c>
+      <c r="D140">
+        <v>0.09988890206084651</v>
+      </c>
+      <c r="E140">
+        <v>2.046807699717779</v>
+      </c>
+      <c r="F140">
+        <v>-0.4503086108717668</v>
+      </c>
+      <c r="G140">
+        <v>0.3416168547836587</v>
+      </c>
+      <c r="H140">
+        <v>0.5828863156900457</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>specific_factorNeed frustration</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>0.2382889320213318</v>
+      </c>
+      <c r="D141">
+        <v>0.06886654067992215</v>
+      </c>
+      <c r="E141">
+        <v>1.758805601986571</v>
+      </c>
+      <c r="F141">
+        <v>-0.09561475029088694</v>
+      </c>
+      <c r="G141">
+        <v>0.5239915110990453</v>
+      </c>
+      <c r="H141">
+        <v>0.0862091957364622</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>specific_factorNeed satisfaction</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>-0.1306197557742516</v>
+      </c>
+      <c r="D142">
+        <v>0.07101085661660274</v>
+      </c>
+      <c r="E142">
+        <v>1.758805601986571</v>
+      </c>
+      <c r="F142">
+        <v>-0.4468750239321891</v>
+      </c>
+      <c r="G142">
+        <v>0.214656851683182</v>
+      </c>
+      <c r="H142">
+        <v>0.2225644607126938</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>specific_factorSocial connection/support</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>-0.0834308043592643</v>
+      </c>
+      <c r="D143">
+        <v>0.03420381040380999</v>
+      </c>
+      <c r="E143">
+        <v>1.291710271140673</v>
+      </c>
+      <c r="F143">
+        <v>-0.3301266006187189</v>
+      </c>
+      <c r="G143">
+        <v>0.1739334066890738</v>
+      </c>
+      <c r="H143">
+        <v>0.1993471124783677</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +4948,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2964,54 +4962,44 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>term</t>
+          <t>Coef</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>beta</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>estimate</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>std.error</t>
+          <t>df</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>statistic</t>
+          <t>CI_L</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>p.value</t>
+          <t>CI_U</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>conf.low</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conf.high</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
+          <t>p_val</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3019,69 +5007,233 @@
           <t>std_error</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
+      <c r="C2">
+        <v>-0.9517155941738138</v>
       </c>
       <c r="D2">
-        <v>-0.9864976341669962</v>
+        <v>0.7037924541147778</v>
       </c>
       <c r="E2">
-        <v>0.6838177407335493</v>
+        <v>16.45170221294683</v>
       </c>
       <c r="F2">
-        <v>-3.649556870200986</v>
+        <v>-0.9974832060753821</v>
       </c>
       <c r="G2">
-        <v>0.002396242503355246</v>
+        <v>-0.346118053034248</v>
       </c>
       <c r="H2">
-        <v>-0.9992647499557552</v>
-      </c>
-      <c r="I2">
-        <v>-0.7767893880970304</v>
-      </c>
-      <c r="J2">
-        <v>14.89621490743453</v>
+        <v>0.0179634816795508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>-0.8861951015173969</v>
+      </c>
+      <c r="D3">
+        <v>0.7960853933929239</v>
+      </c>
+      <c r="E3">
+        <v>8.168995862043534</v>
+      </c>
+      <c r="F3">
+        <v>-0.9968945958112776</v>
+      </c>
+      <c r="G3">
+        <v>0.4013616501922658</v>
+      </c>
+      <c r="H3">
+        <v>0.115045872977447</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>-0.8502631185911849</v>
+      </c>
+      <c r="D4">
+        <v>0.9371034279564421</v>
+      </c>
+      <c r="E4">
+        <v>4.294289736239295</v>
+      </c>
+      <c r="F4">
+        <v>-0.9989795716836456</v>
+      </c>
+      <c r="G4">
+        <v>0.8553836835593266</v>
+      </c>
+      <c r="H4">
+        <v>0.246320944887015</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>-0.9614988317472865</v>
+      </c>
+      <c r="D5">
+        <v>1.181456933409892</v>
+      </c>
+      <c r="E5">
+        <v>3.446081152359765</v>
+      </c>
+      <c r="F5">
+        <v>-0.999964133657401</v>
+      </c>
+      <c r="G5">
+        <v>0.9110462276731334</v>
+      </c>
+      <c r="H5">
+        <v>0.18288470028273</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>-0.7841992587092836</v>
+      </c>
+      <c r="D6">
+        <v>0.6719733153320115</v>
+      </c>
+      <c r="E6">
+        <v>1.761465474774147</v>
+      </c>
+      <c r="F6">
+        <v>-0.9996715512009592</v>
+      </c>
+      <c r="G6">
+        <v>0.9777939709480088</v>
+      </c>
+      <c r="H6">
+        <v>0.2726896258368508</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>std_error</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>summary</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>-0.8422405778780663</v>
-      </c>
-      <c r="E3">
-        <v>0.7103662241121139</v>
-      </c>
-      <c r="F3">
-        <v>-1.729858841764404</v>
-      </c>
-      <c r="G3">
-        <v>0.1178835414151363</v>
-      </c>
-      <c r="H3">
-        <v>-0.9931559787354588</v>
-      </c>
-      <c r="I3">
-        <v>0.3621714933001058</v>
-      </c>
-      <c r="J3">
-        <v>8.954112446554245</v>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>46.31697054630562</v>
+      </c>
+      <c r="E7">
+        <v>1.243876194357295</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0.2404482607568161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>-0.8698506169572956</v>
+      </c>
+      <c r="D8">
+        <v>2.873573780806988</v>
+      </c>
+      <c r="E8">
+        <v>1.595968372529824</v>
+      </c>
+      <c r="F8">
+        <v>-0.9999999999999979</v>
+      </c>
+      <c r="G8">
+        <v>0.9999999999995607</v>
+      </c>
+      <c r="H8">
+        <v>0.6982612211684223</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>-0.9999996151546068</v>
+      </c>
+      <c r="D9">
+        <v>7.26174865789283</v>
+      </c>
+      <c r="E9">
+        <v>2.136863387907411</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0.3923795764802559</v>
       </c>
     </row>
   </sheetData>
@@ -3091,7 +5243,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3122,7 +5274,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3131,16 +5283,16 @@
         </is>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3149,7 +5301,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -3158,7 +5310,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3167,16 +5319,16 @@
         </is>
       </c>
       <c r="C4">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3194,7 +5346,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -3212,7 +5364,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3221,7 +5373,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -3230,7 +5382,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3239,16 +5391,16 @@
         </is>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3257,16 +5409,16 @@
         </is>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3275,16 +5427,16 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -3293,16 +5445,16 @@
         </is>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -3311,16 +5463,16 @@
         </is>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3338,7 +5490,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3356,7 +5508,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3365,16 +5517,16 @@
         </is>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3383,7 +5535,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -3392,7 +5544,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3401,16 +5553,16 @@
         </is>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3428,7 +5580,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3437,7 +5589,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -3446,7 +5598,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3464,7 +5616,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3473,7 +5625,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3482,7 +5634,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3491,7 +5643,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3500,7 +5652,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3509,16 +5661,16 @@
         </is>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3527,16 +5679,16 @@
         </is>
       </c>
       <c r="C24">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3554,7 +5706,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3563,16 +5715,16 @@
         </is>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3590,7 +5742,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3608,7 +5760,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3626,7 +5778,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3644,7 +5796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3653,7 +5805,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -3662,7 +5814,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3671,7 +5823,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>9</v>
@@ -3680,7 +5832,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3698,7 +5850,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3707,16 +5859,16 @@
         </is>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3725,7 +5877,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -3734,7 +5886,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3743,16 +5895,16 @@
         </is>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3761,16 +5913,16 @@
         </is>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3779,7 +5931,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -3788,7 +5940,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3797,25 +5949,25 @@
         </is>
       </c>
       <c r="C39">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Personal responsibility for others' motivation motivation</t>
+          <t>Positive beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>3</v>
@@ -3824,30 +5976,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Positive beliefs about knowledge and learning</t>
+          <t>Positive beliefs about motivation</t>
         </is>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Positive beliefs about motivation</t>
+          <t>Positive personality</t>
         </is>
       </c>
       <c r="C42">
@@ -3860,16 +6012,16 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Positive personality</t>
+          <t>Prior positive related experiences</t>
         </is>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3878,340 +6030,340 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Prior positive related experiences</t>
+          <t>Self-efficacy</t>
         </is>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Self-efficacy</t>
+          <t>Social connection/support</t>
         </is>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Social connection/support</t>
+          <t>Style-related beliefs</t>
         </is>
       </c>
       <c r="C46">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Style-related beliefs</t>
+          <t>Well-being</t>
         </is>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Well-being</t>
+          <t>Amotivation</t>
         </is>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Amotivation</t>
+          <t>Autonomous causality orientation</t>
         </is>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Autonomous causality orientation</t>
+          <t>Autonomous motivation</t>
         </is>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Autonomous motivation</t>
+          <t>Controlled causality orientation</t>
         </is>
       </c>
       <c r="C51">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Controlled causality orientation</t>
+          <t>Controlled motivation</t>
         </is>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Controlled motivation</t>
+          <t>Emotional intelligence</t>
         </is>
       </c>
       <c r="C53">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Emotional intelligence</t>
+          <t>Entity beliefs</t>
         </is>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Entity beliefs</t>
+          <t>External pressure in terms of constraints</t>
         </is>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>External pressure in terms of constraints</t>
+          <t>External pressures</t>
         </is>
       </c>
       <c r="C56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>External pressures</t>
+          <t>Extrinsic goals</t>
         </is>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Extrinsic goals</t>
+          <t>Harmonious passion</t>
         </is>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Harmonious passion</t>
+          <t>Ill-being</t>
         </is>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ill-being</t>
+          <t>Incremental beliefs</t>
         </is>
       </c>
       <c r="C60">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Incremental beliefs</t>
+          <t>Internal pressures</t>
         </is>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Internal pressures</t>
+          <t>Intrinsic goals</t>
         </is>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -4220,34 +6372,34 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Intrinsic goals</t>
+          <t>Invitation from others' to help</t>
         </is>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Invitation from others' to help</t>
+          <t>Job security</t>
         </is>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4256,16 +6408,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Job security</t>
+          <t>Low Personal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4274,52 +6426,52 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Low Personal responsibility for others' motivation</t>
+          <t>Mastery goals</t>
         </is>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mastery goals</t>
+          <t>Need frustration</t>
         </is>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Need frustration</t>
+          <t>Need satisfaction</t>
         </is>
       </c>
       <c r="C68">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D68">
         <v>13</v>
@@ -4328,52 +6480,52 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Need satisfaction</t>
+          <t>Negative personality</t>
         </is>
       </c>
       <c r="C69">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D69">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Negative personality</t>
+          <t>Obsessive passion</t>
         </is>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Obsessive passion</t>
+          <t>Opportunitiies for professional development</t>
         </is>
       </c>
       <c r="C71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4382,70 +6534,70 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Opportunitiies for professional development</t>
+          <t>Others' abilities</t>
         </is>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Others' abilities</t>
+          <t>Others' autonomous motivation</t>
         </is>
       </c>
       <c r="C73">
         <v>8</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Others' autonomous motivation</t>
+          <t>Others' controlled motivation</t>
         </is>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Others' controlled motivation</t>
+          <t>Others' negative behaviours</t>
         </is>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4454,52 +6606,52 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Others' negative behaviours</t>
+          <t>Others' negative emotions</t>
         </is>
       </c>
       <c r="C76">
+        <v>10</v>
+      </c>
+      <c r="D76">
         <v>4</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Others' negative emotions</t>
+          <t>Others' positive behaviours</t>
         </is>
       </c>
       <c r="C77">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Others' positive behaviours</t>
+          <t>Others' positive emotions</t>
         </is>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4508,210 +6660,210 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Others' positive emotions</t>
+          <t>Performance goals</t>
         </is>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Performance goals</t>
+          <t>Personal responsibility for others' motivation</t>
         </is>
       </c>
       <c r="C80">
+        <v>10</v>
+      </c>
+      <c r="D80">
         <v>5</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Personal responsibility for others' motivation</t>
+          <t>Positive beliefs about knowledge and learning</t>
         </is>
       </c>
       <c r="C81">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Personal responsibility for others' motivation motivation</t>
+          <t>Prior positive related experiences</t>
         </is>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Positive beliefs about knowledge and learning</t>
+          <t>Self-efficacy</t>
         </is>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Prior positive related experiences</t>
+          <t>Social connection/support</t>
         </is>
       </c>
       <c r="C84">
+        <v>14</v>
+      </c>
+      <c r="D84">
         <v>2</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Self-efficacy</t>
+          <t>Style-related beliefs</t>
         </is>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Social connection/support</t>
+          <t>Well-being</t>
         </is>
       </c>
       <c r="C86">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Style-related beliefs</t>
+          <t>Amotivation</t>
         </is>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Well-being</t>
+          <t>Autonomous causality orientation</t>
         </is>
       </c>
       <c r="C88">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D88">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Negative beliefs (religious)</t>
+          <t>Autonomous motivation</t>
         </is>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Positive attitudes</t>
+          <t>Controlled causality orientation</t>
         </is>
       </c>
       <c r="C90">
@@ -4724,34 +6876,34 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Positive beliefs (religious)</t>
+          <t>Controlled motivation</t>
         </is>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>CS</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Social competence</t>
+          <t>Emotional intelligence</t>
         </is>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -4760,18 +6912,1872 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Internal pressures</t>
+        </is>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C103">
+        <v>17</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Others' abilities</t>
+        </is>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C112">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C113">
+        <v>4</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Style-related beliefs</t>
+        </is>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CS</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C118">
+        <v>17</v>
+      </c>
+      <c r="D118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Incremental beliefs</t>
+        </is>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C127">
+        <v>9</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Others' negative emotions</t>
+        </is>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C131">
+        <v>4</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C136">
+        <v>10</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+      <c r="D138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Emotional intelligence</t>
+        </is>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Ill-being</t>
+        </is>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Negative beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C147">
+        <v>4</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Negative beliefs about motivation</t>
+        </is>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C149">
+        <v>4</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Others' positive behaviours</t>
+        </is>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Others' positive emotions</t>
+        </is>
+      </c>
+      <c r="C151">
+        <v>5</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Positive attitudes</t>
+        </is>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Positive beliefs (religious)</t>
+        </is>
+      </c>
+      <c r="C153">
+        <v>4</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Social competence</t>
+        </is>
+      </c>
+      <c r="C155">
+        <v>4</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
           <t>NT</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Amotivation</t>
+        </is>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C159">
+        <v>4</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Entity beliefs</t>
+        </is>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>Negative beliefs about motivation</t>
         </is>
       </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-      <c r="D93">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Others' negative behaviours</t>
+        </is>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Controlled motivation</t>
+        </is>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+      <c r="D173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>External pressures</t>
+        </is>
+      </c>
+      <c r="C175">
+        <v>4</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Invitation from others' to help</t>
+        </is>
+      </c>
+      <c r="C176">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Low Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Mastery goals</t>
+        </is>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C179">
+        <v>7</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C180">
+        <v>14</v>
+      </c>
+      <c r="D180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Performance goals</t>
+        </is>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Personal responsibility for others' motivation</t>
+        </is>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Prior positive related experiences</t>
+        </is>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Self-efficacy</t>
+        </is>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Autonomous causality orientation</t>
+        </is>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Controlled causality orientation</t>
+        </is>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>External pressure in terms of constraints</t>
+        </is>
+      </c>
+      <c r="C191">
+        <v>1</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Need frustration</t>
+        </is>
+      </c>
+      <c r="C192">
+        <v>7</v>
+      </c>
+      <c r="D192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Need satisfaction</t>
+        </is>
+      </c>
+      <c r="C193">
+        <v>7</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Others' autonomous motivation</t>
+        </is>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Social connection/support</t>
+        </is>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>RT</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Well-being</t>
+        </is>
+      </c>
+      <c r="C196">
+        <v>1</v>
+      </c>
+      <c r="D196">
         <v>1</v>
       </c>
     </row>
